--- a/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.00660157871163362</v>
+        <v>0.006588967598699177</v>
       </c>
       <c r="F2">
         <v>0.517478418665099</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002665168291714054</v>
+        <v>0.002549111923378791</v>
       </c>
       <c r="F3">
         <v>0.5082407898648078</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4">
-        <v>0.003427526691654666</v>
+        <v>0.003116462355016064</v>
       </c>
       <c r="F4">
         <v>0.5043101666268364</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002900962292300011</v>
+        <v>0.00264633726401236</v>
       </c>
       <c r="F5">
         <v>0.5277389157383948</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.003426825719286972</v>
+        <v>0.00339759507480527</v>
       </c>
       <c r="F6">
         <v>0.5413043907011883</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>0.00660157871163362</v>
+        <v>0.006588967598699177</v>
       </c>
       <c r="F2">
         <v>0.7031574997441021</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>118</v>
       </c>
       <c r="E3">
-        <v>0.002665168291714054</v>
+        <v>0.002549111923378791</v>
       </c>
       <c r="F3">
         <v>0.7026855421563869</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>121</v>
       </c>
       <c r="E4">
-        <v>0.003427526691654666</v>
+        <v>0.003116462355016064</v>
       </c>
       <c r="F4">
         <v>0.7041995710198246</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.002900962292300011</v>
+        <v>0.00264633726401236</v>
       </c>
       <c r="F5">
         <v>0.7130503897795419</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0.003426825719286972</v>
+        <v>0.00339759507480527</v>
       </c>
       <c r="F6">
         <v>0.7153271185931276</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.00660157871163362</v>
+        <v>0.006588967598699177</v>
       </c>
       <c r="F2">
         <v>0.8081159135557088</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>138</v>
       </c>
       <c r="E3">
-        <v>0.002665168291714054</v>
+        <v>0.002549111923378791</v>
       </c>
       <c r="F3">
         <v>0.8022015471868286</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.003427526691654666</v>
+        <v>0.003116462355016064</v>
       </c>
       <c r="F4">
         <v>0.8127591557091074</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.002900962292300011</v>
+        <v>0.00264633726401236</v>
       </c>
       <c r="F5">
         <v>0.8054715051142851</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.003426825719286972</v>
+        <v>0.00339759507480527</v>
       </c>
       <c r="F6">
         <v>0.8006127137685253</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.00660157871163362</v>
+        <v>0.006588967598699177</v>
       </c>
       <c r="F2">
         <v>0.9004599793964326</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.002665168291714054</v>
+        <v>0.002549111923378791</v>
       </c>
       <c r="F3">
         <v>0.9083197754712289</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.003427526691654666</v>
+        <v>0.003116462355016064</v>
       </c>
       <c r="F4">
         <v>0.9004939081845654</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.002900962292300011</v>
+        <v>0.00264633726401236</v>
       </c>
       <c r="F5">
         <v>0.9015922557094903</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>0.003426825719286972</v>
+        <v>0.00339759507480527</v>
       </c>
       <c r="F6">
         <v>0.902938263925718</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>58</v>

--- a/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001088865283028928</v>
+        <v>9.484818304010732E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001551043475825412</v>
+        <v>0.0001411842083536513</v>
       </c>
       <c r="D2">
-        <v>0.0002471101961485365</v>
+        <v>0.0002334253697626949</v>
       </c>
       <c r="E2">
-        <v>0.0002211813365526641</v>
+        <v>0.000207430194886179</v>
       </c>
       <c r="F2">
-        <v>0.0001829532371484879</v>
+        <v>0.0001691043238414458</v>
       </c>
       <c r="G2">
-        <v>0.0001435310777629223</v>
+        <v>0.0001295813389045842</v>
       </c>
       <c r="H2">
-        <v>0.0001272935480160007</v>
+        <v>0.000113302280283701</v>
       </c>
       <c r="I2">
-        <v>0.0001664823974052027</v>
+        <v>0.0001525913585138875</v>
       </c>
       <c r="J2">
-        <v>6.507087898580424E-05</v>
+        <v>5.09204714446798E-05</v>
       </c>
       <c r="K2">
-        <v>1.428030877742688E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.228302480855658E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>6.936644891885341E-07</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.699191057930365E-05</v>
+        <v>1.274411281293007E-05</v>
       </c>
       <c r="O2">
-        <v>1.481655976906886E-05</v>
+        <v>5.376224995123796E-07</v>
       </c>
       <c r="P2">
-        <v>5.241065918312662E-05</v>
+        <v>3.822787204481552E-05</v>
       </c>
       <c r="Q2">
-        <v>0.000110882988271776</v>
+        <v>9.684974912646703E-05</v>
       </c>
       <c r="R2">
-        <v>0.0001381001278475692</v>
+        <v>0.0001241364988693642</v>
       </c>
       <c r="S2">
-        <v>0.0001868990970869877</v>
+        <v>0.0001730602756549173</v>
       </c>
       <c r="T2">
-        <v>0.0002021951368485833</v>
+        <v>0.0001883954363491469</v>
       </c>
       <c r="U2">
-        <v>0.0001676552173869231</v>
+        <v>0.0001537671780832274</v>
       </c>
       <c r="V2">
-        <v>0.0001944719369689573</v>
+        <v>0.0001806524837239136</v>
       </c>
       <c r="W2">
-        <v>0.0001855383571081962</v>
+        <v>0.0001716960554670081</v>
       </c>
       <c r="X2">
-        <v>0.0001689488273667609</v>
+        <v>0.0001550640965814572</v>
       </c>
       <c r="Y2">
-        <v>0.0001761525172544841</v>
+        <v>0.0001622862105234589</v>
       </c>
       <c r="Z2">
-        <v>8.526325867108549E-05</v>
+        <v>7.116449487158956E-05</v>
       </c>
       <c r="AA2">
-        <v>3.712226242141183E-05</v>
+        <v>2.290037389809399E-05</v>
       </c>
       <c r="AB2">
-        <v>7.713382879779091E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.225626180897371E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>8.347634269893639E-08</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.136855235522908E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.622652174709317E-05</v>
+        <v>1.951190576135963E-06</v>
       </c>
       <c r="AG2">
-        <v>4.788550925365568E-05</v>
+        <v>3.369114865657299E-05</v>
       </c>
       <c r="AH2">
-        <v>0.0001063008083431939</v>
+        <v>9.22558498800029E-05</v>
       </c>
       <c r="AI2">
-        <v>0.0001083669033109917</v>
+        <v>9.432722906275507E-05</v>
       </c>
       <c r="AJ2">
-        <v>0.0001083669033109917</v>
+        <v>9.432722906275507E-05</v>
       </c>
       <c r="AK2">
-        <v>0.000160111537504499</v>
+        <v>0.0001462042045929746</v>
       </c>
       <c r="AL2">
-        <v>0.0001671263173951665</v>
+        <v>0.0001532369253844127</v>
       </c>
       <c r="AM2">
-        <v>0.0001939022469778365</v>
+        <v>0.0001800813367018154</v>
       </c>
       <c r="AN2">
-        <v>0.0002109223367125611</v>
+        <v>0.0001971449567747395</v>
       </c>
       <c r="AO2">
-        <v>0.0001083669033109917</v>
+        <v>9.432722906275507E-05</v>
       </c>
       <c r="AP2">
-        <v>0.0001042545883750863</v>
+        <v>9.020439652895605E-05</v>
       </c>
       <c r="AQ2">
-        <v>9.480663852234222E-05</v>
+        <v>8.073228273472913E-05</v>
       </c>
       <c r="AR2">
-        <v>6.111120904751972E-05</v>
+        <v>4.695067431116549E-05</v>
       </c>
       <c r="AS2">
-        <v>3.748157441581158E-05</v>
+        <v>2.326060486371418E-05</v>
       </c>
       <c r="AT2">
-        <v>7.327842385788131E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.235476880743838E-09</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>9.311728854867246E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>7.852472877611231E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.327827248132432E-05</v>
+        <v>1.904655262428641E-05</v>
       </c>
       <c r="AY2">
-        <v>9.667013849329768E-05</v>
+        <v>8.260054876657115E-05</v>
       </c>
       <c r="AZ2">
-        <v>0.0001188978331468565</v>
+        <v>0.000104885092654226</v>
       </c>
       <c r="BA2">
-        <v>0.0001340292679110177</v>
+        <v>0.0001200552273596329</v>
       </c>
       <c r="BB2">
-        <v>0.0001428271177738943</v>
+        <v>0.0001288755784775515</v>
       </c>
       <c r="BC2">
-        <v>0.0001625305274667966</v>
+        <v>0.0001486293813294198</v>
       </c>
       <c r="BD2">
-        <v>0.0001151227582056948</v>
+        <v>0.0001011003626353605</v>
       </c>
       <c r="BE2">
-        <v>0.0001006315184315555</v>
+        <v>8.65720602735303E-05</v>
       </c>
       <c r="BF2">
-        <v>0.0001340292679110177</v>
+        <v>0.0001200552273596329</v>
       </c>
       <c r="BG2">
-        <v>7.243508887102555E-05</v>
+        <v>5.830351592783054E-05</v>
       </c>
       <c r="BH2">
-        <v>1.868722370874063E-05</v>
+        <v>4.418185993944251E-06</v>
       </c>
       <c r="BI2">
-        <v>8.238304871597648E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>2.163220266284014E-10</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.923600654432713E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>6.287906601996587E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>4.987874922258902E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>4.927548923199143E-05</v>
+        <v>3.508468362783126E-05</v>
       </c>
       <c r="BO2">
-        <v>6.072208205358466E-05</v>
+        <v>4.65605520915934E-05</v>
       </c>
       <c r="BP2">
-        <v>4.155468135232807E-05</v>
+        <v>2.734412912030553E-05</v>
       </c>
       <c r="BQ2">
-        <v>5.803296409549729E-05</v>
+        <v>4.386455648385797E-05</v>
       </c>
       <c r="BR2">
-        <v>0.0001173696931706741</v>
+        <v>0.0001033530443290857</v>
       </c>
       <c r="BS2">
-        <v>0.0001162918981874726</v>
+        <v>0.0001022724927928425</v>
       </c>
       <c r="BT2">
-        <v>6.547367897952618E-05</v>
+        <v>5.132430163390757E-05</v>
       </c>
       <c r="BU2">
-        <v>4.685607526970046E-05</v>
+        <v>3.265908180697639E-05</v>
       </c>
       <c r="BV2">
-        <v>1.622652174709317E-05</v>
+        <v>1.951190576135963E-06</v>
       </c>
       <c r="BW2">
-        <v>5.797767109635909E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.30496296407481E-05</v>
+        <v>8.791749153001858E-06</v>
       </c>
       <c r="BY2">
-        <v>6.928544892011588E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>5.797767109635909E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>8.018195875028271E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.208575181163128E-08</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.306820917287804E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>3.44079784637167E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.117719982579199E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>5.079599720829277E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>2.856844355473178E-05</v>
+        <v>1.432467790655927E-05</v>
       </c>
       <c r="CH2">
-        <v>9.773741847666302E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>6.774554394411687E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>8.134381373217402E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>1.260310380356782E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>8.009130875169558E-09</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>2.996550553295715E-05</v>
+        <v>1.572531299052883E-05</v>
       </c>
       <c r="CN2">
-        <v>0.1035641083858481</v>
+        <v>0.1038146656370928</v>
       </c>
       <c r="CO2">
-        <v>0.02568050959974317</v>
+        <v>0.02573187287209585</v>
       </c>
       <c r="CP2">
-        <v>0.186131337098954</v>
+        <v>0.1865930671140384</v>
       </c>
       <c r="CQ2">
-        <v>0.08564506366513468</v>
+        <v>0.08584979142375837</v>
       </c>
       <c r="CR2">
-        <v>0.001064152083414109</v>
+        <v>0.001052556911679342</v>
       </c>
       <c r="CS2">
-        <v>0.003088704451859403</v>
+        <v>0.003082287246320745</v>
       </c>
       <c r="CT2">
-        <v>0.004790310625338141</v>
+        <v>0.004788245423423934</v>
       </c>
       <c r="CU2">
-        <v>0.0004838796124582446</v>
+        <v>0.0004708003441468852</v>
       </c>
       <c r="CV2">
-        <v>0.0001470284877084116</v>
+        <v>0.0001330876937757539</v>
       </c>
       <c r="CW2">
-        <v>0.006885208892687024</v>
+        <v>0.006888501572634351</v>
       </c>
       <c r="CX2">
-        <v>0.01643464274384939</v>
+        <v>0.01646235891930318</v>
       </c>
       <c r="CY2">
-        <v>0.07693192880093772</v>
+        <v>0.07711437197038894</v>
       </c>
       <c r="CZ2">
-        <v>0.03616300943636275</v>
+        <v>0.03624118260044791</v>
       </c>
       <c r="DA2">
-        <v>0.002672036158353602</v>
+        <v>0.002664553287943839</v>
       </c>
       <c r="DB2">
-        <v>0.008937726860696445</v>
+        <v>0.008946269031257552</v>
       </c>
       <c r="DC2">
-        <v>0.01536492276052207</v>
+        <v>0.01538990303543837</v>
       </c>
       <c r="DD2">
-        <v>0.007442122884006953</v>
+        <v>0.007446839919217271</v>
       </c>
       <c r="DE2">
-        <v>0.005531906513779617</v>
+        <v>0.005531738006908409</v>
       </c>
       <c r="DF2">
-        <v>0.004613163328099162</v>
+        <v>0.004610645056789897</v>
       </c>
       <c r="DG2">
-        <v>0.001121837582515022</v>
+        <v>0.001110389946388128</v>
       </c>
       <c r="DH2">
-        <v>2.500432061028226E-05</v>
+        <v>1.075143941221696E-05</v>
       </c>
       <c r="DI2">
-        <v>1.106046182761146E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.007593421181648816</v>
+        <v>0.00759852517522234</v>
       </c>
       <c r="DK2">
-        <v>0.001816269971691587</v>
+        <v>0.001806598405916186</v>
       </c>
       <c r="DL2">
-        <v>0.004773072325606818</v>
+        <v>0.004770963035263643</v>
       </c>
       <c r="DM2">
-        <v>0.009614681850145414</v>
+        <v>0.009624955391110314</v>
       </c>
       <c r="DN2">
-        <v>0.00804303287464116</v>
+        <v>0.008049286788653381</v>
       </c>
       <c r="DO2">
-        <v>0.01414297127956742</v>
+        <v>0.01416482630884411</v>
       </c>
       <c r="DP2">
-        <v>0.005783146609863784</v>
+        <v>0.005783620671070788</v>
       </c>
       <c r="DQ2">
-        <v>0.004704430926676664</v>
+        <v>0.00470214608007283</v>
       </c>
       <c r="DR2">
-        <v>0.02356859663265947</v>
+        <v>0.02361455850659782</v>
       </c>
       <c r="DS2">
-        <v>0.00150730947650705</v>
+        <v>0.001496847717785825</v>
       </c>
       <c r="DT2">
-        <v>0.009310025854893789</v>
+        <v>0.009319520212040357</v>
       </c>
       <c r="DU2">
-        <v>0.002316202663899628</v>
+        <v>0.00230780971883117</v>
       </c>
       <c r="DV2">
-        <v>0.004048529936899547</v>
+        <v>0.004044567567300509</v>
       </c>
       <c r="DW2">
-        <v>0.001136614682284705</v>
+        <v>0.001125204839856941</v>
       </c>
       <c r="DX2">
-        <v>0.0007985616875536047</v>
+        <v>0.0007862872456190589</v>
       </c>
       <c r="DY2">
-        <v>0.0002079064867595662</v>
+        <v>0.0001941213935270171</v>
       </c>
       <c r="DZ2">
-        <v>0.004431516330930315</v>
+        <v>0.004428533481857775</v>
       </c>
       <c r="EA2">
-        <v>0.0006872098892891356</v>
+        <v>0.0006746506555871473</v>
       </c>
       <c r="EB2">
-        <v>8.090358873903537E-08</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.03235329649574101</v>
+        <v>0.03242172599246992</v>
       </c>
       <c r="ED2">
-        <v>0.0009059537858797898</v>
+        <v>0.0008939540084407291</v>
       </c>
       <c r="EE2">
-        <v>0.007698048880018087</v>
+        <v>0.007703420467897284</v>
       </c>
       <c r="EF2">
-        <v>0.005730187410689207</v>
+        <v>0.005730526024205466</v>
       </c>
       <c r="EG2">
-        <v>0.0002338288763555394</v>
+        <v>0.0002201100818560546</v>
       </c>
       <c r="EH2">
-        <v>1.332103579237812E-05</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0003344285347875915</v>
+        <v>0.0003209670325364181</v>
       </c>
       <c r="EJ2">
-        <v>0.009659613349445113</v>
+        <v>0.009670001806570315</v>
       </c>
       <c r="EK2">
-        <v>1.720898973178041E-05</v>
+        <v>2.936171306896239E-06</v>
       </c>
       <c r="EL2">
-        <v>0.008399324369087996</v>
+        <v>0.008406489529133148</v>
       </c>
       <c r="EM2">
-        <v>5.097683120547429E-05</v>
+        <v>3.679037692922443E-05</v>
       </c>
       <c r="EN2">
-        <v>0.009242797855941605</v>
+        <v>0.009252120271719093</v>
       </c>
       <c r="EO2">
-        <v>0.006618928496837274</v>
+        <v>0.006621540141850714</v>
       </c>
       <c r="EP2">
-        <v>0.0001897590970424117</v>
+        <v>0.000175927590305343</v>
       </c>
       <c r="EQ2">
-        <v>1.023845884042322E-06</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001082117683134096</v>
+        <v>0.001070568459960351</v>
       </c>
       <c r="ES2">
-        <v>0.006728899895123258</v>
+        <v>0.006731792801412889</v>
       </c>
       <c r="ET2">
-        <v>0.0002895452154871436</v>
+        <v>0.0002759689203001444</v>
       </c>
       <c r="EU2">
-        <v>0.00456190152889813</v>
+        <v>0.004559252151144027</v>
       </c>
       <c r="EV2">
-        <v>0.01015996084164669</v>
+        <v>0.01017162898036537</v>
       </c>
       <c r="EW2">
-        <v>0.0009453909452651215</v>
+        <v>0.0009334920317411418</v>
       </c>
       <c r="EX2">
-        <v>0.0002588617159653771</v>
+        <v>0.0002452069450986285</v>
       </c>
       <c r="EY2">
-        <v>0.004125023235707322</v>
+        <v>0.004121256504275826</v>
       </c>
       <c r="EZ2">
-        <v>0.01160506231912331</v>
+        <v>0.01162042642872274</v>
       </c>
       <c r="FA2">
-        <v>0.01218136581014104</v>
+        <v>0.0121982038653107</v>
       </c>
       <c r="FB2">
-        <v>0.002909018354659993</v>
+        <v>0.002902141586527791</v>
       </c>
       <c r="FC2">
-        <v>0.001638133274468029</v>
+        <v>0.001628006108822312</v>
       </c>
       <c r="FD2">
-        <v>0.005402219415800922</v>
+        <v>0.00540171922306183</v>
       </c>
       <c r="FE2">
-        <v>0.006353208900978785</v>
+        <v>0.006355140945352378</v>
       </c>
       <c r="FF2">
-        <v>0.006441657899600217</v>
+        <v>0.006443816159868286</v>
       </c>
       <c r="FG2">
-        <v>0.01697591973541304</v>
+        <v>0.01700502027316277</v>
       </c>
       <c r="FH2">
-        <v>0.02067929867769212</v>
+        <v>0.020717870924484</v>
       </c>
       <c r="FI2">
-        <v>0.002828905555908633</v>
+        <v>0.002821823892427574</v>
       </c>
       <c r="FJ2">
-        <v>0.000110882988271776</v>
+        <v>9.684974912646703E-05</v>
       </c>
       <c r="FK2">
-        <v>0.001006406584314131</v>
+        <v>0.000994663723516351</v>
       </c>
       <c r="FL2">
-        <v>0.009767717847760192</v>
+        <v>0.009778382791404907</v>
       </c>
       <c r="FM2">
-        <v>0.002023734868458036</v>
+        <v>0.002014593911936848</v>
       </c>
       <c r="FN2">
-        <v>0.0009499954851933551</v>
+        <v>0.0009381083481748729</v>
       </c>
       <c r="FO2">
-        <v>0.0002036155268264451</v>
+        <v>0.0001898194590961113</v>
       </c>
       <c r="FP2">
-        <v>1.851090971148867E-05</v>
+        <v>4.24142105853336E-06</v>
       </c>
       <c r="FQ2">
-        <v>0.002444676961897226</v>
+        <v>0.002436612600856757</v>
       </c>
       <c r="FR2">
-        <v>0.006601983897101373</v>
+        <v>0.006604552204848755</v>
       </c>
       <c r="FS2">
-        <v>0.002134712966728329</v>
+        <v>0.002125855846204821</v>
       </c>
       <c r="FT2">
-        <v>0.001961023969435449</v>
+        <v>0.001951722624415387</v>
       </c>
       <c r="FU2">
-        <v>0.006867926492956387</v>
+        <v>0.006871174971685219</v>
       </c>
       <c r="FV2">
-        <v>0.003055543352376252</v>
+        <v>0.003049041334483602</v>
       </c>
       <c r="FW2">
-        <v>3.933536938691831E-05</v>
+        <v>2.51191410743386E-05</v>
       </c>
       <c r="FX2">
-        <v>0.007998381875337092</v>
+        <v>0.008004521590591788</v>
       </c>
       <c r="FY2">
-        <v>0.003056040252368507</v>
+        <v>0.003049539505340174</v>
       </c>
       <c r="FZ2">
-        <v>0.0001238409680698127</v>
+        <v>0.000109840870068398</v>
       </c>
       <c r="GA2">
-        <v>0.003041779152590782</v>
+        <v>0.003035241931577522</v>
       </c>
       <c r="GB2">
-        <v>0.0009225362256213356</v>
+        <v>0.0009105788591931083</v>
       </c>
       <c r="GC2">
-        <v>3.902329939178224E-05</v>
+        <v>2.480627293344408E-05</v>
       </c>
       <c r="GD2">
-        <v>0.001126852882436853</v>
+        <v>0.001115418073369345</v>
       </c>
       <c r="GE2">
-        <v>0.004448726230662082</v>
+        <v>0.004445787397383076</v>
       </c>
       <c r="GF2">
-        <v>0.003343635947886037</v>
+        <v>0.003337870751497314</v>
       </c>
       <c r="GG2">
-        <v>0.006815059493780373</v>
+        <v>0.006818172760627858</v>
       </c>
       <c r="GH2">
-        <v>0.006453668099413026</v>
+        <v>0.006455857076796447</v>
       </c>
       <c r="GI2">
-        <v>1.059781483482229E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0005356438216514468</v>
+        <v>0.000522696944741539</v>
       </c>
       <c r="GK2">
-        <v>0.0002478945761363112</v>
+        <v>0.0002342117558695134</v>
       </c>
       <c r="GL2">
-        <v>0.000772016787967334</v>
+        <v>0.0007596744551770716</v>
       </c>
       <c r="GM2">
-        <v>0.0003092286351803575</v>
+        <v>0.0002957026820261868</v>
       </c>
       <c r="GN2">
-        <v>0.001065486183393315</v>
+        <v>0.001053894423733584</v>
       </c>
       <c r="GO2">
-        <v>0.0002064711967819366</v>
+        <v>0.0001926824326722585</v>
       </c>
       <c r="GP2">
-        <v>0.0001670102773969751</v>
+        <v>0.0001531205886039807</v>
       </c>
       <c r="GQ2">
-        <v>0.003354657347714257</v>
+        <v>0.003348920339500182</v>
       </c>
       <c r="GR2">
-        <v>0.006210951503196011</v>
+        <v>0.006212519712082636</v>
       </c>
       <c r="GS2">
-        <v>0.01210445081133984</v>
+        <v>0.01212109214980808</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.695984634126271E-05</v>
+        <v>1.2564709092836E-05</v>
       </c>
       <c r="C3">
-        <v>4.4943832904351E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.128346842826179E-05</v>
+        <v>1.68918125176672E-05</v>
       </c>
       <c r="E3">
-        <v>6.767183136167934E-05</v>
+        <v>6.331752690308513E-05</v>
       </c>
       <c r="F3">
-        <v>2.461997649539834E-05</v>
+        <v>2.023100710816949E-05</v>
       </c>
       <c r="G3">
-        <v>2.231086744893491E-05</v>
+        <v>1.792003878989177E-05</v>
       </c>
       <c r="H3">
-        <v>5.18295570429042E-05</v>
+        <v>4.74624965413851E-05</v>
       </c>
       <c r="I3">
-        <v>3.370348767817498E-05</v>
+        <v>2.932183224450006E-05</v>
       </c>
       <c r="J3">
-        <v>3.499323070412693E-05</v>
+        <v>3.06126137588073E-05</v>
       </c>
       <c r="K3">
-        <v>1.352830727221395E-05</v>
+        <v>9.130406982396691E-06</v>
       </c>
       <c r="L3">
-        <v>4.40563078864924E-08</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7.893587158833216E-07</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.555639192276701E-06</v>
+        <v>5.154540149330038E-06</v>
       </c>
       <c r="O3">
-        <v>2.077884941810794E-05</v>
+        <v>1.638678719326676E-05</v>
       </c>
       <c r="P3">
-        <v>1.716801934545152E-06</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.351347227191544E-05</v>
+        <v>9.115560037102359E-06</v>
       </c>
       <c r="R3">
-        <v>2.010639040457685E-09</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.132750763645619E-10</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>7.919213159348857E-06</v>
+        <v>3.516796482311316E-06</v>
       </c>
       <c r="U3">
-        <v>4.405246088641499E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>2.874374657837604E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.394009088415391E-05</v>
+        <v>3.956667786234949E-05</v>
       </c>
       <c r="X3">
-        <v>5.180051904231991E-05</v>
+        <v>4.743343515968932E-05</v>
       </c>
       <c r="Y3">
-        <v>3.810895476682093E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.868109097955138E-05</v>
+        <v>4.43114953642321E-05</v>
       </c>
       <c r="AA3">
-        <v>4.590670092372565E-05</v>
+        <v>4.153487139691547E-05</v>
       </c>
       <c r="AB3">
-        <v>1.16917102352583E-05</v>
+        <v>7.292331135633327E-06</v>
       </c>
       <c r="AC3">
-        <v>5.501817110706488E-07</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.177616443817572E-07</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.4943832904351E-07</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.196485144197244E-07</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.404667648386251E-06</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.024804520620916E-05</v>
+        <v>5.847503681751159E-06</v>
       </c>
       <c r="AI3">
-        <v>1.741603235044199E-05</v>
+        <v>1.302126241848751E-05</v>
       </c>
       <c r="AJ3">
-        <v>3.855093777571442E-05</v>
+        <v>3.417318546101575E-05</v>
       </c>
       <c r="AK3">
-        <v>3.923717778952281E-05</v>
+        <v>3.485997802851036E-05</v>
       </c>
       <c r="AL3">
-        <v>1.77235203566292E-05</v>
+        <v>1.332899801098253E-05</v>
       </c>
       <c r="AM3">
-        <v>3.608651672612582E-05</v>
+        <v>3.170678008392082E-05</v>
       </c>
       <c r="AN3">
-        <v>8.027927161536378E-05</v>
+        <v>7.593511854323172E-05</v>
       </c>
       <c r="AO3">
-        <v>2.21379504454555E-05</v>
+        <v>1.774698255534779E-05</v>
       </c>
       <c r="AP3">
-        <v>7.32292084735038E-06</v>
+        <v>2.920024041628372E-06</v>
       </c>
       <c r="AQ3">
-        <v>4.275919586039217E-05</v>
+        <v>3.838483199356955E-05</v>
       </c>
       <c r="AR3">
-        <v>4.180519384119593E-05</v>
+        <v>3.743006182136305E-05</v>
       </c>
       <c r="AS3">
-        <v>5.472320110112954E-06</v>
+        <v>1.067933218941973E-06</v>
       </c>
       <c r="AT3">
-        <v>1.580719331806925E-06</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>1.81970463661574E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.070703561788096E-08</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.193711064263229E-06</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.475280469928913E-05</v>
+        <v>3.03719941653233E-05</v>
       </c>
       <c r="AY3">
-        <v>4.791636596416373E-05</v>
+        <v>4.354615459980957E-05</v>
       </c>
       <c r="AZ3">
-        <v>3.518660770801803E-05</v>
+        <v>3.080614646795337E-05</v>
       </c>
       <c r="BA3">
-        <v>6.524689631288527E-05</v>
+        <v>6.089063932052287E-05</v>
       </c>
       <c r="BB3">
-        <v>0.0001121496122566525</v>
+        <v>0.000107831120868258</v>
       </c>
       <c r="BC3">
-        <v>5.832997817370441E-05</v>
+        <v>5.39681517471234E-05</v>
       </c>
       <c r="BD3">
-        <v>3.096966262316549E-05</v>
+        <v>2.658580594053798E-05</v>
       </c>
       <c r="BE3">
-        <v>5.749261115685507E-05</v>
+        <v>5.313011049061656E-05</v>
       </c>
       <c r="BF3">
-        <v>2.26395154555479E-05</v>
+        <v>1.824895142063607E-05</v>
       </c>
       <c r="BG3">
-        <v>8.901492579114091E-07</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.893587158833216E-07</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1.038060920887659E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.866212737551567E-05</v>
+        <v>1.426836078697695E-05</v>
       </c>
       <c r="BK3">
-        <v>4.807419496733954E-06</v>
+        <v>4.024972341513686E-07</v>
       </c>
       <c r="BL3">
-        <v>5.472320110112954E-06</v>
+        <v>1.067933218941973E-06</v>
       </c>
       <c r="BM3">
-        <v>4.156837583643072E-05</v>
+        <v>3.719305313307769E-05</v>
       </c>
       <c r="BN3">
-        <v>5.477494110217064E-05</v>
+        <v>5.041025219482636E-05</v>
       </c>
       <c r="BO3">
-        <v>3.370348767817498E-05</v>
+        <v>2.932183224450006E-05</v>
       </c>
       <c r="BP3">
-        <v>6.206032524876572E-05</v>
+        <v>5.770150246083259E-05</v>
       </c>
       <c r="BQ3">
-        <v>0.0001114166682419044</v>
+        <v>0.000107097586694223</v>
       </c>
       <c r="BR3">
-        <v>7.638402153698432E-05</v>
+        <v>7.203673204793362E-05</v>
       </c>
       <c r="BS3">
-        <v>3.65285387350201E-05</v>
+        <v>3.214915800457409E-05</v>
       </c>
       <c r="BT3">
-        <v>5.977023620268499E-05</v>
+        <v>5.540956945765419E-05</v>
       </c>
       <c r="BU3">
-        <v>8.027927161536378E-05</v>
+        <v>7.593511854323172E-05</v>
       </c>
       <c r="BV3">
-        <v>6.5576177319511E-05</v>
+        <v>6.122018546096526E-05</v>
       </c>
       <c r="BW3">
-        <v>3.719661674846304E-05</v>
+        <v>3.28177739478398E-05</v>
       </c>
       <c r="BX3">
-        <v>1.379946927767022E-05</v>
+        <v>9.4017873248235E-06</v>
       </c>
       <c r="BY3">
-        <v>1.665908733521089E-05</v>
+        <v>1.226370791860088E-05</v>
       </c>
       <c r="BZ3">
-        <v>7.028177141419605E-06</v>
+        <v>2.625043010974578E-06</v>
       </c>
       <c r="CA3">
-        <v>1.814265936506304E-06</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>5.042647501467166E-06</v>
+        <v>6.379146421523907E-07</v>
       </c>
       <c r="CC3">
-        <v>1.44737962912389E-05</v>
+        <v>1.007665729984818E-05</v>
       </c>
       <c r="CD3">
-        <v>2.798353356307919E-05</v>
+        <v>2.359727247880434E-05</v>
       </c>
       <c r="CE3">
-        <v>2.876503657880443E-05</v>
+        <v>2.437940475304474E-05</v>
       </c>
       <c r="CF3">
-        <v>6.915534139153024E-05</v>
+        <v>6.480223144057045E-05</v>
       </c>
       <c r="CG3">
-        <v>7.958734160144091E-05</v>
+        <v>7.524263139409069E-05</v>
       </c>
       <c r="CH3">
-        <v>6.763864136101149E-05</v>
+        <v>6.328431017815633E-05</v>
       </c>
       <c r="CI3">
-        <v>8.935959179807621E-05</v>
+        <v>8.502275011013633E-05</v>
       </c>
       <c r="CJ3">
-        <v>4.791636596416373E-05</v>
+        <v>4.354615459980957E-05</v>
       </c>
       <c r="CK3">
-        <v>2.876503657880443E-05</v>
+        <v>2.437940475304474E-05</v>
       </c>
       <c r="CL3">
-        <v>8.729133175645908E-05</v>
+        <v>8.295282472594655E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0005489537110459392</v>
+        <v>0.0005449869300068172</v>
       </c>
       <c r="CN3">
-        <v>0.2230730844886329</v>
+        <v>0.2232482919414765</v>
       </c>
       <c r="CO3">
-        <v>0.004942877799459619</v>
+        <v>0.004942448962730307</v>
       </c>
       <c r="CP3">
-        <v>0.2770107055739552</v>
+        <v>0.277229343066955</v>
       </c>
       <c r="CQ3">
-        <v>0.02881875857988542</v>
+        <v>0.02883755436671561</v>
       </c>
       <c r="CR3">
-        <v>0.01182908223802248</v>
+        <v>0.01183419810514316</v>
       </c>
       <c r="CS3">
-        <v>0.01012045820364188</v>
+        <v>0.01012419830355348</v>
       </c>
       <c r="CT3">
-        <v>0.001047111021069763</v>
+        <v>0.001043545351380069</v>
       </c>
       <c r="CU3">
-        <v>0.0005856411117841557</v>
+        <v>0.000581703871078019</v>
       </c>
       <c r="CV3">
-        <v>0.001100119822136396</v>
+        <v>0.001096596834610146</v>
       </c>
       <c r="CW3">
-        <v>0.00160363203226797</v>
+        <v>0.001600514467803865</v>
       </c>
       <c r="CX3">
-        <v>1.108645922307956E-05</v>
+        <v>6.686592781313154E-06</v>
       </c>
       <c r="CY3">
-        <v>0.04034583381183097</v>
+        <v>0.04037391108587055</v>
       </c>
       <c r="CZ3">
-        <v>0.01126549422668207</v>
+        <v>0.01127015629829839</v>
       </c>
       <c r="DA3">
-        <v>0.0008997188581039667</v>
+        <v>0.0008960345096993515</v>
       </c>
       <c r="DB3">
-        <v>0.005358421107821101</v>
+        <v>0.005358326862462444</v>
       </c>
       <c r="DC3">
-        <v>0.005718694615070453</v>
+        <v>0.005718890458384086</v>
       </c>
       <c r="DD3">
-        <v>0.02024073340728007</v>
+        <v>0.02025262225290279</v>
       </c>
       <c r="DE3">
-        <v>0.002177710643819467</v>
+        <v>0.002175055321787469</v>
       </c>
       <c r="DF3">
-        <v>0.00313608606310371</v>
+        <v>0.003134202415500558</v>
       </c>
       <c r="DG3">
-        <v>0.002827738256899195</v>
+        <v>0.002825606330685751</v>
       </c>
       <c r="DH3">
-        <v>0.001139258222923931</v>
+        <v>0.001135766749251716</v>
       </c>
       <c r="DI3">
-        <v>0.002596656352249411</v>
+        <v>0.002594338361167023</v>
       </c>
       <c r="DJ3">
-        <v>0.008054256162066165</v>
+        <v>0.008056332576486429</v>
       </c>
       <c r="DK3">
-        <v>0.0003266917865736282</v>
+        <v>0.0003225460424265527</v>
       </c>
       <c r="DL3">
-        <v>0.009827416197745345</v>
+        <v>0.009830920343125995</v>
       </c>
       <c r="DM3">
-        <v>0.001735325634917883</v>
+        <v>0.001732314108842871</v>
       </c>
       <c r="DN3">
-        <v>0.008528472171608247</v>
+        <v>0.008530930420079083</v>
       </c>
       <c r="DO3">
-        <v>0.01515035530485248</v>
+        <v>0.01515814542826701</v>
       </c>
       <c r="DP3">
-        <v>6.351349127800603E-05</v>
+        <v>5.915583856501751E-05</v>
       </c>
       <c r="DQ3">
-        <v>0.01349990427164243</v>
+        <v>0.01350636546817427</v>
       </c>
       <c r="DR3">
-        <v>0.01170573723554055</v>
+        <v>0.0117107537864826</v>
       </c>
       <c r="DS3">
-        <v>0.0005142845103483322</v>
+        <v>0.000510289814010979</v>
       </c>
       <c r="DT3">
-        <v>0.007501197150937621</v>
+        <v>0.007502828247700584</v>
       </c>
       <c r="DU3">
-        <v>0.0007653066153993499</v>
+        <v>0.0007615140395835012</v>
       </c>
       <c r="DV3">
-        <v>0.005203825104710349</v>
+        <v>0.005203606380175785</v>
       </c>
       <c r="DW3">
-        <v>7.864448158246885E-05</v>
+        <v>7.429901219353698E-05</v>
       </c>
       <c r="DX3">
-        <v>4.491801090383142E-05</v>
+        <v>4.054538529357518E-05</v>
       </c>
       <c r="DY3">
-        <v>0.004715757094889541</v>
+        <v>0.004715145382810495</v>
       </c>
       <c r="DZ3">
-        <v>0.001776825335752932</v>
+        <v>0.001773847224827448</v>
       </c>
       <c r="EA3">
-        <v>0.000628102872638563</v>
+        <v>0.0006241998217231865</v>
       </c>
       <c r="EB3">
-        <v>0.007673368454402018</v>
+        <v>0.007675138181799273</v>
       </c>
       <c r="EC3">
-        <v>0.02701652654362126</v>
+        <v>0.02703387119100313</v>
       </c>
       <c r="ED3">
-        <v>0.0006373290128242095</v>
+        <v>0.0006334333907058524</v>
       </c>
       <c r="EE3">
-        <v>0.007955805160085153</v>
+        <v>0.007957802302730292</v>
       </c>
       <c r="EF3">
-        <v>0.0020445880411408</v>
+        <v>0.00204182553010299</v>
       </c>
       <c r="EG3">
-        <v>0.0003142169763226125</v>
+        <v>0.000310061187581444</v>
       </c>
       <c r="EH3">
-        <v>5.180051904231991E-05</v>
+        <v>4.743343515968932E-05</v>
       </c>
       <c r="EI3">
-        <v>0.00732435414737922</v>
+        <v>0.007325842851901084</v>
       </c>
       <c r="EJ3">
-        <v>0.007100083542866491</v>
+        <v>0.007101391666911059</v>
       </c>
       <c r="EK3">
-        <v>0.003158495063554619</v>
+        <v>0.003156629459457463</v>
       </c>
       <c r="EL3">
-        <v>0.0004846865897527687</v>
+        <v>0.0004806680614618709</v>
       </c>
       <c r="EM3">
-        <v>0.006290126726568698</v>
+        <v>0.006290782681378716</v>
       </c>
       <c r="EN3">
-        <v>0.01557313331335954</v>
+        <v>0.01558126385345387</v>
       </c>
       <c r="EO3">
-        <v>0.005586631112413098</v>
+        <v>0.005586720619497802</v>
       </c>
       <c r="EP3">
-        <v>1.036521220856677E-07</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>2.398699048266152E-08</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.001330000326762006</v>
+        <v>0.001326662436749258</v>
       </c>
       <c r="ES3">
-        <v>0.001575845831708861</v>
+        <v>0.001572705894070304</v>
       </c>
       <c r="ET3">
-        <v>0.002265688345589737</v>
+        <v>0.002263103862334902</v>
       </c>
       <c r="EU3">
-        <v>0.006961347140074864</v>
+        <v>0.006962543554937172</v>
       </c>
       <c r="EV3">
-        <v>0.004578240092122451</v>
+        <v>0.004577517652710012</v>
       </c>
       <c r="EW3">
-        <v>0.0002678794653902182</v>
+        <v>0.0002636863661425787</v>
       </c>
       <c r="EX3">
-        <v>0.0002861920057586995</v>
+        <v>0.0002820136515878277</v>
       </c>
       <c r="EY3">
-        <v>0.00590040871872687</v>
+        <v>0.005900750876443325</v>
       </c>
       <c r="EZ3">
-        <v>0.01845995337144757</v>
+        <v>0.01847040835056098</v>
       </c>
       <c r="FA3">
-        <v>0.003697091274392147</v>
+        <v>0.003695659342648239</v>
       </c>
       <c r="FB3">
-        <v>0.00533993710744917</v>
+        <v>0.005339827978955843</v>
       </c>
       <c r="FC3">
-        <v>9.219367185510301E-05</v>
+        <v>8.785911214045386E-05</v>
       </c>
       <c r="FD3">
-        <v>0.007586862152661355</v>
+        <v>0.007588562226038228</v>
       </c>
       <c r="FE3">
-        <v>0.0006261646125995617</v>
+        <v>0.0006222600010163317</v>
       </c>
       <c r="FF3">
-        <v>0.008957140180233822</v>
+        <v>0.00895994358795443</v>
       </c>
       <c r="FG3">
-        <v>0.01332197326806214</v>
+        <v>0.013328291196306</v>
       </c>
       <c r="FH3">
-        <v>0.008548807172017425</v>
+        <v>0.008551281794029891</v>
       </c>
       <c r="FI3">
-        <v>0.0001358572327336926</v>
+        <v>0.000131557830487322</v>
       </c>
       <c r="FJ3">
-        <v>0.0001071568061561883</v>
+        <v>0.0001028342946095985</v>
       </c>
       <c r="FK3">
-        <v>0.004123807482978447</v>
+        <v>0.004122719138914184</v>
       </c>
       <c r="FL3">
-        <v>0.007149620143863256</v>
+        <v>0.007150968154290041</v>
       </c>
       <c r="FM3">
-        <v>3.434533069109002E-05</v>
+        <v>2.996419206307438E-05</v>
       </c>
       <c r="FN3">
-        <v>0.0002763499855606603</v>
+        <v>0.0002721637066922616</v>
       </c>
       <c r="FO3">
-        <v>0.00050352791013189</v>
+        <v>0.0004995245526862056</v>
       </c>
       <c r="FP3">
-        <v>7.028177141419605E-06</v>
+        <v>2.625043010974578E-06</v>
       </c>
       <c r="FQ3">
-        <v>0.002626441052848733</v>
+        <v>0.002624147044113305</v>
       </c>
       <c r="FR3">
-        <v>0.002917953558714491</v>
+        <v>0.00291589427297168</v>
       </c>
       <c r="FS3">
-        <v>0.0006170199624155549</v>
+        <v>0.0006131079876502505</v>
       </c>
       <c r="FT3">
-        <v>0.002750046355335894</v>
+        <v>0.002747851872370097</v>
       </c>
       <c r="FU3">
-        <v>0.00528617210636732</v>
+        <v>0.00528601968682576</v>
       </c>
       <c r="FV3">
-        <v>0.002293709046153565</v>
+        <v>0.002291147124890271</v>
       </c>
       <c r="FW3">
-        <v>0.001106211122258964</v>
+        <v>0.001102693039387454</v>
       </c>
       <c r="FX3">
-        <v>0.005878200918280009</v>
+        <v>0.005878525194494726</v>
       </c>
       <c r="FY3">
-        <v>0.0009420121189549834</v>
+        <v>0.0009383618246665889</v>
       </c>
       <c r="FZ3">
-        <v>0.001668746933578199</v>
+        <v>0.001665681798989972</v>
       </c>
       <c r="GA3">
-        <v>0.001599067532176124</v>
+        <v>0.001595946292421595</v>
       </c>
       <c r="GB3">
-        <v>0.0004192288384356406</v>
+        <v>0.0004151576042094227</v>
       </c>
       <c r="GC3">
-        <v>0.0002601971252356356</v>
+        <v>0.0002559978402435251</v>
       </c>
       <c r="GD3">
-        <v>0.001113542722406488</v>
+        <v>0.001110030542867058</v>
       </c>
       <c r="GE3">
-        <v>0.002443840549174481</v>
+        <v>0.002441399512315685</v>
       </c>
       <c r="GF3">
-        <v>0.0009386379188870884</v>
+        <v>0.000934984907726101</v>
       </c>
       <c r="GG3">
-        <v>0.004546305091479861</v>
+        <v>0.004545556938320089</v>
       </c>
       <c r="GH3">
-        <v>0.001250951825171408</v>
+        <v>0.001247550286085354</v>
       </c>
       <c r="GI3">
-        <v>0.0008116489763318418</v>
+        <v>0.0008078937149276364</v>
       </c>
       <c r="GJ3">
-        <v>0.0001520862730602502</v>
+        <v>0.0001477999382769767</v>
       </c>
       <c r="GK3">
-        <v>0.001306031526279711</v>
+        <v>0.001302674336825376</v>
       </c>
       <c r="GL3">
-        <v>7.638402153698432E-05</v>
+        <v>7.203673204793362E-05</v>
       </c>
       <c r="GM3">
-        <v>0.0002247468245223116</v>
+        <v>0.0002205189952979463</v>
       </c>
       <c r="GN3">
-        <v>0.0007056356141986617</v>
+        <v>0.0007017949918815739</v>
       </c>
       <c r="GO3">
-        <v>4.013602380760921E-05</v>
+        <v>3.57595477885393E-05</v>
       </c>
       <c r="GP3">
-        <v>0.0001379558727759211</v>
+        <v>0.0001336581603337997</v>
       </c>
       <c r="GQ3">
-        <v>0.002336062347005789</v>
+        <v>0.002333534528202332</v>
       </c>
       <c r="GR3">
-        <v>0.005132629603277769</v>
+        <v>0.005132353552828121</v>
       </c>
       <c r="GS3">
-        <v>0.007890149158764037</v>
+        <v>0.00789209343584491</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.420576810119379E-05</v>
+        <v>4.103237423159486E-05</v>
       </c>
       <c r="C4">
-        <v>4.160621121285467E-06</v>
+        <v>9.629688492419208E-07</v>
       </c>
       <c r="D4">
-        <v>5.832677349464279E-07</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.641957271748811E-07</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.198235262623606E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.620013844506609E-06</v>
+        <v>4.220340853672818E-07</v>
       </c>
       <c r="H4">
-        <v>4.240112817870994E-05</v>
+        <v>3.922664110094951E-05</v>
       </c>
       <c r="I4">
-        <v>2.193291105789788E-05</v>
+        <v>1.874602481854891E-05</v>
       </c>
       <c r="J4">
-        <v>3.063446368413303E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.090632867245539E-05</v>
+        <v>2.772487831715766E-05</v>
       </c>
       <c r="L4">
-        <v>1.772285223873595E-06</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>6.522842019819075E-06</v>
+        <v>3.326620725298186E-06</v>
       </c>
       <c r="N4">
-        <v>1.659589828714292E-05</v>
+        <v>1.340577901174816E-05</v>
       </c>
       <c r="O4">
-        <v>2.201172905451235E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.511002785096672E-05</v>
+        <v>1.191900847042215E-05</v>
       </c>
       <c r="Q4">
-        <v>7.636847671968288E-06</v>
+        <v>4.441301215710545E-06</v>
       </c>
       <c r="R4">
-        <v>2.045780712125922E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.616425630568359E-05</v>
+        <v>1.297387555179048E-05</v>
       </c>
       <c r="T4">
-        <v>3.223318561546183E-05</v>
+        <v>2.90525390387025E-05</v>
       </c>
       <c r="U4">
-        <v>4.722266797160644E-06</v>
+        <v>1.524954756777217E-06</v>
       </c>
       <c r="V4">
-        <v>1.662695028580912E-05</v>
+        <v>1.343684982098036E-05</v>
       </c>
       <c r="W4">
-        <v>6.462639722404993E-05</v>
+        <v>6.146537368835644E-05</v>
       </c>
       <c r="X4">
-        <v>0.0001058102014550486</v>
+        <v>0.0001026741260934182</v>
       </c>
       <c r="Y4">
-        <v>3.533188448236091E-05</v>
+        <v>3.215311502405006E-05</v>
       </c>
       <c r="Z4">
-        <v>1.354133941834786E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6.70993221178284E-05</v>
+        <v>6.393979662151829E-05</v>
       </c>
       <c r="AB4">
-        <v>8.999374013442588E-05</v>
+        <v>8.684808353479531E-05</v>
       </c>
       <c r="AC4">
-        <v>2.269510502515874E-06</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.258048603008207E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>4.872435790710313E-06</v>
+        <v>1.675214719149701E-06</v>
       </c>
       <c r="AF4">
-        <v>6.310572328936867E-06</v>
+        <v>3.114222446460218E-06</v>
       </c>
       <c r="AG4">
-        <v>2.071930211002701E-07</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.377853040815961E-05</v>
+        <v>1.058670443797166E-05</v>
       </c>
       <c r="AI4">
-        <v>3.665728442542993E-05</v>
+        <v>3.347931786304141E-05</v>
       </c>
       <c r="AJ4">
-        <v>5.180038777497593E-05</v>
+        <v>4.863159454626246E-05</v>
       </c>
       <c r="AK4">
-        <v>3.619749144517979E-05</v>
+        <v>3.3019246351084E-05</v>
       </c>
       <c r="AL4">
-        <v>2.487999193130952E-05</v>
+        <v>2.169489096381634E-05</v>
       </c>
       <c r="AM4">
-        <v>8.249618645647438E-05</v>
+        <v>7.934598801624173E-05</v>
       </c>
       <c r="AN4">
-        <v>0.0001045601195087444</v>
+        <v>0.0001014232868770518</v>
       </c>
       <c r="AO4">
-        <v>0.0001069101514078015</v>
+        <v>0.0001037747423698242</v>
       </c>
       <c r="AP4">
-        <v>0.000113304590133136</v>
+        <v>0.0001101730546948257</v>
       </c>
       <c r="AQ4">
-        <v>0.0001145242150807485</v>
+        <v>0.0001113934184623712</v>
       </c>
       <c r="AR4">
-        <v>9.320169599663195E-05</v>
+        <v>9.005798270075226E-05</v>
       </c>
       <c r="AS4">
-        <v>8.563928632146628E-05</v>
+        <v>8.249099189675607E-05</v>
       </c>
       <c r="AT4">
-        <v>3.995707828369121E-05</v>
+        <v>3.678111065833838E-05</v>
       </c>
       <c r="AU4">
-        <v>1.059408254494378E-05</v>
+        <v>7.400327511594481E-06</v>
       </c>
       <c r="AV4">
-        <v>6.798077007996684E-06</v>
+        <v>3.602022444318695E-06</v>
       </c>
       <c r="AW4">
-        <v>7.054339696989225E-07</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>1.061889404387803E-05</v>
+        <v>7.425154040747668E-06</v>
       </c>
       <c r="AY4">
-        <v>1.970896415342488E-05</v>
+        <v>1.652073069966684E-05</v>
       </c>
       <c r="AZ4">
-        <v>8.50216713479952E-06</v>
+        <v>5.307144868596144E-06</v>
       </c>
       <c r="BA4">
-        <v>6.741170110441053E-05</v>
+        <v>6.42523648398986E-05</v>
       </c>
       <c r="BB4">
-        <v>7.413926181543614E-05</v>
+        <v>7.098400094800743E-05</v>
       </c>
       <c r="BC4">
-        <v>5.435325966532035E-05</v>
+        <v>5.118601290598898E-05</v>
       </c>
       <c r="BD4">
-        <v>1.741261525206181E-05</v>
+        <v>1.422299072447827E-05</v>
       </c>
       <c r="BE4">
-        <v>4.78224409458439E-05</v>
+        <v>4.465123797107225E-05</v>
       </c>
       <c r="BF4">
-        <v>0.0001093659403023161</v>
+        <v>0.0001062320189231392</v>
       </c>
       <c r="BG4">
-        <v>6.647673314457096E-05</v>
+        <v>6.331683049859329E-05</v>
       </c>
       <c r="BH4">
-        <v>9.290774600925822E-05</v>
+        <v>8.976385464543197E-05</v>
       </c>
       <c r="BI4">
-        <v>6.86684770504272E-05</v>
+        <v>6.550990211104404E-05</v>
       </c>
       <c r="BJ4">
-        <v>2.126027308679024E-05</v>
+        <v>1.807297937927513E-05</v>
       </c>
       <c r="BK4">
-        <v>1.970896415342488E-05</v>
+        <v>1.652073069966684E-05</v>
       </c>
       <c r="BL4">
-        <v>6.07069203924064E-05</v>
+        <v>5.754352253039564E-05</v>
       </c>
       <c r="BM4">
-        <v>1.970896415342488E-05</v>
+        <v>1.652073069966684E-05</v>
       </c>
       <c r="BN4">
-        <v>1.444235237964592E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.70961732656542E-05</v>
+        <v>1.390635704500332E-05</v>
       </c>
       <c r="BP4">
-        <v>8.50216713479952E-06</v>
+        <v>5.307144868596144E-06</v>
       </c>
       <c r="BQ4">
-        <v>1.010396556599617E-05</v>
+        <v>6.909913631378758E-06</v>
       </c>
       <c r="BR4">
-        <v>2.681622484814094E-05</v>
+        <v>2.363229680473133E-05</v>
       </c>
       <c r="BS4">
-        <v>3.596868445500792E-05</v>
+        <v>3.279030075505179E-05</v>
       </c>
       <c r="BT4">
-        <v>6.860535705313844E-05</v>
+        <v>6.544674387715455E-05</v>
       </c>
       <c r="BU4">
-        <v>4.415512810336897E-05</v>
+        <v>4.098170355725767E-05</v>
       </c>
       <c r="BV4">
-        <v>5.714015754561247E-05</v>
+        <v>5.397459902307009E-05</v>
       </c>
       <c r="BW4">
-        <v>0.0001057318654584134</v>
+        <v>0.0001025957426426899</v>
       </c>
       <c r="BX4">
-        <v>0.0001045601195087444</v>
+        <v>0.0001014232868770518</v>
       </c>
       <c r="BY4">
-        <v>2.338323699560085E-05</v>
+        <v>2.019722932938561E-05</v>
       </c>
       <c r="BZ4">
-        <v>2.193291105789788E-05</v>
+        <v>1.874602481854891E-05</v>
       </c>
       <c r="CA4">
-        <v>2.545324290668621E-05</v>
+        <v>2.226848920106896E-05</v>
       </c>
       <c r="CB4">
-        <v>2.034899012593332E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.731949825606154E-06</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>4.418045110228125E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.280501559089955E-06</v>
+        <v>8.231613144206552E-08</v>
       </c>
       <c r="CF4">
-        <v>3.094869567063557E-05</v>
+        <v>2.77672709802628E-05</v>
       </c>
       <c r="CG4">
-        <v>2.785173880366167E-05</v>
+        <v>2.466843805010275E-05</v>
       </c>
       <c r="CH4">
-        <v>6.961867300961268E-05</v>
+        <v>6.646067367645693E-05</v>
       </c>
       <c r="CI4">
-        <v>4.78224409458439E-05</v>
+        <v>4.465123797107225E-05</v>
       </c>
       <c r="CJ4">
-        <v>4.445938809029984E-05</v>
+        <v>4.128614785768886E-05</v>
       </c>
       <c r="CK4">
-        <v>0.0001166536949892792</v>
+        <v>0.0001135241883594402</v>
       </c>
       <c r="CL4">
-        <v>0.000194410641649322</v>
+        <v>0.0001913282383377925</v>
       </c>
       <c r="CM4">
-        <v>0.0009745186081407117</v>
+        <v>0.0009719087757754418</v>
       </c>
       <c r="CN4">
-        <v>0.1472444136752913</v>
+        <v>0.1473304106841457</v>
       </c>
       <c r="CO4">
-        <v>0.002317922900436377</v>
+        <v>0.002316126870602153</v>
       </c>
       <c r="CP4">
-        <v>0.2625915287206931</v>
+        <v>0.2627474002823617</v>
       </c>
       <c r="CQ4">
-        <v>0.08146226050088545</v>
+        <v>0.08150840823796229</v>
       </c>
       <c r="CR4">
-        <v>0.006291995529734812</v>
+        <v>0.006292606899060192</v>
       </c>
       <c r="CS4">
-        <v>0.01223116747462474</v>
+        <v>0.0122353766537746</v>
       </c>
       <c r="CT4">
-        <v>0.002339981599488872</v>
+        <v>0.002338198932292554</v>
       </c>
       <c r="CU4">
-        <v>0.001695629027166271</v>
+        <v>0.001693456026429076</v>
       </c>
       <c r="CV4">
-        <v>0.000194410641649322</v>
+        <v>0.0001913282383377925</v>
       </c>
       <c r="CW4">
-        <v>2.948313773358687E-05</v>
+        <v>2.63008252428956E-05</v>
       </c>
       <c r="CX4">
-        <v>0.001264486945685466</v>
+        <v>0.001262052769277506</v>
       </c>
       <c r="CY4">
-        <v>0.0413726782228858</v>
+        <v>0.04139454063966592</v>
       </c>
       <c r="CZ4">
-        <v>0.02668332785384937</v>
+        <v>0.02669629180977278</v>
       </c>
       <c r="DA4">
-        <v>0.0002322029700259975</v>
+        <v>0.0002291434604127116</v>
       </c>
       <c r="DB4">
-        <v>0.006462333022418168</v>
+        <v>0.006463047578165886</v>
       </c>
       <c r="DC4">
-        <v>0.01117650551992649</v>
+        <v>0.01118007580982086</v>
       </c>
       <c r="DD4">
-        <v>0.00884860761991858</v>
+        <v>0.008850767724350603</v>
       </c>
       <c r="DE4">
-        <v>0.001294461444397947</v>
+        <v>0.001292045425832015</v>
       </c>
       <c r="DF4">
-        <v>0.005346112770364082</v>
+        <v>0.005346151146296435</v>
       </c>
       <c r="DG4">
-        <v>0.002030698512773759</v>
+        <v>0.002028728489202133</v>
       </c>
       <c r="DH4">
-        <v>0.0006110288437539824</v>
+        <v>0.0006081988178907733</v>
       </c>
       <c r="DI4">
-        <v>0.0002270084302491228</v>
+        <v>0.0002239457739065594</v>
       </c>
       <c r="DJ4">
-        <v>0.008112155651551999</v>
+        <v>0.008113869630808386</v>
       </c>
       <c r="DK4">
-        <v>0.002205975305244953</v>
+        <v>0.002204111460206599</v>
       </c>
       <c r="DL4">
-        <v>0.005229227475384751</v>
+        <v>0.005229195044971284</v>
       </c>
       <c r="DM4">
-        <v>0.006370797526349966</v>
+        <v>0.006371456632060188</v>
       </c>
       <c r="DN4">
-        <v>0.00794831565858955</v>
+        <v>0.007949930387455176</v>
       </c>
       <c r="DO4">
-        <v>0.02102889209672894</v>
+        <v>0.02103843072927266</v>
       </c>
       <c r="DP4">
-        <v>0.004218067318817934</v>
+        <v>0.004217422351508891</v>
       </c>
       <c r="DQ4">
-        <v>0.006993366999608235</v>
+        <v>0.006994403243173379</v>
       </c>
       <c r="DR4">
-        <v>0.01574248232380039</v>
+        <v>0.01574881857439697</v>
       </c>
       <c r="DS4">
-        <v>6.817955707142818E-06</v>
+        <v>3.621913185510379E-06</v>
       </c>
       <c r="DT4">
-        <v>0.01410604839409146</v>
+        <v>0.01411139333173667</v>
       </c>
       <c r="DU4">
-        <v>0.000726362668799955</v>
+        <v>0.000723602509438793</v>
       </c>
       <c r="DV4">
-        <v>0.00575410825283912</v>
+        <v>0.005754393782780283</v>
       </c>
       <c r="DW4">
-        <v>3.485797750271701E-09</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0001986826914658212</v>
+        <v>0.0001956028760609801</v>
       </c>
       <c r="DY4">
-        <v>0.002560528590015538</v>
+        <v>0.002558879524967237</v>
       </c>
       <c r="DZ4">
-        <v>0.003505845149410589</v>
+        <v>0.003504768734764767</v>
       </c>
       <c r="EA4">
-        <v>0.0004873276090674219</v>
+        <v>0.0004844226479234052</v>
       </c>
       <c r="EB4">
-        <v>0.001883778219084546</v>
+        <v>0.001881719194675605</v>
       </c>
       <c r="EC4">
-        <v>0.03544245847761134</v>
+        <v>0.03546072850759767</v>
       </c>
       <c r="ED4">
-        <v>0.0002732238682639936</v>
+        <v>0.0002701892081401751</v>
       </c>
       <c r="EE4">
-        <v>0.007873780661791112</v>
+        <v>0.007875350239119413</v>
       </c>
       <c r="EF4">
-        <v>0.004032148326803862</v>
+        <v>0.004031390734168893</v>
       </c>
       <c r="EG4">
-        <v>3.050532568968E-09</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0004396175311167515</v>
+        <v>0.0004366836683364848</v>
       </c>
       <c r="EI4">
-        <v>0.002274482602302303</v>
+        <v>0.002272660257363405</v>
       </c>
       <c r="EJ4">
-        <v>0.008852189619764719</v>
+        <v>0.008854351894087486</v>
       </c>
       <c r="EK4">
-        <v>0.001870575419651656</v>
+        <v>0.00186850839729924</v>
       </c>
       <c r="EL4">
-        <v>0.003679347341958009</v>
+        <v>0.003678376030834817</v>
       </c>
       <c r="EM4">
-        <v>0.00119635134861215</v>
+        <v>0.001193875897271788</v>
       </c>
       <c r="EN4">
-        <v>0.01339590342459489</v>
+        <v>0.01340081817322188</v>
       </c>
       <c r="EO4">
-        <v>0.008479889135756443</v>
+        <v>0.008481825879255816</v>
       </c>
       <c r="EP4">
-        <v>3.693455241352021E-05</v>
+        <v>3.375675381351783E-05</v>
       </c>
       <c r="EQ4">
-        <v>8.920053016849727E-05</v>
+        <v>8.605439306103921E-05</v>
       </c>
       <c r="ER4">
-        <v>0.001255023346091964</v>
+        <v>0.001252583436859309</v>
       </c>
       <c r="ES4">
-        <v>0.004581825803193119</v>
+        <v>0.004581401192166225</v>
       </c>
       <c r="ET4">
-        <v>0.0004036470826618194</v>
+        <v>0.0004006914298350542</v>
       </c>
       <c r="EU4">
-        <v>0.005067976482311095</v>
+        <v>0.005067846369861737</v>
       </c>
       <c r="EV4">
-        <v>0.005849853348726504</v>
+        <v>0.005850196878781121</v>
       </c>
       <c r="EW4">
-        <v>3.665728442542993E-05</v>
+        <v>3.347931786304141E-05</v>
       </c>
       <c r="EX4">
-        <v>4.750686795939896E-05</v>
+        <v>4.433547381797959E-05</v>
       </c>
       <c r="EY4">
-        <v>0.002391858197260574</v>
+        <v>0.002390106955679621</v>
       </c>
       <c r="EZ4">
-        <v>0.01370539441130108</v>
+        <v>0.01371049664224426</v>
       </c>
       <c r="FA4">
-        <v>0.009020706612526271</v>
+        <v>0.009022970970455605</v>
       </c>
       <c r="FB4">
-        <v>0.004080667824719764</v>
+        <v>0.004079939624048507</v>
       </c>
       <c r="FC4">
-        <v>0.001678419327905493</v>
+        <v>0.001676235901939722</v>
       </c>
       <c r="FD4">
-        <v>0.006404284724911564</v>
+        <v>0.006404964116374261</v>
       </c>
       <c r="FE4">
-        <v>0.004254759117241881</v>
+        <v>0.004254136376956078</v>
       </c>
       <c r="FF4">
-        <v>0.006688420412706853</v>
+        <v>0.00668927192684566</v>
       </c>
       <c r="FG4">
-        <v>0.01366172741317674</v>
+        <v>0.01366680319168576</v>
       </c>
       <c r="FH4">
-        <v>0.01324642943101537</v>
+        <v>0.01325125363183408</v>
       </c>
       <c r="FI4">
-        <v>0.0005962426443891061</v>
+        <v>0.0005934036613962104</v>
       </c>
       <c r="FJ4">
-        <v>0.0007241059688968889</v>
+        <v>0.0007213444424803262</v>
       </c>
       <c r="FK4">
-        <v>0.001162341750072992</v>
+        <v>0.00115984569652261</v>
       </c>
       <c r="FL4">
-        <v>0.00671648621150132</v>
+        <v>0.00671735472723691</v>
       </c>
       <c r="FM4">
-        <v>9.887501575294125E-05</v>
+        <v>9.573473921992109E-05</v>
       </c>
       <c r="FN4">
-        <v>0.0009874030575872754</v>
+        <v>0.000984801030316593</v>
       </c>
       <c r="FO4">
-        <v>5.627962458257564E-05</v>
+        <v>5.31135447695272E-05</v>
       </c>
       <c r="FP4">
-        <v>4.4688258080469E-07</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002954314373100939</v>
+        <v>0.002952903854161804</v>
       </c>
       <c r="FR4">
-        <v>0.004478762207620094</v>
+        <v>0.004478275163105816</v>
       </c>
       <c r="FS4">
-        <v>0.001303797443996931</v>
+        <v>0.001301387080958636</v>
       </c>
       <c r="FT4">
-        <v>0.002002986313964104</v>
+        <v>0.002000999502998198</v>
       </c>
       <c r="FU4">
-        <v>0.005841117149101757</v>
+        <v>0.005841455386973368</v>
       </c>
       <c r="FV4">
-        <v>0.003214457661926792</v>
+        <v>0.003213204731636209</v>
       </c>
       <c r="FW4">
-        <v>0.0002615151687669268</v>
+        <v>0.0002584734157900181</v>
       </c>
       <c r="FX4">
-        <v>0.008225764646672058</v>
+        <v>0.008227547447569337</v>
       </c>
       <c r="FY4">
-        <v>0.003012987670580696</v>
+        <v>0.003011612694536777</v>
       </c>
       <c r="FZ4">
-        <v>0.0003328278157037768</v>
+        <v>0.000329829262240898</v>
       </c>
       <c r="GA4">
-        <v>0.001610152630837808</v>
+        <v>0.001607927850522361</v>
       </c>
       <c r="GB4">
-        <v>0.0002246044403523833</v>
+        <v>0.0002215403277296266</v>
       </c>
       <c r="GC4">
-        <v>0.0005934555745088213</v>
+        <v>0.0005906149031749431</v>
       </c>
       <c r="GD4">
-        <v>0.001639632929571517</v>
+        <v>0.001637426007723444</v>
       </c>
       <c r="GE4">
-        <v>0.004558650104188604</v>
+        <v>0.004558211453871665</v>
       </c>
       <c r="GF4">
-        <v>0.001986314914680204</v>
+        <v>0.00198431800457511</v>
       </c>
       <c r="GG4">
-        <v>0.005435606766519973</v>
+        <v>0.005435699355797485</v>
       </c>
       <c r="GH4">
-        <v>0.003547013147642267</v>
+        <v>0.003545961671595608</v>
       </c>
       <c r="GI4">
-        <v>4.068267825252392E-05</v>
+        <v>3.750715017846221E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.0002309277800807718</v>
+        <v>0.0002278674979875921</v>
       </c>
       <c r="GK4">
-        <v>0.0009508818591560001</v>
+        <v>0.0009482577082075161</v>
       </c>
       <c r="GL4">
-        <v>0.0004060996825564709</v>
+        <v>0.0004031455154566855</v>
       </c>
       <c r="GM4">
-        <v>0.0002420566596027439</v>
+        <v>0.0002390031191214339</v>
       </c>
       <c r="GN4">
-        <v>0.001242639546623895</v>
+        <v>0.001240192135578562</v>
       </c>
       <c r="GO4">
-        <v>0.0004721439397196184</v>
+        <v>0.0004692297806680048</v>
       </c>
       <c r="GP4">
-        <v>0.0004348387113220201</v>
+        <v>0.0004319019536458039</v>
       </c>
       <c r="GQ4">
-        <v>0.003233923161090675</v>
+        <v>0.003232682022538869</v>
       </c>
       <c r="GR4">
-        <v>0.006866531705056293</v>
+        <v>0.006867491114801325</v>
       </c>
       <c r="GS4">
-        <v>0.01057279454585818</v>
+        <v>0.01057599912193018</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.801083164243468E-07</v>
+        <v>6.891397234395E-07</v>
       </c>
       <c r="C5">
-        <v>1.273819191379076E-06</v>
+        <v>9.82867085646826E-07</v>
       </c>
       <c r="D5">
-        <v>2.210269211526247E-07</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>6.238130868063017E-06</v>
+        <v>5.94745743046178E-06</v>
       </c>
       <c r="F5">
-        <v>3.252974122612867E-05</v>
+        <v>3.224054364951219E-05</v>
       </c>
       <c r="G5">
-        <v>3.332523315829559E-05</v>
+        <v>3.303608023605708E-05</v>
       </c>
       <c r="H5">
-        <v>1.239064294342691E-05</v>
+        <v>1.210031487274716E-05</v>
       </c>
       <c r="I5">
-        <v>1.166947000492266E-05</v>
+        <v>1.137910145170918E-05</v>
       </c>
       <c r="J5">
-        <v>3.894612667899158E-05</v>
+        <v>3.865728928164233E-05</v>
       </c>
       <c r="K5">
-        <v>1.590347864388089E-05</v>
+        <v>1.561334776375302E-05</v>
       </c>
       <c r="L5">
-        <v>2.910072751852702E-07</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.000991232468791E-06</v>
+        <v>8.710472886083445E-06</v>
       </c>
       <c r="N5">
-        <v>2.891673353421653E-06</v>
+        <v>2.600812064790534E-06</v>
       </c>
       <c r="O5">
-        <v>3.719938682793933E-08</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>5.074742567267294E-12</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.199612197706844E-05</v>
+        <v>1.170577176023279E-05</v>
       </c>
       <c r="R5">
-        <v>1.015236913428866E-05</v>
+        <v>9.861915419688927E-06</v>
       </c>
       <c r="S5">
-        <v>1.297565389354194E-05</v>
+        <v>1.268535866203884E-05</v>
       </c>
       <c r="T5">
-        <v>5.319141846426914E-05</v>
+        <v>5.290338071631665E-05</v>
       </c>
       <c r="U5">
-        <v>3.111047534715209E-05</v>
+        <v>3.082119810104754E-05</v>
       </c>
       <c r="V5">
-        <v>3.997808059099495E-05</v>
+        <v>3.968930112164997E-05</v>
       </c>
       <c r="W5">
-        <v>0.0001595312863964715</v>
+        <v>0.0001592492179619261</v>
       </c>
       <c r="X5">
-        <v>0.0001030737752107081</v>
+        <v>0.0001027885375736331</v>
       </c>
       <c r="Y5">
-        <v>5.143675261389275E-05</v>
+        <v>5.114861636901159E-05</v>
       </c>
       <c r="Z5">
-        <v>9.855027159643565E-05</v>
+        <v>9.826478003567897E-05</v>
       </c>
       <c r="AA5">
-        <v>6.857490415249079E-05</v>
+        <v>6.828772994564618E-05</v>
       </c>
       <c r="AB5">
-        <v>2.471245489272316E-05</v>
+        <v>2.44228184982576E-05</v>
       </c>
       <c r="AC5">
-        <v>2.059288124400684E-05</v>
+        <v>2.030301360018306E-05</v>
       </c>
       <c r="AD5">
-        <v>5.959127491854152E-06</v>
+        <v>5.668438392595376E-06</v>
       </c>
       <c r="AE5">
-        <v>2.941938449135455E-09</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.418420823233066E-08</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.122034392690924E-09</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>7.248349881919768E-07</v>
+        <v>4.338520656190805E-07</v>
       </c>
       <c r="AI5">
-        <v>2.851107956880739E-05</v>
+        <v>2.822165640745608E-05</v>
       </c>
       <c r="AJ5">
-        <v>7.662174346632188E-05</v>
+        <v>7.633502096312084E-05</v>
       </c>
       <c r="AK5">
-        <v>2.851107956880739E-05</v>
+        <v>2.822165640745608E-05</v>
       </c>
       <c r="AL5">
-        <v>3.010745743268129E-06</v>
+        <v>2.719891138681545E-06</v>
       </c>
       <c r="AM5">
-        <v>7.753456338848405E-05</v>
+        <v>7.724789212578487E-05</v>
       </c>
       <c r="AN5">
-        <v>0.0001169757350252622</v>
+        <v>0.0001166912777648862</v>
       </c>
       <c r="AO5">
-        <v>6.030505285767634E-05</v>
+        <v>6.001741442856807E-05</v>
       </c>
       <c r="AP5">
-        <v>3.765920378872988E-05</v>
+        <v>3.73702941508728E-05</v>
       </c>
       <c r="AQ5">
-        <v>9.315633205638688E-06</v>
+        <v>9.025132521458358E-06</v>
       </c>
       <c r="AR5">
-        <v>2.063379724051786E-05</v>
+        <v>2.034393189348465E-05</v>
       </c>
       <c r="AS5">
-        <v>1.178816449480136E-05</v>
+        <v>1.149780260441927E-05</v>
       </c>
       <c r="AT5">
-        <v>5.242622152951891E-06</v>
+        <v>4.951892833171791E-06</v>
       </c>
       <c r="AU5">
-        <v>1.112634005123636E-06</v>
+        <v>8.216728513747569E-07</v>
       </c>
       <c r="AV5">
-        <v>3.893716667975562E-06</v>
+        <v>3.602911628338432E-06</v>
       </c>
       <c r="AW5">
-        <v>1.559265067038577E-05</v>
+        <v>1.530250234214906E-05</v>
       </c>
       <c r="AX5">
-        <v>1.518478670516509E-05</v>
+        <v>1.489461548177265E-05</v>
       </c>
       <c r="AY5">
-        <v>1.78592164771115E-05</v>
+        <v>1.756919538094608E-05</v>
       </c>
       <c r="AZ5">
-        <v>3.88899096837853E-05</v>
+        <v>3.860106913073472E-05</v>
       </c>
       <c r="BA5">
-        <v>3.307361217975178E-05</v>
+        <v>3.27844451329473E-05</v>
       </c>
       <c r="BB5">
-        <v>4.379018026593015E-05</v>
+        <v>4.350161478610896E-05</v>
       </c>
       <c r="BC5">
-        <v>1.117056204746547E-05</v>
+        <v>1.088016548840604E-05</v>
       </c>
       <c r="BD5">
-        <v>3.781674977529564E-05</v>
+        <v>3.752784898117128E-05</v>
       </c>
       <c r="BE5">
-        <v>4.995617574014429E-05</v>
+        <v>4.966795638412565E-05</v>
       </c>
       <c r="BF5">
-        <v>1.335288886137441E-05</v>
+        <v>1.306261480568989E-05</v>
       </c>
       <c r="BG5">
-        <v>9.078099225893651E-06</v>
+        <v>8.787585207911075E-06</v>
       </c>
       <c r="BH5">
-        <v>9.394074198949878E-06</v>
+        <v>9.103577917999327E-06</v>
       </c>
       <c r="BI5">
-        <v>1.559265067038577E-05</v>
+        <v>1.530250234214906E-05</v>
       </c>
       <c r="BJ5">
-        <v>1.470646874595215E-07</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>3.651317988645347E-07</v>
+        <v>7.412868460706702E-08</v>
       </c>
       <c r="BL5">
-        <v>1.149491901980694E-06</v>
+        <v>8.585328172238329E-07</v>
       </c>
       <c r="BM5">
-        <v>4.479095918059187E-06</v>
+        <v>4.188323738272965E-06</v>
       </c>
       <c r="BN5">
-        <v>2.475727488890128E-05</v>
+        <v>2.446764101037456E-05</v>
       </c>
       <c r="BO5">
-        <v>4.362063228038782E-05</v>
+        <v>4.333205728311016E-05</v>
       </c>
       <c r="BP5">
-        <v>2.759329064706895E-05</v>
+        <v>2.730381596628451E-05</v>
       </c>
       <c r="BQ5">
-        <v>7.096603394859473E-05</v>
+        <v>7.067899396613302E-05</v>
       </c>
       <c r="BR5">
-        <v>7.481230362061619E-05</v>
+        <v>7.452547954578693E-05</v>
       </c>
       <c r="BS5">
-        <v>5.55578152624821E-05</v>
+        <v>5.526991035054312E-05</v>
       </c>
       <c r="BT5">
-        <v>9.287489208038578E-05</v>
+        <v>9.258908193620696E-05</v>
       </c>
       <c r="BU5">
-        <v>5.607567521832322E-05</v>
+        <v>5.578779937608724E-05</v>
       </c>
       <c r="BV5">
-        <v>4.261749636592708E-06</v>
+        <v>3.970965256226429E-06</v>
       </c>
       <c r="BW5">
-        <v>7.414193367777987E-06</v>
+        <v>7.123585947614835E-06</v>
       </c>
       <c r="BX5">
-        <v>6.678450430516151E-06</v>
+        <v>6.387801709942673E-06</v>
       </c>
       <c r="BY5">
-        <v>1.638633760270661E-06</v>
+        <v>1.347702133146666E-06</v>
       </c>
       <c r="BZ5">
-        <v>9.078099225893651E-06</v>
+        <v>8.787585207911075E-06</v>
       </c>
       <c r="CA5">
-        <v>4.682328900729135E-06</v>
+        <v>4.391568129282905E-06</v>
       </c>
       <c r="CB5">
-        <v>9.373527200701959E-07</v>
+        <v>6.463817270301345E-07</v>
       </c>
       <c r="CC5">
-        <v>4.460045619683641E-06</v>
+        <v>4.169272370522369E-06</v>
       </c>
       <c r="CD5">
-        <v>1.981401131042252E-05</v>
+        <v>1.952409994528493E-05</v>
       </c>
       <c r="CE5">
-        <v>5.020143571923051E-05</v>
+        <v>4.991323013070764E-05</v>
       </c>
       <c r="CF5">
-        <v>7.684639344716557E-05</v>
+        <v>7.655968355453259E-05</v>
       </c>
       <c r="CG5">
-        <v>7.324381375436423E-05</v>
+        <v>7.295690163346373E-05</v>
       </c>
       <c r="CH5">
-        <v>2.772817763556689E-05</v>
+        <v>2.743871052656831E-05</v>
       </c>
       <c r="CI5">
-        <v>0.0001020208813004903</v>
+        <v>0.000101735584559959</v>
       </c>
       <c r="CJ5">
-        <v>0.0001547523568039797</v>
+        <v>0.0001544700201075957</v>
       </c>
       <c r="CK5">
-        <v>0.0001020208813004903</v>
+        <v>0.000101735584559959</v>
       </c>
       <c r="CL5">
-        <v>0.0001526041469871615</v>
+        <v>0.0001523216897025362</v>
       </c>
       <c r="CM5">
-        <v>0.0008114851308031586</v>
+        <v>0.0008112396593373695</v>
       </c>
       <c r="CN5">
-        <v>0.2232015109671934</v>
+        <v>0.2232137492028137</v>
       </c>
       <c r="CO5">
-        <v>0.03479872003264863</v>
+        <v>0.03480038241061802</v>
       </c>
       <c r="CP5">
-        <v>0.2660262373154496</v>
+        <v>0.2660408794868479</v>
       </c>
       <c r="CQ5">
-        <v>0.01055220010019434</v>
+        <v>0.01055250141688611</v>
       </c>
       <c r="CR5">
-        <v>0.01574991665697541</v>
+        <v>0.01575050974381635</v>
       </c>
       <c r="CS5">
-        <v>0.01023863212693286</v>
+        <v>0.01023891584170784</v>
       </c>
       <c r="CT5">
-        <v>0.0001434383177687488</v>
+        <v>0.0001431553459667716</v>
       </c>
       <c r="CU5">
-        <v>8.084678910604441E-05</v>
+        <v>8.056030377279735E-05</v>
       </c>
       <c r="CV5">
-        <v>0.00198629503062494</v>
+        <v>0.001986115506283426</v>
       </c>
       <c r="CW5">
-        <v>0.0009374645200606626</v>
+        <v>0.000937226120358944</v>
       </c>
       <c r="CX5">
-        <v>0.004908864581412017</v>
+        <v>0.004908849113448812</v>
       </c>
       <c r="CY5">
-        <v>0.04034569655964766</v>
+        <v>0.04034767031322806</v>
       </c>
       <c r="CZ5">
-        <v>0.006614100436003394</v>
+        <v>0.006614180690250937</v>
       </c>
       <c r="DA5">
-        <v>0.0001586569764710255</v>
+        <v>0.0001583748589577098</v>
       </c>
       <c r="DB5">
-        <v>0.007564888354927946</v>
+        <v>0.007565021980984032</v>
       </c>
       <c r="DC5">
-        <v>0.005661757517211441</v>
+        <v>0.005661784312361621</v>
       </c>
       <c r="DD5">
-        <v>0.01817099445052562</v>
+        <v>0.01817172344285914</v>
       </c>
       <c r="DE5">
-        <v>0.002295594204250427</v>
+        <v>0.002295432042199649</v>
       </c>
       <c r="DF5">
-        <v>0.001817063145055657</v>
+        <v>0.001816874121001729</v>
       </c>
       <c r="DG5">
-        <v>0.002239483009035132</v>
+        <v>0.002239317697222027</v>
       </c>
       <c r="DH5">
-        <v>0.001388273581619338</v>
+        <v>0.001388060487766005</v>
       </c>
       <c r="DI5">
-        <v>0.004168704244526861</v>
+        <v>0.00416864722818572</v>
       </c>
       <c r="DJ5">
-        <v>0.009162892718663152</v>
+        <v>0.009163116047565955</v>
       </c>
       <c r="DK5">
-        <v>0.0002093068321520184</v>
+        <v>0.000209027557832591</v>
       </c>
       <c r="DL5">
-        <v>0.01158848601182831</v>
+        <v>0.01158884549969809</v>
       </c>
       <c r="DM5">
-        <v>3.382376711578468E-06</v>
+        <v>3.091542968233907E-06</v>
       </c>
       <c r="DN5">
-        <v>0.01304065388799927</v>
+        <v>0.01304109489228749</v>
       </c>
       <c r="DO5">
-        <v>0.01628388161144323</v>
+        <v>0.01628450467202988</v>
       </c>
       <c r="DP5">
-        <v>2.925366050548614E-08</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.01257105292804301</v>
+        <v>0.0125714675716129</v>
       </c>
       <c r="DR5">
-        <v>0.005711414812977071</v>
+        <v>0.005711444395604489</v>
       </c>
       <c r="DS5">
-        <v>0.003714140383288364</v>
+        <v>0.00371405785032581</v>
       </c>
       <c r="DT5">
-        <v>0.008213485299620883</v>
+        <v>0.008213655334208529</v>
       </c>
       <c r="DU5">
-        <v>0.001392150281288765</v>
+        <v>0.00139193740505123</v>
       </c>
       <c r="DV5">
-        <v>0.00267412117197273</v>
+        <v>0.002673980258266033</v>
       </c>
       <c r="DW5">
-        <v>7.443506365278414E-05</v>
+        <v>7.414821840185562E-05</v>
       </c>
       <c r="DX5">
-        <v>0.0001336492786034782</v>
+        <v>0.0001333657573006989</v>
       </c>
       <c r="DY5">
-        <v>0.004996670873924611</v>
+        <v>0.004996660334905642</v>
       </c>
       <c r="DZ5">
-        <v>0.0005819762503738062</v>
+        <v>0.0005817178955890546</v>
       </c>
       <c r="EA5">
-        <v>0.0002282701605349802</v>
+        <v>0.0002279919507086029</v>
       </c>
       <c r="EB5">
-        <v>0.01586320864731479</v>
+        <v>0.01586380809372162</v>
       </c>
       <c r="EC5">
-        <v>0.02035026426469524</v>
+        <v>0.02035111558880115</v>
       </c>
       <c r="ED5">
-        <v>0.001334238186227037</v>
+        <v>0.001334022059134934</v>
       </c>
       <c r="EE5">
-        <v>0.007095347994966522</v>
+        <v>0.007095455263706012</v>
       </c>
       <c r="EF5">
-        <v>0.0004123865648350331</v>
+        <v>0.0004121186902530193</v>
       </c>
       <c r="EG5">
-        <v>1.867967840714919E-06</v>
+        <v>1.577049087097612E-06</v>
       </c>
       <c r="EH5">
-        <v>4.11390504919969E-05</v>
+        <v>4.085033619287762E-05</v>
       </c>
       <c r="EI5">
-        <v>0.007031266900430836</v>
+        <v>0.007031370572023327</v>
       </c>
       <c r="EJ5">
-        <v>0.002364181198401886</v>
+        <v>0.0023640228864336</v>
       </c>
       <c r="EK5">
-        <v>0.005452494135055717</v>
+        <v>0.005452509183353686</v>
       </c>
       <c r="EL5">
-        <v>0.0001985480430694403</v>
+        <v>0.0001982681648129837</v>
       </c>
       <c r="EM5">
-        <v>0.006878083913493034</v>
+        <v>0.006878178986266705</v>
       </c>
       <c r="EN5">
-        <v>0.01474747774245523</v>
+        <v>0.01474801455809546</v>
       </c>
       <c r="EO5">
-        <v>0.002969963446745712</v>
+        <v>0.002969839139936236</v>
       </c>
       <c r="EP5">
-        <v>1.018110213183855E-05</v>
+        <v>9.890650030145343E-06</v>
       </c>
       <c r="EQ5">
-        <v>6.886220412799218E-05</v>
+        <v>6.857504604852887E-05</v>
       </c>
       <c r="ER5">
-        <v>0.002315563802547582</v>
+        <v>0.002315402761476105</v>
       </c>
       <c r="ES5">
-        <v>0.0009523796187888244</v>
+        <v>0.0009521420563356424</v>
       </c>
       <c r="ET5">
-        <v>0.002038001126215866</v>
+        <v>0.002037824504359521</v>
       </c>
       <c r="EU5">
-        <v>0.006631023434560339</v>
+        <v>0.006631104638768457</v>
       </c>
       <c r="EV5">
-        <v>0.002520470385074818</v>
+        <v>0.002520320846289681</v>
       </c>
       <c r="EW5">
-        <v>0.0001300675689088973</v>
+        <v>0.0001297838465493731</v>
       </c>
       <c r="EX5">
-        <v>0.0001380929782245558</v>
+        <v>0.0001378097063657173</v>
       </c>
       <c r="EY5">
-        <v>0.005622708220541247</v>
+        <v>0.005622732823686728</v>
       </c>
       <c r="EZ5">
-        <v>0.0181348514536076</v>
+        <v>0.01813557841707951</v>
       </c>
       <c r="FA5">
-        <v>0.0007969978320385174</v>
+        <v>0.0007967515473384406</v>
       </c>
       <c r="FB5">
-        <v>0.005721216112141296</v>
+        <v>0.005721246244957723</v>
       </c>
       <c r="FC5">
-        <v>8.794233250099427E-06</v>
+        <v>8.503703297500718E-06</v>
       </c>
       <c r="FD5">
-        <v>0.008454762279046747</v>
+        <v>0.008454945857547285</v>
       </c>
       <c r="FE5">
-        <v>6.926114009397418E-06</v>
+        <v>6.635479191244083E-06</v>
       </c>
       <c r="FF5">
-        <v>0.009959103650768769</v>
+        <v>0.009959371674410097</v>
       </c>
       <c r="FG5">
-        <v>0.01461310275391364</v>
+        <v>0.01461363202650875</v>
       </c>
       <c r="FH5">
-        <v>0.006026657286095761</v>
+        <v>0.006026704564636836</v>
       </c>
       <c r="FI5">
-        <v>1.273819191379076E-06</v>
+        <v>9.82867085646826E-07</v>
       </c>
       <c r="FJ5">
-        <v>0.0001409586179801973</v>
+        <v>0.0001406755069820233</v>
       </c>
       <c r="FK5">
-        <v>0.004511117115328681</v>
+        <v>0.004511079320092289</v>
       </c>
       <c r="FL5">
-        <v>0.004124070148332893</v>
+        <v>0.004124010626488276</v>
       </c>
       <c r="FM5">
-        <v>0.0003143455231951745</v>
+        <v>0.0003140721451485082</v>
       </c>
       <c r="FN5">
-        <v>0.0004670561601732554</v>
+        <v>0.0004667913544303774</v>
       </c>
       <c r="FO5">
-        <v>0.0003639298889670237</v>
+        <v>0.000363659294303722</v>
       </c>
       <c r="FP5">
-        <v>0.0002299803803891466</v>
+        <v>0.0002297022665647533</v>
       </c>
       <c r="FQ5">
-        <v>0.004089111651313869</v>
+        <v>0.004089050167098702</v>
       </c>
       <c r="FR5">
-        <v>0.002351155799512587</v>
+        <v>0.00235099675637273</v>
       </c>
       <c r="FS5">
-        <v>0.0005146491061149167</v>
+        <v>0.0005143869719684571</v>
       </c>
       <c r="FT5">
-        <v>0.00308487053694737</v>
+        <v>0.003084752680366275</v>
       </c>
       <c r="FU5">
-        <v>0.003853259971425379</v>
+        <v>0.003853185247842681</v>
       </c>
       <c r="FV5">
-        <v>0.001501549771960067</v>
+        <v>0.001501343036785702</v>
       </c>
       <c r="FW5">
-        <v>0.002736746366632564</v>
+        <v>0.002736608968346954</v>
       </c>
       <c r="FX5">
-        <v>0.006735118425683966</v>
+        <v>0.006735205473190917</v>
       </c>
       <c r="FY5">
-        <v>0.0006692518929316504</v>
+        <v>0.0006689984373034744</v>
       </c>
       <c r="FZ5">
-        <v>0.001392150281288765</v>
+        <v>0.00139193740505123</v>
       </c>
       <c r="GA5">
-        <v>0.0006569893439773007</v>
+        <v>0.0006567351999995969</v>
       </c>
       <c r="GB5">
-        <v>3.31254601753306E-05</v>
+        <v>3.283629603897674E-05</v>
       </c>
       <c r="GC5">
-        <v>0.0007476324062479987</v>
+        <v>0.0007473833504545986</v>
       </c>
       <c r="GD5">
-        <v>0.002295594204250427</v>
+        <v>0.002295432042199649</v>
       </c>
       <c r="GE5">
-        <v>0.002829995258681058</v>
+        <v>0.002829863094856167</v>
       </c>
       <c r="GF5">
-        <v>0.001687956256064841</v>
+        <v>0.001687759984686852</v>
       </c>
       <c r="GG5">
-        <v>0.005598668922591122</v>
+        <v>0.005598692176307585</v>
       </c>
       <c r="GH5">
-        <v>0.0005659844117374599</v>
+        <v>0.0005657251592621371</v>
       </c>
       <c r="GI5">
-        <v>0.001037923211494364</v>
+        <v>0.001037690450970361</v>
       </c>
       <c r="GJ5">
-        <v>6.330193860212636E-05</v>
+        <v>6.301446840108345E-05</v>
       </c>
       <c r="GK5">
-        <v>0.001191427498404769</v>
+        <v>0.001191203354735534</v>
       </c>
       <c r="GL5">
-        <v>5.995561488747357E-08</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0008246293796823241</v>
+        <v>0.0008243846460596656</v>
       </c>
       <c r="GN5">
-        <v>0.001268306491849154</v>
+        <v>0.001268086663727937</v>
       </c>
       <c r="GO5">
-        <v>0.0001605221063119824</v>
+        <v>0.0001602400934964135</v>
       </c>
       <c r="GP5">
-        <v>0.0006090387480661368</v>
+        <v>0.0006087819124155861</v>
       </c>
       <c r="GQ5">
-        <v>0.00458183060929881</v>
+        <v>0.004581796783514475</v>
       </c>
       <c r="GR5">
-        <v>0.007310832376591771</v>
+        <v>0.007310951741394883</v>
       </c>
       <c r="GS5">
-        <v>0.009223570213489069</v>
+        <v>0.009223796948480203</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001443898139820039</v>
+        <v>0.0001420706641248842</v>
       </c>
       <c r="C6">
-        <v>3.870490838682535E-05</v>
+        <v>3.633789810389349E-05</v>
       </c>
       <c r="D6">
-        <v>3.870490838682535E-05</v>
+        <v>3.633789810389349E-05</v>
       </c>
       <c r="E6">
-        <v>7.34860869371871E-05</v>
+        <v>7.113482764543316E-05</v>
       </c>
       <c r="F6">
-        <v>2.733109286087248E-05</v>
+        <v>2.4958931836204E-05</v>
       </c>
       <c r="G6">
-        <v>1.807150424680115E-05</v>
+        <v>1.569514992838444E-05</v>
       </c>
       <c r="H6">
-        <v>1.682679329867922E-05</v>
+        <v>1.444987530093996E-05</v>
       </c>
       <c r="I6">
-        <v>2.566275593040679E-06</v>
+        <v>1.828995827228904E-07</v>
       </c>
       <c r="J6">
-        <v>3.094379171029948E-06</v>
+        <v>7.112423174959328E-07</v>
       </c>
       <c r="K6">
-        <v>2.60862129127576E-08</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.258459247548912E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.383458800660266E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.984417133934222E-05</v>
+        <v>3.747767698259408E-05</v>
       </c>
       <c r="O6">
-        <v>5.581890367353433E-05</v>
+        <v>5.345964362794391E-05</v>
       </c>
       <c r="P6">
-        <v>6.864619213890818E-06</v>
+        <v>4.483189749816528E-06</v>
       </c>
       <c r="Q6">
-        <v>3.080924871590708E-05</v>
+        <v>2.843866280756505E-05</v>
       </c>
       <c r="R6">
-        <v>0.0001481905938235919</v>
+        <v>0.0001458731651861734</v>
       </c>
       <c r="S6">
-        <v>0.0001351866443655811</v>
+        <v>0.0001328633267645988</v>
       </c>
       <c r="T6">
-        <v>9.615221599248975E-05</v>
+        <v>9.381122127524615E-05</v>
       </c>
       <c r="U6">
-        <v>3.657000547580557E-05</v>
+        <v>3.420202838156028E-05</v>
       </c>
       <c r="V6">
-        <v>2.183780408982624E-05</v>
+        <v>1.946315537651187E-05</v>
       </c>
       <c r="W6">
-        <v>2.471200897003279E-05</v>
+        <v>2.233866186803806E-05</v>
       </c>
       <c r="X6">
-        <v>1.56906963460304E-05</v>
+        <v>1.331326385586091E-05</v>
       </c>
       <c r="Y6">
-        <v>1.899646720824979E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>5.99256315023708E-07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.409601899570652E-06</v>
+        <v>2.615493806413157E-08</v>
       </c>
       <c r="AB6">
-        <v>2.727883486305054E-06</v>
+        <v>3.445806616758241E-07</v>
       </c>
       <c r="AC6">
-        <v>1.007975257988787E-05</v>
+        <v>7.699779119876537E-06</v>
       </c>
       <c r="AD6">
-        <v>2.647236489666325E-05</v>
+        <v>2.409981498877826E-05</v>
       </c>
       <c r="AE6">
-        <v>2.238433306704756E-05</v>
+        <v>2.000993185463619E-05</v>
       </c>
       <c r="AF6">
-        <v>1.252532747795922E-05</v>
+        <v>1.014646152005821E-05</v>
       </c>
       <c r="AG6">
-        <v>1.115848153492773E-05</v>
+        <v>8.778996587697226E-06</v>
       </c>
       <c r="AH6">
-        <v>5.248218481260481E-07</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>5.665033063888145E-06</v>
+        <v>3.283060355690069E-06</v>
       </c>
       <c r="AJ6">
-        <v>8.152349660219741E-08</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>3.331764861135994E-06</v>
+        <v>9.487355099945507E-07</v>
       </c>
       <c r="AL6">
-        <v>3.271595863643767E-06</v>
+        <v>8.885392643931967E-07</v>
       </c>
       <c r="AM6">
-        <v>5.088591787913532E-06</v>
+        <v>2.706358032740314E-06</v>
       </c>
       <c r="AN6">
-        <v>3.271595863643767E-06</v>
+        <v>8.885392643931967E-07</v>
       </c>
       <c r="AO6">
-        <v>7.576238684231362E-06</v>
+        <v>5.195131483877466E-06</v>
       </c>
       <c r="AP6">
-        <v>2.232558406949615E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.223289749014735E-05</v>
+        <v>9.853899102514232E-06</v>
       </c>
       <c r="AR6">
-        <v>5.532519769411141E-05</v>
+        <v>5.296571406902051E-05</v>
       </c>
       <c r="AS6">
-        <v>8.239594656583472E-05</v>
+        <v>8.004872218969481E-05</v>
       </c>
       <c r="AT6">
-        <v>6.561592726520601E-05</v>
+        <v>6.326110389596163E-05</v>
       </c>
       <c r="AU6">
-        <v>3.007842874636678E-05</v>
+        <v>2.770751187917366E-05</v>
       </c>
       <c r="AV6">
-        <v>2.811390582824577E-05</v>
+        <v>2.574209930795744E-05</v>
       </c>
       <c r="AW6">
-        <v>2.261837705729289E-05</v>
+        <v>2.024408183395317E-05</v>
       </c>
       <c r="AX6">
-        <v>8.132979661027059E-06</v>
+        <v>5.752124586178377E-06</v>
       </c>
       <c r="AY6">
-        <v>8.132979661027059E-06</v>
+        <v>5.752124586178377E-06</v>
       </c>
       <c r="AZ6">
-        <v>9.642522598111101E-08</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>3.547296152152906E-06</v>
+        <v>1.164364406429245E-06</v>
       </c>
       <c r="BB6">
-        <v>6.516206428412248E-07</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>1.069819755411182E-07</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>3.528193852949067E-05</v>
+        <v>3.291337812174212E-05</v>
       </c>
       <c r="BE6">
-        <v>4.535470210966983E-05</v>
+        <v>4.299070324977277E-05</v>
       </c>
       <c r="BF6">
-        <v>4.670261305349051E-05</v>
+        <v>4.433922460802646E-05</v>
       </c>
       <c r="BG6">
-        <v>5.644160564758086E-05</v>
+        <v>5.408262759856756E-05</v>
       </c>
       <c r="BH6">
-        <v>7.291944696080399E-05</v>
+        <v>7.056793106068769E-05</v>
       </c>
       <c r="BI6">
-        <v>7.897846670827122E-05</v>
+        <v>7.66296946935138E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.000117520645101879</v>
+        <v>0.0001151893272832459</v>
       </c>
       <c r="BK6">
-        <v>0.0001487999237981958</v>
+        <v>0.0001464827711017159</v>
       </c>
       <c r="BL6">
-        <v>5.229164282054638E-05</v>
+        <v>4.993078542095896E-05</v>
       </c>
       <c r="BM6">
-        <v>3.053599572729594E-05</v>
+        <v>2.81652860737103E-05</v>
       </c>
       <c r="BN6">
-        <v>0.0001073408755261597</v>
+        <v>0.0001050049477009811</v>
       </c>
       <c r="BO6">
-        <v>0.0001083725754831597</v>
+        <v>0.0001060371148732278</v>
       </c>
       <c r="BP6">
-        <v>0.0001019218357520188</v>
+        <v>9.958345386256659E-05</v>
       </c>
       <c r="BQ6">
-        <v>7.067485105435608E-05</v>
+        <v>6.832231866739849E-05</v>
       </c>
       <c r="BR6">
-        <v>1.765166726429946E-05</v>
+        <v>1.527512281866788E-05</v>
       </c>
       <c r="BS6">
-        <v>3.802703241507842E-07</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>9.788248592037414E-07</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>5.088591787913532E-06</v>
+        <v>2.706358032740314E-06</v>
       </c>
       <c r="BV6">
-        <v>3.099332270823509E-05</v>
+        <v>2.862282015957062E-05</v>
       </c>
       <c r="BW6">
-        <v>4.005346433061914E-05</v>
+        <v>3.768706475421475E-05</v>
       </c>
       <c r="BX6">
-        <v>0.0001106213653894328</v>
+        <v>0.0001082869231656354</v>
       </c>
       <c r="BY6">
-        <v>0.0001313639345249071</v>
+        <v>0.0001290388857730125</v>
       </c>
       <c r="BZ6">
-        <v>8.945431627165025E-05</v>
+        <v>8.711028834610807E-05</v>
       </c>
       <c r="CA6">
-        <v>7.853472672676579E-05</v>
+        <v>7.618575376009053E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0001294731246037138</v>
+        <v>0.0001271472195803636</v>
       </c>
       <c r="CC6">
-        <v>0.0001213164599436739</v>
+        <v>0.0001189868610962942</v>
       </c>
       <c r="CD6">
-        <v>7.53399068599221E-05</v>
+        <v>7.298948708834732E-05</v>
       </c>
       <c r="CE6">
-        <v>1.856612622618589E-05</v>
+        <v>1.618999590208905E-05</v>
       </c>
       <c r="CF6">
-        <v>7.30526939552504E-06</v>
+        <v>4.924039484122993E-06</v>
       </c>
       <c r="CG6">
-        <v>8.612008641061699E-06</v>
+        <v>6.231370499093183E-06</v>
       </c>
       <c r="CH6">
-        <v>2.101206812424193E-08</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>4.758726201661939E-06</v>
+        <v>2.376343063685852E-06</v>
       </c>
       <c r="CJ6">
-        <v>5.431054773640082E-06</v>
+        <v>3.048976106123228E-06</v>
       </c>
       <c r="CK6">
-        <v>3.164376868112528E-05</v>
+        <v>2.927356069317462E-05</v>
       </c>
       <c r="CL6">
-        <v>2.160784909941049E-05</v>
+        <v>1.923309624876736E-05</v>
       </c>
       <c r="CM6">
-        <v>7.622795382290934E-06</v>
+        <v>5.241709265585466E-06</v>
       </c>
       <c r="CN6">
-        <v>0.006739264119115469</v>
+        <v>0.006739931521506692</v>
       </c>
       <c r="CO6">
-        <v>0.1754712226865677</v>
+        <v>0.1755483019789982</v>
       </c>
       <c r="CP6">
-        <v>0.06111109045296227</v>
+        <v>0.0611363806597726</v>
       </c>
       <c r="CQ6">
-        <v>0.294555987723256</v>
+        <v>0.2946869956967058</v>
       </c>
       <c r="CR6">
-        <v>0.01438811340032051</v>
+        <v>0.01439224465766348</v>
       </c>
       <c r="CS6">
-        <v>0.02080734513277455</v>
+        <v>0.02081438340093777</v>
       </c>
       <c r="CT6">
-        <v>0.01615724432658523</v>
+        <v>0.01616217675188092</v>
       </c>
       <c r="CU6">
-        <v>0.003552240451946834</v>
+        <v>0.003551464580022534</v>
       </c>
       <c r="CV6">
-        <v>0.0004038485831680703</v>
+        <v>0.0004016469317096482</v>
       </c>
       <c r="CW6">
-        <v>0.001170939351196637</v>
+        <v>0.001169085084169205</v>
       </c>
       <c r="CX6">
-        <v>0.0001424071640646384</v>
+        <v>0.0001400871163454375</v>
       </c>
       <c r="CY6">
-        <v>0.003341313060738037</v>
+        <v>0.003340441668316256</v>
       </c>
       <c r="CZ6">
-        <v>0.02736501685945857</v>
+        <v>0.02737502483232473</v>
       </c>
       <c r="DA6">
-        <v>0.009026402623790251</v>
+        <v>0.009028105778847464</v>
       </c>
       <c r="DB6">
-        <v>6.481368729864243E-05</v>
+        <v>6.24585006273145E-05</v>
       </c>
       <c r="DC6">
-        <v>0.006628270423741554</v>
+        <v>0.006628887561570463</v>
       </c>
       <c r="DD6">
-        <v>0.002964045476462102</v>
+        <v>0.002963003234786808</v>
       </c>
       <c r="DE6">
-        <v>0.01365493443087854</v>
+        <v>0.01365873366107462</v>
       </c>
       <c r="DF6">
-        <v>0.002151873610312462</v>
+        <v>0.002150463568797373</v>
       </c>
       <c r="DG6">
-        <v>0.0005962058751508467</v>
+        <v>0.0005940913345418928</v>
       </c>
       <c r="DH6">
-        <v>0.0008761379634836094</v>
+        <v>0.0008741501928128093</v>
       </c>
       <c r="DI6">
-        <v>0.0004836295798428931</v>
+        <v>0.0004814640579760249</v>
       </c>
       <c r="DJ6">
-        <v>0.002473349396913732</v>
+        <v>0.002472084938800061</v>
       </c>
       <c r="DK6">
-        <v>0.006003475049782285</v>
+        <v>0.006003809243017784</v>
       </c>
       <c r="DL6">
-        <v>0.000116803780131757</v>
+        <v>0.0001144721376739286</v>
       </c>
       <c r="DM6">
-        <v>0.0141763584091462</v>
+        <v>0.0141803937712051</v>
       </c>
       <c r="DN6">
-        <v>0.0004953513793543424</v>
+        <v>0.0004931911658171051</v>
       </c>
       <c r="DO6">
-        <v>0.01140716152456304</v>
+        <v>0.01140994282918292</v>
       </c>
       <c r="DP6">
-        <v>0.01557544635083388</v>
+        <v>0.01558011530332142</v>
       </c>
       <c r="DQ6">
-        <v>0.0003427917857128452</v>
+        <v>0.0003405624840965459</v>
       </c>
       <c r="DR6">
-        <v>0.01245397148093325</v>
+        <v>0.01245722684350846</v>
       </c>
       <c r="DS6">
-        <v>0.004744542602253095</v>
+        <v>0.004744306675823272</v>
       </c>
       <c r="DT6">
-        <v>0.004031175531985388</v>
+        <v>0.004030616550417737</v>
       </c>
       <c r="DU6">
-        <v>0.005754667060152307</v>
+        <v>0.005754888578297052</v>
       </c>
       <c r="DV6">
-        <v>0.001252175347810818</v>
+        <v>0.001250357869285654</v>
       </c>
       <c r="DW6">
-        <v>0.002770795884516516</v>
+        <v>0.002769666127905134</v>
       </c>
       <c r="DX6">
-        <v>0.0001645452231419504</v>
+        <v>0.0001622352008556922</v>
       </c>
       <c r="DY6">
-        <v>0.0003962255234857904</v>
+        <v>0.0003940204198514844</v>
       </c>
       <c r="DZ6">
-        <v>0.007052724706050804</v>
+        <v>0.007053534062083198</v>
       </c>
       <c r="EA6">
-        <v>0.0001912424220292428</v>
+        <v>0.000188944489826233</v>
       </c>
       <c r="EB6">
-        <v>0.0004752985101901222</v>
+        <v>0.0004731292155182465</v>
       </c>
       <c r="EC6">
-        <v>0.02254254906045331</v>
+        <v>0.02255037313240168</v>
       </c>
       <c r="ED6">
-        <v>0.02311289003668217</v>
+        <v>0.02312097239302629</v>
       </c>
       <c r="EE6">
-        <v>0.002075754513485015</v>
+        <v>0.002074310000704933</v>
       </c>
       <c r="EF6">
-        <v>0.01109456653759163</v>
+        <v>0.0110972062805656</v>
       </c>
       <c r="EG6">
-        <v>0.0003808935441248091</v>
+        <v>0.0003786814972562103</v>
       </c>
       <c r="EH6">
-        <v>1.465889238903476E-05</v>
+        <v>1.228099263652106E-05</v>
       </c>
       <c r="EI6">
-        <v>0.000249885089585086</v>
+        <v>0.0002476137142780129</v>
       </c>
       <c r="EJ6">
-        <v>0.008102816162284239</v>
+        <v>0.008104101062330739</v>
       </c>
       <c r="EK6">
-        <v>0.001358035643398686</v>
+        <v>0.001356266104726379</v>
       </c>
       <c r="EL6">
-        <v>0.003189938667047142</v>
+        <v>0.003188998723275494</v>
       </c>
       <c r="EM6">
-        <v>3.865985838870298E-06</v>
+        <v>1.483198414835929E-06</v>
       </c>
       <c r="EN6">
-        <v>0.006765139718037005</v>
+        <v>0.006765818838442031</v>
       </c>
       <c r="EO6">
-        <v>0.01673265630260274</v>
+        <v>0.0167378493087452</v>
       </c>
       <c r="EP6">
-        <v>0.004033278531897737</v>
+        <v>0.00403272050269382</v>
       </c>
       <c r="EQ6">
-        <v>0.0002693509387737725</v>
+        <v>0.0002670883787636969</v>
       </c>
       <c r="ER6">
-        <v>1.56906963460304E-05</v>
+        <v>1.331326385586091E-05</v>
       </c>
       <c r="ES6">
-        <v>0.002409539899573236</v>
+        <v>0.002408246544715074</v>
       </c>
       <c r="ET6">
-        <v>0.0002016893615938268</v>
+        <v>0.0001993961603878612</v>
       </c>
       <c r="EU6">
-        <v>0.003938139235863031</v>
+        <v>0.003937538121914002</v>
       </c>
       <c r="EV6">
-        <v>0.005312573378578246</v>
+        <v>0.005312594690347921</v>
       </c>
       <c r="EW6">
-        <v>0.00124983284790845</v>
+        <v>0.001248014308559679</v>
       </c>
       <c r="EX6">
-        <v>0.0002454503497699207</v>
+        <v>0.0002431769661482759</v>
       </c>
       <c r="EY6">
-        <v>0.0007267683097091593</v>
+        <v>0.000724712895554242</v>
       </c>
       <c r="EZ6">
-        <v>0.00534157577736946</v>
+        <v>0.005341610223154327</v>
       </c>
       <c r="FA6">
-        <v>0.01641926431566455</v>
+        <v>0.01642431539923199</v>
       </c>
       <c r="FB6">
-        <v>0.0008561502643166729</v>
+        <v>0.0008541534420240944</v>
       </c>
       <c r="FC6">
-        <v>0.004718370803343904</v>
+        <v>0.004718123024763266</v>
       </c>
       <c r="FD6">
-        <v>4.866965797150641E-06</v>
+        <v>2.484631676516251E-06</v>
       </c>
       <c r="FE6">
-        <v>0.006614797424303093</v>
+        <v>0.006615408460754643</v>
       </c>
       <c r="FF6">
-        <v>1.635676031826964E-06</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.007606898682953491</v>
+        <v>0.00760795900200051</v>
       </c>
       <c r="FH6">
-        <v>0.01316033345149292</v>
+        <v>0.01316390869687919</v>
       </c>
       <c r="FI6">
-        <v>0.006713490220189695</v>
+        <v>0.006714145950622936</v>
       </c>
       <c r="FJ6">
-        <v>1.234898848530881E-05</v>
+        <v>9.970042670599238E-06</v>
       </c>
       <c r="FK6">
-        <v>0.0002162828209855887</v>
+        <v>0.0002139962285680459</v>
       </c>
       <c r="FL6">
-        <v>0.004058553830844292</v>
+        <v>0.004058007247802562</v>
       </c>
       <c r="FM6">
-        <v>0.004480343813264586</v>
+        <v>0.004479988241872516</v>
       </c>
       <c r="FN6">
-        <v>0.0002261322705750753</v>
+        <v>0.0002238501385754959</v>
       </c>
       <c r="FO6">
-        <v>0.0003747723343799338</v>
+        <v>0.0003725575154626378</v>
       </c>
       <c r="FP6">
-        <v>0.0004058474030847618</v>
+        <v>0.0004036466568111605</v>
       </c>
       <c r="FQ6">
-        <v>0.0001777512025915408</v>
+        <v>0.000175447160760071</v>
       </c>
       <c r="FR6">
-        <v>0.003755365143480838</v>
+        <v>0.003754681258526437</v>
       </c>
       <c r="FS6">
-        <v>0.003498154554201069</v>
+        <v>0.003497354188957861</v>
       </c>
       <c r="FT6">
-        <v>0.0008825106632180028</v>
+        <v>0.0008805257784855603</v>
       </c>
       <c r="FU6">
-        <v>0.002917357578407998</v>
+        <v>0.002916294193669098</v>
       </c>
       <c r="FV6">
-        <v>0.003097111670916061</v>
+        <v>0.003096129689546549</v>
       </c>
       <c r="FW6">
-        <v>0.001212652249458093</v>
+        <v>0.001210816872517769</v>
       </c>
       <c r="FX6">
-        <v>0.002338550202532003</v>
+        <v>0.002337224699306867</v>
       </c>
       <c r="FY6">
-        <v>0.004522555811505241</v>
+        <v>0.004522219356222503</v>
       </c>
       <c r="FZ6">
-        <v>0.0009328974011179434</v>
+        <v>0.0009309353345043002</v>
       </c>
       <c r="GA6">
-        <v>0.0004250755422833558</v>
+        <v>0.000422883503657497</v>
       </c>
       <c r="GB6">
-        <v>0.000814994006032017</v>
+        <v>0.0008129785457320973</v>
       </c>
       <c r="GC6">
-        <v>3.832852440251259E-06</v>
+        <v>1.4500500114387E-06</v>
       </c>
       <c r="GD6">
-        <v>0.001278690346705704</v>
+        <v>0.00127688487575277</v>
       </c>
       <c r="GE6">
-        <v>0.003396106558454309</v>
+        <v>0.003395259979794888</v>
       </c>
       <c r="GF6">
-        <v>0.002794394183532967</v>
+        <v>0.002793275113638226</v>
       </c>
       <c r="GG6">
-        <v>0.001337369844260012</v>
+        <v>0.001335590946881834</v>
       </c>
       <c r="GH6">
-        <v>0.005150929385315375</v>
+        <v>0.005150877495048259</v>
       </c>
       <c r="GI6">
-        <v>0.0008820287632380879</v>
+        <v>0.0008800436602726052</v>
       </c>
       <c r="GJ6">
-        <v>0.0005405579374701867</v>
+        <v>0.0005384181961575186</v>
       </c>
       <c r="GK6">
-        <v>1.221585949085747E-06</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002110598912032742</v>
+        <v>0.002109170178873621</v>
       </c>
       <c r="GM6">
-        <v>8.285045254689146E-05</v>
+        <v>8.050343399815581E-05</v>
       </c>
       <c r="GN6">
-        <v>0.0007601735683168678</v>
+        <v>0.000758133282054551</v>
       </c>
       <c r="GO6">
-        <v>0.001500057537479382</v>
+        <v>0.001498352314787556</v>
       </c>
       <c r="GP6">
-        <v>0.0001848851122942079</v>
+        <v>0.0001825843011223498</v>
       </c>
       <c r="GQ6">
-        <v>0.000731238719522838</v>
+        <v>0.0007291853298359943</v>
       </c>
       <c r="GR6">
-        <v>0.005658337164167223</v>
+        <v>0.00565851505839222</v>
       </c>
       <c r="GS6">
-        <v>0.008816847632524254</v>
+        <v>0.008818455888588497</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001088865283028928</v>
+        <v>9.484818304010732E-05</v>
       </c>
       <c r="C2">
-        <v>0.000263990875885434</v>
+        <v>0.0002360323913937586</v>
       </c>
       <c r="D2">
-        <v>0.0005111010720339705</v>
+        <v>0.0004694577611564535</v>
       </c>
       <c r="E2">
-        <v>0.0007322824085866347</v>
+        <v>0.0006768879560426325</v>
       </c>
       <c r="F2">
-        <v>0.0009152356457351226</v>
+        <v>0.0008459922798840783</v>
       </c>
       <c r="G2">
-        <v>0.001058766723498045</v>
+        <v>0.0009755736187886625</v>
       </c>
       <c r="H2">
-        <v>0.001186060271514046</v>
+        <v>0.001088875899072364</v>
       </c>
       <c r="I2">
-        <v>0.001352542668919248</v>
+        <v>0.001241467257586251</v>
       </c>
       <c r="J2">
-        <v>0.001417613547905053</v>
+        <v>0.001292387729030931</v>
       </c>
       <c r="K2">
-        <v>0.001431893856682479</v>
+        <v>0.001292387729030931</v>
       </c>
       <c r="L2">
-        <v>0.001444176881491036</v>
+        <v>0.001292387729030931</v>
       </c>
       <c r="M2">
-        <v>0.001444870545980224</v>
+        <v>0.001292387729030931</v>
       </c>
       <c r="N2">
-        <v>0.001471862456559528</v>
+        <v>0.001305131841843861</v>
       </c>
       <c r="O2">
-        <v>0.001486679016328597</v>
+        <v>0.001305669464343373</v>
       </c>
       <c r="P2">
-        <v>0.001539089675511724</v>
+        <v>0.001343897336388189</v>
       </c>
       <c r="Q2">
-        <v>0.0016499726637835</v>
+        <v>0.001440747085514656</v>
       </c>
       <c r="R2">
-        <v>0.001788072791631069</v>
+        <v>0.00156488358438402</v>
       </c>
       <c r="S2">
-        <v>0.001974971888718056</v>
+        <v>0.001737943860038937</v>
       </c>
       <c r="T2">
-        <v>0.00217716702556664</v>
+        <v>0.001926339296388084</v>
       </c>
       <c r="U2">
-        <v>0.002344822242953563</v>
+        <v>0.002080106474471312</v>
       </c>
       <c r="V2">
-        <v>0.00253929417992252</v>
+        <v>0.002260758958195226</v>
       </c>
       <c r="W2">
-        <v>0.002724832537030716</v>
+        <v>0.002432455013662234</v>
       </c>
       <c r="X2">
-        <v>0.002893781364397477</v>
+        <v>0.002587519110243691</v>
       </c>
       <c r="Y2">
-        <v>0.003069933881651961</v>
+        <v>0.00274980532076715</v>
       </c>
       <c r="Z2">
-        <v>0.003155197140323047</v>
+        <v>0.002820969815638739</v>
       </c>
       <c r="AA2">
-        <v>0.003192319402744459</v>
+        <v>0.002843870189536833</v>
       </c>
       <c r="AB2">
-        <v>0.003200032785624238</v>
+        <v>0.002843870189536833</v>
       </c>
       <c r="AC2">
-        <v>0.003201258411805135</v>
+        <v>0.002843870189536833</v>
       </c>
       <c r="AD2">
-        <v>0.003201341888147834</v>
+        <v>0.002843870189536833</v>
       </c>
       <c r="AE2">
-        <v>0.003205478743383357</v>
+        <v>0.002843870189536833</v>
       </c>
       <c r="AF2">
-        <v>0.00322170526513045</v>
+        <v>0.002845821380112969</v>
       </c>
       <c r="AG2">
-        <v>0.003269590774384106</v>
+        <v>0.002879512528769542</v>
       </c>
       <c r="AH2">
-        <v>0.0033758915827273</v>
+        <v>0.002971768378649545</v>
       </c>
       <c r="AI2">
-        <v>0.003484258486038292</v>
+        <v>0.003066095607712301</v>
       </c>
       <c r="AJ2">
-        <v>0.003592625389349284</v>
+        <v>0.003160422836775056</v>
       </c>
       <c r="AK2">
-        <v>0.003752736926853783</v>
+        <v>0.00330662704136803</v>
       </c>
       <c r="AL2">
-        <v>0.003919863244248949</v>
+        <v>0.003459863966752443</v>
       </c>
       <c r="AM2">
-        <v>0.004113765491226786</v>
+        <v>0.003639945303454258</v>
       </c>
       <c r="AN2">
-        <v>0.004324687827939347</v>
+        <v>0.003837090260228998</v>
       </c>
       <c r="AO2">
-        <v>0.004433054731250339</v>
+        <v>0.003931417489291752</v>
       </c>
       <c r="AP2">
-        <v>0.004537309319625425</v>
+        <v>0.004021621885820709</v>
       </c>
       <c r="AQ2">
-        <v>0.004632115958147767</v>
+        <v>0.004102354168555438</v>
       </c>
       <c r="AR2">
-        <v>0.004693227167195287</v>
+        <v>0.004149304842866603</v>
       </c>
       <c r="AS2">
-        <v>0.004730708741611098</v>
+        <v>0.004172565447730318</v>
       </c>
       <c r="AT2">
-        <v>0.004738036583996887</v>
+        <v>0.004172565447730318</v>
       </c>
       <c r="AU2">
-        <v>0.004738037819473767</v>
+        <v>0.004172565447730318</v>
       </c>
       <c r="AV2">
-        <v>0.004747349548328635</v>
+        <v>0.004172565447730318</v>
       </c>
       <c r="AW2">
-        <v>0.004755202021206246</v>
+        <v>0.004172565447730318</v>
       </c>
       <c r="AX2">
-        <v>0.00478848029368757</v>
+        <v>0.004191612000354604</v>
       </c>
       <c r="AY2">
-        <v>0.004885150432180868</v>
+        <v>0.004274212549121175</v>
       </c>
       <c r="AZ2">
-        <v>0.005004048265327725</v>
+        <v>0.004379097641775401</v>
       </c>
       <c r="BA2">
-        <v>0.005138077533238743</v>
+        <v>0.004499152869135034</v>
       </c>
       <c r="BB2">
-        <v>0.005280904651012637</v>
+        <v>0.004628028447612585</v>
       </c>
       <c r="BC2">
-        <v>0.005443435178479434</v>
+        <v>0.004776657828942005</v>
       </c>
       <c r="BD2">
-        <v>0.005558557936685129</v>
+        <v>0.004877758191577365</v>
       </c>
       <c r="BE2">
-        <v>0.005659189455116685</v>
+        <v>0.004964330251850895</v>
       </c>
       <c r="BF2">
-        <v>0.005793218723027703</v>
+        <v>0.005084385479210528</v>
       </c>
       <c r="BG2">
-        <v>0.005865653811898728</v>
+        <v>0.005142688995138359</v>
       </c>
       <c r="BH2">
-        <v>0.005884341035607469</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BI2">
-        <v>0.005885164866094628</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BJ2">
-        <v>0.005885165082416655</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BK2">
-        <v>0.005888088683071087</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BL2">
-        <v>0.005894376589673084</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BM2">
-        <v>0.005899364464595342</v>
+        <v>0.005147107181132303</v>
       </c>
       <c r="BN2">
-        <v>0.005948639953827333</v>
+        <v>0.005182191864760134</v>
       </c>
       <c r="BO2">
-        <v>0.006009362035880918</v>
+        <v>0.005228752416851727</v>
       </c>
       <c r="BP2">
-        <v>0.006050916717233246</v>
+        <v>0.005256096545972033</v>
       </c>
       <c r="BQ2">
-        <v>0.006108949681328743</v>
+        <v>0.005299961102455892</v>
       </c>
       <c r="BR2">
-        <v>0.006226319374499418</v>
+        <v>0.005403314146784978</v>
       </c>
       <c r="BS2">
-        <v>0.00634261127268689</v>
+        <v>0.00550558663957782</v>
       </c>
       <c r="BT2">
-        <v>0.006408084951666416</v>
+        <v>0.005556910941211727</v>
       </c>
       <c r="BU2">
-        <v>0.006454941026936117</v>
+        <v>0.005589570023018704</v>
       </c>
       <c r="BV2">
-        <v>0.00647116754868321</v>
+        <v>0.005591521213594839</v>
       </c>
       <c r="BW2">
-        <v>0.006476965315792846</v>
+        <v>0.005591521213594839</v>
       </c>
       <c r="BX2">
-        <v>0.006500014945433594</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="BY2">
-        <v>0.006506943490325606</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="BZ2">
-        <v>0.006512741257435242</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CA2">
-        <v>0.006520759453310271</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CB2">
-        <v>0.006520771539062082</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CC2">
-        <v>0.00652607835997937</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CD2">
-        <v>0.006529519157825742</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CE2">
-        <v>0.006530636877808321</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CF2">
-        <v>0.00653571647752915</v>
+        <v>0.005600312962747841</v>
       </c>
       <c r="CG2">
-        <v>0.006564284921083882</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CH2">
-        <v>0.006574058662931548</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CI2">
-        <v>0.00658083321732596</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CJ2">
-        <v>0.006588967598699177</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CK2">
-        <v>0.006601570702502745</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CL2">
-        <v>0.00660157871163362</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="CM2">
-        <v>0.006631544217166578</v>
+        <v>0.005630362953644929</v>
       </c>
       <c r="CN2">
-        <v>0.1101956526030147</v>
+        <v>0.1094450285907377</v>
       </c>
       <c r="CO2">
-        <v>0.1358761622027579</v>
+        <v>0.1351769014628336</v>
       </c>
       <c r="CP2">
-        <v>0.3220074993017119</v>
+        <v>0.3217699685768719</v>
       </c>
       <c r="CQ2">
-        <v>0.4076525629668466</v>
+        <v>0.4076197600006303</v>
       </c>
       <c r="CR2">
-        <v>0.4087167150502607</v>
+        <v>0.4086723169123096</v>
       </c>
       <c r="CS2">
-        <v>0.4118054195021201</v>
+        <v>0.4117546041586304</v>
       </c>
       <c r="CT2">
-        <v>0.4165957301274582</v>
+        <v>0.4165428495820543</v>
       </c>
       <c r="CU2">
-        <v>0.4170796097399165</v>
+        <v>0.4170136499262012</v>
       </c>
       <c r="CV2">
-        <v>0.4172266382276249</v>
+        <v>0.4171467376199769</v>
       </c>
       <c r="CW2">
-        <v>0.4241118471203119</v>
+        <v>0.4240352391926113</v>
       </c>
       <c r="CX2">
-        <v>0.4405464898641613</v>
+        <v>0.4404975981119145</v>
       </c>
       <c r="CY2">
-        <v>0.517478418665099</v>
+        <v>0.5176119700823034</v>
       </c>
       <c r="CZ2">
-        <v>0.5536414281014618</v>
+        <v>0.5538531526827514</v>
       </c>
       <c r="DA2">
-        <v>0.5563134642598154</v>
+        <v>0.5565177059706952</v>
       </c>
       <c r="DB2">
-        <v>0.5652511911205119</v>
+        <v>0.5654639750019527</v>
       </c>
       <c r="DC2">
-        <v>0.580616113881034</v>
+        <v>0.5808538780373911</v>
       </c>
       <c r="DD2">
-        <v>0.5880582367650409</v>
+        <v>0.5883007179566083</v>
       </c>
       <c r="DE2">
-        <v>0.5935901432788205</v>
+        <v>0.5938324559635167</v>
       </c>
       <c r="DF2">
-        <v>0.5982033066069197</v>
+        <v>0.5984431010203066</v>
       </c>
       <c r="DG2">
-        <v>0.5993251441894347</v>
+        <v>0.5995534909666947</v>
       </c>
       <c r="DH2">
-        <v>0.599350148510045</v>
+        <v>0.599564242406107</v>
       </c>
       <c r="DI2">
-        <v>0.5993612089718726</v>
+        <v>0.599564242406107</v>
       </c>
       <c r="DJ2">
-        <v>0.6069546301535215</v>
+        <v>0.6071627675813293</v>
       </c>
       <c r="DK2">
-        <v>0.6087709001252131</v>
+        <v>0.6089693659872455</v>
       </c>
       <c r="DL2">
-        <v>0.6135439724508199</v>
+        <v>0.6137403290225092</v>
       </c>
       <c r="DM2">
-        <v>0.6231586543009654</v>
+        <v>0.6233652844136195</v>
       </c>
       <c r="DN2">
-        <v>0.6312016871756065</v>
+        <v>0.6314145712022728</v>
       </c>
       <c r="DO2">
-        <v>0.645344658455174</v>
+        <v>0.6455793975111169</v>
       </c>
       <c r="DP2">
-        <v>0.6511278050650378</v>
+        <v>0.6513630181821877</v>
       </c>
       <c r="DQ2">
-        <v>0.6558322359917145</v>
+        <v>0.6560651642622605</v>
       </c>
       <c r="DR2">
-        <v>0.6794008326243739</v>
+        <v>0.6796797227688582</v>
       </c>
       <c r="DS2">
-        <v>0.6809081421008809</v>
+        <v>0.681176570486644</v>
       </c>
       <c r="DT2">
-        <v>0.6902181679557747</v>
+        <v>0.6904960906986845</v>
       </c>
       <c r="DU2">
-        <v>0.6925343706196744</v>
+        <v>0.6928039004175156</v>
       </c>
       <c r="DV2">
-        <v>0.6965829005565739</v>
+        <v>0.6968484679848161</v>
       </c>
       <c r="DW2">
-        <v>0.6977195152388586</v>
+        <v>0.697973672824673</v>
       </c>
       <c r="DX2">
-        <v>0.6985180769264122</v>
+        <v>0.6987599600702921</v>
       </c>
       <c r="DY2">
-        <v>0.6987259834131718</v>
+        <v>0.6989540814638191</v>
       </c>
       <c r="DZ2">
-        <v>0.7031574997441021</v>
+        <v>0.7033826149456769</v>
       </c>
       <c r="EA2">
-        <v>0.7038447096333913</v>
+        <v>0.704057265601264</v>
       </c>
       <c r="EB2">
-        <v>0.70384479053698</v>
+        <v>0.704057265601264</v>
       </c>
       <c r="EC2">
-        <v>0.736198087032721</v>
+        <v>0.736478991593734</v>
       </c>
       <c r="ED2">
-        <v>0.7371040408186008</v>
+        <v>0.7373729456021747</v>
       </c>
       <c r="EE2">
-        <v>0.7448020896986189</v>
+        <v>0.745076366070072</v>
       </c>
       <c r="EF2">
-        <v>0.7505322771093081</v>
+        <v>0.7508068920942774</v>
       </c>
       <c r="EG2">
-        <v>0.7507661059856637</v>
+        <v>0.7510270021761335</v>
       </c>
       <c r="EH2">
-        <v>0.7507794270214561</v>
+        <v>0.7510270021761335</v>
       </c>
       <c r="EI2">
-        <v>0.7511138555562437</v>
+        <v>0.7513479692086699</v>
       </c>
       <c r="EJ2">
-        <v>0.7607734689056888</v>
+        <v>0.7610179710152402</v>
       </c>
       <c r="EK2">
-        <v>0.7607906778954205</v>
+        <v>0.761020907186547</v>
       </c>
       <c r="EL2">
-        <v>0.7691900022645085</v>
+        <v>0.7694273967156802</v>
       </c>
       <c r="EM2">
-        <v>0.769240979095714</v>
+        <v>0.7694641870926094</v>
       </c>
       <c r="EN2">
-        <v>0.7784837769516556</v>
+        <v>0.7787163073643285</v>
       </c>
       <c r="EO2">
-        <v>0.7851027054484929</v>
+        <v>0.7853378475061792</v>
       </c>
       <c r="EP2">
-        <v>0.7852924645455354</v>
+        <v>0.7855137750964846</v>
       </c>
       <c r="EQ2">
-        <v>0.7852934883914194</v>
+        <v>0.7855137750964846</v>
       </c>
       <c r="ER2">
-        <v>0.7863756060745535</v>
+        <v>0.7865843435564449</v>
       </c>
       <c r="ES2">
-        <v>0.7931045059696767</v>
+        <v>0.7933161363578578</v>
       </c>
       <c r="ET2">
-        <v>0.7933940511851639</v>
+        <v>0.7935921052781579</v>
       </c>
       <c r="EU2">
-        <v>0.7979559527140621</v>
+        <v>0.798151357429302</v>
       </c>
       <c r="EV2">
-        <v>0.8081159135557088</v>
+        <v>0.8083229864096674</v>
       </c>
       <c r="EW2">
-        <v>0.8090613045009739</v>
+        <v>0.8092564784414085</v>
       </c>
       <c r="EX2">
-        <v>0.8093201662169393</v>
+        <v>0.8095016853865071</v>
       </c>
       <c r="EY2">
-        <v>0.8134451894526465</v>
+        <v>0.813622941890783</v>
       </c>
       <c r="EZ2">
-        <v>0.8250502517717698</v>
+        <v>0.8252433683195057</v>
       </c>
       <c r="FA2">
-        <v>0.8372316175819109</v>
+        <v>0.8374415721848164</v>
       </c>
       <c r="FB2">
-        <v>0.8401406359365708</v>
+        <v>0.8403437137713442</v>
       </c>
       <c r="FC2">
-        <v>0.8417787692110389</v>
+        <v>0.8419717198801665</v>
       </c>
       <c r="FD2">
-        <v>0.8471809886268398</v>
+        <v>0.8473734391032284</v>
       </c>
       <c r="FE2">
-        <v>0.8535341975278186</v>
+        <v>0.8537285800485808</v>
       </c>
       <c r="FF2">
-        <v>0.8599758554274188</v>
+        <v>0.8601723962084491</v>
       </c>
       <c r="FG2">
-        <v>0.8769517751628318</v>
+        <v>0.8771774164816118</v>
       </c>
       <c r="FH2">
-        <v>0.897631073840524</v>
+        <v>0.8978952874060958</v>
       </c>
       <c r="FI2">
-        <v>0.9004599793964326</v>
+        <v>0.9007171112985234</v>
       </c>
       <c r="FJ2">
-        <v>0.9005708623847044</v>
+        <v>0.9008139610476499</v>
       </c>
       <c r="FK2">
-        <v>0.9015772689690186</v>
+        <v>0.9018086247711662</v>
       </c>
       <c r="FL2">
-        <v>0.9113449868167788</v>
+        <v>0.9115870075625711</v>
       </c>
       <c r="FM2">
-        <v>0.9133687216852369</v>
+        <v>0.9136016014745079</v>
       </c>
       <c r="FN2">
-        <v>0.9143187171704302</v>
+        <v>0.9145397098226827</v>
       </c>
       <c r="FO2">
-        <v>0.9145223326972567</v>
+        <v>0.9147295292817789</v>
       </c>
       <c r="FP2">
-        <v>0.9145408436069682</v>
+        <v>0.9147337707028373</v>
       </c>
       <c r="FQ2">
-        <v>0.9169855205688654</v>
+        <v>0.917170383303694</v>
       </c>
       <c r="FR2">
-        <v>0.9235875044659668</v>
+        <v>0.9237749355085428</v>
       </c>
       <c r="FS2">
-        <v>0.9257222174326951</v>
+        <v>0.9259007913547477</v>
       </c>
       <c r="FT2">
-        <v>0.9276832414021305</v>
+        <v>0.927852513979163</v>
       </c>
       <c r="FU2">
-        <v>0.934551167895087</v>
+        <v>0.9347236889508482</v>
       </c>
       <c r="FV2">
-        <v>0.9376067112474632</v>
+        <v>0.9377727302853318</v>
       </c>
       <c r="FW2">
-        <v>0.9376460466168501</v>
+        <v>0.9377978494264062</v>
       </c>
       <c r="FX2">
-        <v>0.9456444284921872</v>
+        <v>0.945802371016998</v>
       </c>
       <c r="FY2">
-        <v>0.9487004687445557</v>
+        <v>0.9488519105223382</v>
       </c>
       <c r="FZ2">
-        <v>0.9488243097126255</v>
+        <v>0.9489617513924066</v>
       </c>
       <c r="GA2">
-        <v>0.9518660888652163</v>
+        <v>0.9519969933239841</v>
       </c>
       <c r="GB2">
-        <v>0.9527886250908376</v>
+        <v>0.9529075721831772</v>
       </c>
       <c r="GC2">
-        <v>0.9528276483902294</v>
+        <v>0.9529323784561107</v>
       </c>
       <c r="GD2">
-        <v>0.9539545012726662</v>
+        <v>0.95404779652948</v>
       </c>
       <c r="GE2">
-        <v>0.9584032275033283</v>
+        <v>0.9584935839268631</v>
       </c>
       <c r="GF2">
-        <v>0.9617468634512143</v>
+        <v>0.9618314546783604</v>
       </c>
       <c r="GG2">
-        <v>0.9685619229449947</v>
+        <v>0.9686496274389883</v>
       </c>
       <c r="GH2">
-        <v>0.9750155910444077</v>
+        <v>0.9751054845157847</v>
       </c>
       <c r="GI2">
-        <v>0.9750261888592425</v>
+        <v>0.9751054845157847</v>
       </c>
       <c r="GJ2">
-        <v>0.975561832680894</v>
+        <v>0.9756281814605262</v>
       </c>
       <c r="GK2">
-        <v>0.9758097272570303</v>
+        <v>0.9758623932163957</v>
       </c>
       <c r="GL2">
-        <v>0.9765817440449976</v>
+        <v>0.9766220676715728</v>
       </c>
       <c r="GM2">
-        <v>0.976890972680178</v>
+        <v>0.9769177703535989</v>
       </c>
       <c r="GN2">
-        <v>0.9779564588635713</v>
+        <v>0.9779716647773325</v>
       </c>
       <c r="GO2">
-        <v>0.9781629300603533</v>
+        <v>0.9781643472100048</v>
       </c>
       <c r="GP2">
-        <v>0.9783299403377502</v>
+        <v>0.9783174677986087</v>
       </c>
       <c r="GQ2">
-        <v>0.9816845976854645</v>
+        <v>0.9816663881381089</v>
       </c>
       <c r="GR2">
-        <v>0.9878955491886605</v>
+        <v>0.9878789078501915</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.695984634126271E-05</v>
+        <v>1.2564709092836E-05</v>
       </c>
       <c r="C3">
-        <v>1.740928467030622E-05</v>
+        <v>1.2564709092836E-05</v>
       </c>
       <c r="D3">
-        <v>3.869275309856801E-05</v>
+        <v>2.94565216105032E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001063645844602473</v>
+        <v>9.277404851358833E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001309845609556457</v>
+        <v>0.0001130050556217578</v>
       </c>
       <c r="G3">
-        <v>0.0001532954284045806</v>
+        <v>0.0001309250944116496</v>
       </c>
       <c r="H3">
-        <v>0.0002051249854474848</v>
+        <v>0.0001783875909530347</v>
       </c>
       <c r="I3">
-        <v>0.0002388284731256598</v>
+        <v>0.0002077094231975347</v>
       </c>
       <c r="J3">
-        <v>0.0002738217038297867</v>
+        <v>0.000238322036956342</v>
       </c>
       <c r="K3">
-        <v>0.0002873500111020006</v>
+        <v>0.0002474524439387387</v>
       </c>
       <c r="L3">
-        <v>0.0002873940674098871</v>
+        <v>0.0002474524439387387</v>
       </c>
       <c r="M3">
-        <v>0.0002881834261257705</v>
+        <v>0.0002474524439387387</v>
       </c>
       <c r="N3">
-        <v>0.0002977390653180472</v>
+        <v>0.0002526069840880687</v>
       </c>
       <c r="O3">
-        <v>0.0003185179147361551</v>
+        <v>0.0002689937712813355</v>
       </c>
       <c r="P3">
-        <v>0.0003202347166707003</v>
+        <v>0.0002689937712813355</v>
       </c>
       <c r="Q3">
-        <v>0.0003337481889426158</v>
+        <v>0.0002781093313184379</v>
       </c>
       <c r="R3">
-        <v>0.0003337501995816562</v>
+        <v>0.0002781093313184379</v>
       </c>
       <c r="S3">
-        <v>0.0003337510128567326</v>
+        <v>0.0002781093313184379</v>
       </c>
       <c r="T3">
-        <v>0.0003416702260160814</v>
+        <v>0.0002816261278007492</v>
       </c>
       <c r="U3">
-        <v>0.0003460754721047229</v>
+        <v>0.0002816261278007492</v>
       </c>
       <c r="V3">
-        <v>0.0003489498467625606</v>
+        <v>0.0002816261278007492</v>
       </c>
       <c r="W3">
-        <v>0.0003928899376467144</v>
+        <v>0.0003211928056630987</v>
       </c>
       <c r="X3">
-        <v>0.0004446904566890343</v>
+        <v>0.000368626240822788</v>
       </c>
       <c r="Y3">
-        <v>0.0004485013521657164</v>
+        <v>0.000368626240822788</v>
       </c>
       <c r="Z3">
-        <v>0.0004971824431452678</v>
+        <v>0.0004129377361870201</v>
       </c>
       <c r="AA3">
-        <v>0.0005430891440689934</v>
+        <v>0.0004544726075839356</v>
       </c>
       <c r="AB3">
-        <v>0.0005547808543042516</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AC3">
-        <v>0.0005553310360153223</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AD3">
-        <v>0.000555548797659704</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AE3">
-        <v>0.0005559982359887476</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AF3">
-        <v>0.0005562178845031673</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AG3">
-        <v>0.0005586225521515536</v>
+        <v>0.0004617649387195689</v>
       </c>
       <c r="AH3">
-        <v>0.0005688705973577627</v>
+        <v>0.0004676124424013201</v>
       </c>
       <c r="AI3">
-        <v>0.0005862866297082047</v>
+        <v>0.0004806337048198076</v>
       </c>
       <c r="AJ3">
-        <v>0.0006248375674839192</v>
+        <v>0.0005148068902808233</v>
       </c>
       <c r="AK3">
-        <v>0.000664074745273442</v>
+        <v>0.0005496668683093336</v>
       </c>
       <c r="AL3">
-        <v>0.0006817982656300712</v>
+        <v>0.0005629958663203161</v>
       </c>
       <c r="AM3">
-        <v>0.000717884782356197</v>
+        <v>0.0005947026464042369</v>
       </c>
       <c r="AN3">
-        <v>0.0007981640539715608</v>
+        <v>0.0006706377649474686</v>
       </c>
       <c r="AO3">
-        <v>0.0008203020044170163</v>
+        <v>0.0006883847475028164</v>
       </c>
       <c r="AP3">
-        <v>0.0008276249252643666</v>
+        <v>0.0006913047715444448</v>
       </c>
       <c r="AQ3">
-        <v>0.0008703841211247589</v>
+        <v>0.0007296896035380143</v>
       </c>
       <c r="AR3">
-        <v>0.0009121893149659548</v>
+        <v>0.0007671196653593773</v>
       </c>
       <c r="AS3">
-        <v>0.0009176616350760678</v>
+        <v>0.0007681875985783193</v>
       </c>
       <c r="AT3">
-        <v>0.0009192423544078747</v>
+        <v>0.0007681875985783193</v>
       </c>
       <c r="AU3">
-        <v>0.0009210620590444905</v>
+        <v>0.0007681875985783193</v>
       </c>
       <c r="AV3">
-        <v>0.0009210927660801084</v>
+        <v>0.0007681875985783193</v>
       </c>
       <c r="AW3">
-        <v>0.0009242864771443716</v>
+        <v>0.0007681875985783193</v>
       </c>
       <c r="AX3">
-        <v>0.0009590392818436608</v>
+        <v>0.0007985595927436426</v>
       </c>
       <c r="AY3">
-        <v>0.001006955647807824</v>
+        <v>0.0008421057473434522</v>
       </c>
       <c r="AZ3">
-        <v>0.001042142255515842</v>
+        <v>0.0008729118938114056</v>
       </c>
       <c r="BA3">
-        <v>0.001107389151828728</v>
+        <v>0.0009338025331319284</v>
       </c>
       <c r="BB3">
-        <v>0.00121953876408538</v>
+        <v>0.001041633654000186</v>
       </c>
       <c r="BC3">
-        <v>0.001277868742259085</v>
+        <v>0.00109560180574731</v>
       </c>
       <c r="BD3">
-        <v>0.00130883840488225</v>
+        <v>0.001122187611687848</v>
       </c>
       <c r="BE3">
-        <v>0.001366331016039105</v>
+        <v>0.001175317722178465</v>
       </c>
       <c r="BF3">
-        <v>0.001388970531494653</v>
+        <v>0.001193566673599101</v>
       </c>
       <c r="BG3">
-        <v>0.001389860680752565</v>
+        <v>0.001193566673599101</v>
       </c>
       <c r="BH3">
-        <v>0.001390650039468448</v>
+        <v>0.001193566673599101</v>
       </c>
       <c r="BI3">
-        <v>0.001391688100389336</v>
+        <v>0.001193566673599101</v>
       </c>
       <c r="BJ3">
-        <v>0.001410350227764851</v>
+        <v>0.001207835034386078</v>
       </c>
       <c r="BK3">
-        <v>0.001415157647261585</v>
+        <v>0.001208237531620229</v>
       </c>
       <c r="BL3">
-        <v>0.001420629967371698</v>
+        <v>0.001209305464839171</v>
       </c>
       <c r="BM3">
-        <v>0.001462198343208129</v>
+        <v>0.001246498517972249</v>
       </c>
       <c r="BN3">
-        <v>0.001516973284310299</v>
+        <v>0.001296908770167075</v>
       </c>
       <c r="BO3">
-        <v>0.001550676771988474</v>
+        <v>0.001326230602411575</v>
       </c>
       <c r="BP3">
-        <v>0.00161273709723724</v>
+        <v>0.001383932104872407</v>
       </c>
       <c r="BQ3">
-        <v>0.001724153765479144</v>
+        <v>0.00149102969156663</v>
       </c>
       <c r="BR3">
-        <v>0.001800537787016129</v>
+        <v>0.001563066423614564</v>
       </c>
       <c r="BS3">
-        <v>0.001837066325751149</v>
+        <v>0.001595215581619138</v>
       </c>
       <c r="BT3">
-        <v>0.001896836561953834</v>
+        <v>0.001650625151076792</v>
       </c>
       <c r="BU3">
-        <v>0.001977115833569197</v>
+        <v>0.001726560269620024</v>
       </c>
       <c r="BV3">
-        <v>0.002042692010888708</v>
+        <v>0.001787780455080989</v>
       </c>
       <c r="BW3">
-        <v>0.002079888627637172</v>
+        <v>0.001820598229028829</v>
       </c>
       <c r="BX3">
-        <v>0.002093688096914842</v>
+        <v>0.001830000016353652</v>
       </c>
       <c r="BY3">
-        <v>0.002110347184250053</v>
+        <v>0.001842263724272253</v>
       </c>
       <c r="BZ3">
-        <v>0.002117375361391472</v>
+        <v>0.001844888767283228</v>
       </c>
       <c r="CA3">
-        <v>0.002119189627327979</v>
+        <v>0.001844888767283228</v>
       </c>
       <c r="CB3">
-        <v>0.002124232274829446</v>
+        <v>0.00184552668192538</v>
       </c>
       <c r="CC3">
-        <v>0.002138706071120685</v>
+        <v>0.001855603339225228</v>
       </c>
       <c r="CD3">
-        <v>0.002166689604683764</v>
+        <v>0.001879200611704033</v>
       </c>
       <c r="CE3">
-        <v>0.002195454641262568</v>
+        <v>0.001903580016457077</v>
       </c>
       <c r="CF3">
-        <v>0.002264609982654098</v>
+        <v>0.001968382247897648</v>
       </c>
       <c r="CG3">
-        <v>0.002344197324255539</v>
+        <v>0.002043624879291739</v>
       </c>
       <c r="CH3">
-        <v>0.002411835965616551</v>
+        <v>0.002106909189469895</v>
       </c>
       <c r="CI3">
-        <v>0.002501195557414627</v>
+        <v>0.002191931939580032</v>
       </c>
       <c r="CJ3">
-        <v>0.002549111923378791</v>
+        <v>0.002235478094179841</v>
       </c>
       <c r="CK3">
-        <v>0.002577876959957595</v>
+        <v>0.002259857498932886</v>
       </c>
       <c r="CL3">
-        <v>0.002665168291714054</v>
+        <v>0.002342810323658833</v>
       </c>
       <c r="CM3">
-        <v>0.003214122002759993</v>
+        <v>0.00288779725366565</v>
       </c>
       <c r="CN3">
-        <v>0.2262872064913929</v>
+        <v>0.2261360891951421</v>
       </c>
       <c r="CO3">
-        <v>0.2312300842908526</v>
+        <v>0.2310785381578724</v>
       </c>
       <c r="CP3">
-        <v>0.5082407898648078</v>
+        <v>0.5083078812248274</v>
       </c>
       <c r="CQ3">
-        <v>0.5370595484446932</v>
+        <v>0.537145435591543</v>
       </c>
       <c r="CR3">
-        <v>0.5488886306827157</v>
+        <v>0.5489796336966862</v>
       </c>
       <c r="CS3">
-        <v>0.5590090888863575</v>
+        <v>0.5591038320002397</v>
       </c>
       <c r="CT3">
-        <v>0.5600561999074273</v>
+        <v>0.5601473773516198</v>
       </c>
       <c r="CU3">
-        <v>0.5606418410192114</v>
+        <v>0.5607290812226978</v>
       </c>
       <c r="CV3">
-        <v>0.5617419608413479</v>
+        <v>0.561825678057308</v>
       </c>
       <c r="CW3">
-        <v>0.5633455928736159</v>
+        <v>0.5634261925251118</v>
       </c>
       <c r="CX3">
-        <v>0.5633566793328389</v>
+        <v>0.5634328791178932</v>
       </c>
       <c r="CY3">
-        <v>0.6037025131446699</v>
+        <v>0.6038067902037637</v>
       </c>
       <c r="CZ3">
-        <v>0.614968007371352</v>
+        <v>0.6150769465020621</v>
       </c>
       <c r="DA3">
-        <v>0.615867726229456</v>
+        <v>0.6159729810117615</v>
       </c>
       <c r="DB3">
-        <v>0.6212261473372771</v>
+        <v>0.6213313078742239</v>
       </c>
       <c r="DC3">
-        <v>0.6269448419523476</v>
+        <v>0.627050198332608</v>
       </c>
       <c r="DD3">
-        <v>0.6471855753596276</v>
+        <v>0.6473028205855108</v>
       </c>
       <c r="DE3">
-        <v>0.6493632860034471</v>
+        <v>0.6494778759072983</v>
       </c>
       <c r="DF3">
-        <v>0.6524993720665507</v>
+        <v>0.6526120783227989</v>
       </c>
       <c r="DG3">
-        <v>0.6553271103234499</v>
+        <v>0.6554376846534846</v>
       </c>
       <c r="DH3">
-        <v>0.6564663685463739</v>
+        <v>0.6565734514027364</v>
       </c>
       <c r="DI3">
-        <v>0.6590630248986232</v>
+        <v>0.6591677897639034</v>
       </c>
       <c r="DJ3">
-        <v>0.6671172810606893</v>
+        <v>0.6672241223403899</v>
       </c>
       <c r="DK3">
-        <v>0.667443972847263</v>
+        <v>0.6675466683828164</v>
       </c>
       <c r="DL3">
-        <v>0.6772713890450083</v>
+        <v>0.6773775887259424</v>
       </c>
       <c r="DM3">
-        <v>0.6790067146799261</v>
+        <v>0.6791099028347853</v>
       </c>
       <c r="DN3">
-        <v>0.6875351868515344</v>
+        <v>0.6876408332548645</v>
       </c>
       <c r="DO3">
-        <v>0.7026855421563869</v>
+        <v>0.7027989786831315</v>
       </c>
       <c r="DP3">
-        <v>0.7027490556476649</v>
+        <v>0.7028581345216964</v>
       </c>
       <c r="DQ3">
-        <v>0.7162489599193073</v>
+        <v>0.7163644999898707</v>
       </c>
       <c r="DR3">
-        <v>0.7279546971548478</v>
+        <v>0.7280752537763533</v>
       </c>
       <c r="DS3">
-        <v>0.7284689816651961</v>
+        <v>0.7285855435903643</v>
       </c>
       <c r="DT3">
-        <v>0.7359701788161338</v>
+        <v>0.7360883718380649</v>
       </c>
       <c r="DU3">
-        <v>0.7367354854315331</v>
+        <v>0.7368498858776483</v>
       </c>
       <c r="DV3">
-        <v>0.7419393105362435</v>
+        <v>0.7420534922578241</v>
       </c>
       <c r="DW3">
-        <v>0.742017955017826</v>
+        <v>0.7421277912700177</v>
       </c>
       <c r="DX3">
-        <v>0.7420628730287298</v>
+        <v>0.7421683366553112</v>
       </c>
       <c r="DY3">
-        <v>0.7467786301236193</v>
+        <v>0.7468834820381217</v>
       </c>
       <c r="DZ3">
-        <v>0.7485554554593723</v>
+        <v>0.7486573292629491</v>
       </c>
       <c r="EA3">
-        <v>0.7491835583320109</v>
+        <v>0.7492815290846724</v>
       </c>
       <c r="EB3">
-        <v>0.7568569267864129</v>
+        <v>0.7569566672664717</v>
       </c>
       <c r="EC3">
-        <v>0.7838734533300342</v>
+        <v>0.7839905384574748</v>
       </c>
       <c r="ED3">
-        <v>0.7845107823428584</v>
+        <v>0.7846239718481807</v>
       </c>
       <c r="EE3">
-        <v>0.7924665875029436</v>
+        <v>0.7925817741509109</v>
       </c>
       <c r="EF3">
-        <v>0.7945111755440845</v>
+        <v>0.7946235996810139</v>
       </c>
       <c r="EG3">
-        <v>0.7948253925204071</v>
+        <v>0.7949336608685954</v>
       </c>
       <c r="EH3">
-        <v>0.7948771930394494</v>
+        <v>0.7949810943037551</v>
       </c>
       <c r="EI3">
-        <v>0.8022015471868286</v>
+        <v>0.8023069371556562</v>
       </c>
       <c r="EJ3">
-        <v>0.8093016307296951</v>
+        <v>0.8094083288225672</v>
       </c>
       <c r="EK3">
-        <v>0.8124601257932497</v>
+        <v>0.8125649582820247</v>
       </c>
       <c r="EL3">
-        <v>0.8129448123830024</v>
+        <v>0.8130456263434865</v>
       </c>
       <c r="EM3">
-        <v>0.8192349391095711</v>
+        <v>0.8193364090248653</v>
       </c>
       <c r="EN3">
-        <v>0.8348080724229306</v>
+        <v>0.8349176728783191</v>
       </c>
       <c r="EO3">
-        <v>0.8403947035353437</v>
+        <v>0.8405043934978169</v>
       </c>
       <c r="EP3">
-        <v>0.8403948071874658</v>
+        <v>0.8405043934978169</v>
       </c>
       <c r="EQ3">
-        <v>0.8403948311744563</v>
+        <v>0.8405043934978169</v>
       </c>
       <c r="ER3">
-        <v>0.8417248315012184</v>
+        <v>0.8418310559345662</v>
       </c>
       <c r="ES3">
-        <v>0.8433006773329272</v>
+        <v>0.8434037618286365</v>
       </c>
       <c r="ET3">
-        <v>0.845566365678517</v>
+        <v>0.8456668656909714</v>
       </c>
       <c r="EU3">
-        <v>0.8525277128185919</v>
+        <v>0.8526294092459086</v>
       </c>
       <c r="EV3">
-        <v>0.8571059529107143</v>
+        <v>0.8572069268986185</v>
       </c>
       <c r="EW3">
-        <v>0.8573738323761045</v>
+        <v>0.8574706132647612</v>
       </c>
       <c r="EX3">
-        <v>0.8576600243818633</v>
+        <v>0.857752626916349</v>
       </c>
       <c r="EY3">
-        <v>0.8635604331005902</v>
+        <v>0.8636533777927924</v>
       </c>
       <c r="EZ3">
-        <v>0.8820203864720377</v>
+        <v>0.8821237861433534</v>
       </c>
       <c r="FA3">
-        <v>0.8857174777464298</v>
+        <v>0.8858194454860017</v>
       </c>
       <c r="FB3">
-        <v>0.891057414853879</v>
+        <v>0.8911592734649575</v>
       </c>
       <c r="FC3">
-        <v>0.8911496085257341</v>
+        <v>0.891247132577098</v>
       </c>
       <c r="FD3">
-        <v>0.8987364706783955</v>
+        <v>0.8988356948031362</v>
       </c>
       <c r="FE3">
-        <v>0.899362635290995</v>
+        <v>0.8994579548041525</v>
       </c>
       <c r="FF3">
-        <v>0.9083197754712289</v>
+        <v>0.9084178983921068</v>
       </c>
       <c r="FG3">
-        <v>0.9216417487392911</v>
+        <v>0.9217461895884128</v>
       </c>
       <c r="FH3">
-        <v>0.9301905559113085</v>
+        <v>0.9302974713824427</v>
       </c>
       <c r="FI3">
-        <v>0.9303264131440422</v>
+        <v>0.93042902921293</v>
       </c>
       <c r="FJ3">
-        <v>0.9304335699501983</v>
+        <v>0.9305318635075396</v>
       </c>
       <c r="FK3">
-        <v>0.9345573774331768</v>
+        <v>0.9346545826464537</v>
       </c>
       <c r="FL3">
-        <v>0.94170699757704</v>
+        <v>0.9418055508007438</v>
       </c>
       <c r="FM3">
-        <v>0.9417413429077311</v>
+        <v>0.9418355149928068</v>
       </c>
       <c r="FN3">
-        <v>0.9420176928932918</v>
+        <v>0.9421076786994991</v>
       </c>
       <c r="FO3">
-        <v>0.9425212208034237</v>
+        <v>0.9426072032521853</v>
       </c>
       <c r="FP3">
-        <v>0.9425282489805651</v>
+        <v>0.9426098282951962</v>
       </c>
       <c r="FQ3">
-        <v>0.9451546900334138</v>
+        <v>0.9452339753393095</v>
       </c>
       <c r="FR3">
-        <v>0.9480726435921283</v>
+        <v>0.9481498696122812</v>
       </c>
       <c r="FS3">
-        <v>0.9486896635545439</v>
+        <v>0.9487629775999314</v>
       </c>
       <c r="FT3">
-        <v>0.9514397099098798</v>
+        <v>0.9515108294723016</v>
       </c>
       <c r="FU3">
-        <v>0.9567258820162471</v>
+        <v>0.9567968491591273</v>
       </c>
       <c r="FV3">
-        <v>0.9590195910624006</v>
+        <v>0.9590879962840176</v>
       </c>
       <c r="FW3">
-        <v>0.9601258021846596</v>
+        <v>0.9601906893234051</v>
       </c>
       <c r="FX3">
-        <v>0.9660040031029397</v>
+        <v>0.9660692145178998</v>
       </c>
       <c r="FY3">
-        <v>0.9669460152218946</v>
+        <v>0.9670075763425664</v>
       </c>
       <c r="FZ3">
-        <v>0.9686147621554728</v>
+        <v>0.9686732581415564</v>
       </c>
       <c r="GA3">
-        <v>0.9702138296876489</v>
+        <v>0.9702692044339779</v>
       </c>
       <c r="GB3">
-        <v>0.9706330585260845</v>
+        <v>0.9706843620381873</v>
       </c>
       <c r="GC3">
-        <v>0.9708932556513201</v>
+        <v>0.9709403598784309</v>
       </c>
       <c r="GD3">
-        <v>0.9720067983737266</v>
+        <v>0.9720503904212979</v>
       </c>
       <c r="GE3">
-        <v>0.9744506389229011</v>
+        <v>0.9744917899336136</v>
       </c>
       <c r="GF3">
-        <v>0.9753892768417881</v>
+        <v>0.9754267748413398</v>
       </c>
       <c r="GG3">
-        <v>0.979935581933268</v>
+        <v>0.9799723317796598</v>
       </c>
       <c r="GH3">
-        <v>0.9811865337584394</v>
+        <v>0.9812198820657452</v>
       </c>
       <c r="GI3">
-        <v>0.9819981827347712</v>
+        <v>0.9820277757806728</v>
       </c>
       <c r="GJ3">
-        <v>0.9821502690078315</v>
+        <v>0.9821755757189498</v>
       </c>
       <c r="GK3">
-        <v>0.9834563005341113</v>
+        <v>0.9834782500557752</v>
       </c>
       <c r="GL3">
-        <v>0.9835326845556482</v>
+        <v>0.9835502867878231</v>
       </c>
       <c r="GM3">
-        <v>0.9837574313801706</v>
+        <v>0.983770805783121</v>
       </c>
       <c r="GN3">
-        <v>0.9844630669943693</v>
+        <v>0.9844726007750026</v>
       </c>
       <c r="GO3">
-        <v>0.9845032030181768</v>
+        <v>0.9845083603227912</v>
       </c>
       <c r="GP3">
-        <v>0.9846411588909527</v>
+        <v>0.984642018483125</v>
       </c>
       <c r="GQ3">
-        <v>0.9869772212379585</v>
+        <v>0.9869755530113273</v>
       </c>
       <c r="GR3">
-        <v>0.9921098508412363</v>
+        <v>0.9921079065641555</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.420576810119379E-05</v>
+        <v>4.103237423159486E-05</v>
       </c>
       <c r="C4">
-        <v>4.836638922247926E-05</v>
+        <v>4.199534308083678E-05</v>
       </c>
       <c r="D4">
-        <v>4.894965695742568E-05</v>
+        <v>4.199534308083678E-05</v>
       </c>
       <c r="E4">
-        <v>4.971385268460056E-05</v>
+        <v>4.199534308083678E-05</v>
       </c>
       <c r="F4">
-        <v>5.291208794722417E-05</v>
+        <v>4.199534308083678E-05</v>
       </c>
       <c r="G4">
-        <v>5.653210179173078E-05</v>
+        <v>4.241737716620406E-05</v>
       </c>
       <c r="H4">
-        <v>9.893322997044072E-05</v>
+        <v>8.164401826715357E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001208661410283386</v>
+        <v>0.0001003900430857025</v>
       </c>
       <c r="J4">
-        <v>0.0001239295873967519</v>
+        <v>0.0001003900430857025</v>
       </c>
       <c r="K4">
-        <v>0.0001548359160692073</v>
+        <v>0.0001281149214028601</v>
       </c>
       <c r="L4">
-        <v>0.0001566082012930809</v>
+        <v>0.0001281149214028601</v>
       </c>
       <c r="M4">
-        <v>0.0001631310433128999</v>
+        <v>0.0001314415421281583</v>
       </c>
       <c r="N4">
-        <v>0.0001797269416000428</v>
+        <v>0.0001448473211399064</v>
       </c>
       <c r="O4">
-        <v>0.0001819281145054941</v>
+        <v>0.0001448473211399064</v>
       </c>
       <c r="P4">
-        <v>0.0001970381423564608</v>
+        <v>0.0001567663296103286</v>
       </c>
       <c r="Q4">
-        <v>0.0002046749900284291</v>
+        <v>0.0001612076308260391</v>
       </c>
       <c r="R4">
-        <v>0.000206720770740555</v>
+        <v>0.0001612076308260391</v>
       </c>
       <c r="S4">
-        <v>0.0002228850270462386</v>
+        <v>0.0001741815063778296</v>
       </c>
       <c r="T4">
-        <v>0.0002551182126617004</v>
+        <v>0.0002032340454165321</v>
       </c>
       <c r="U4">
-        <v>0.0002598404794588611</v>
+        <v>0.0002047590001733094</v>
       </c>
       <c r="V4">
-        <v>0.0002764674297446702</v>
+        <v>0.0002181958499942897</v>
       </c>
       <c r="W4">
-        <v>0.0003410938269687202</v>
+        <v>0.0002796612236826461</v>
       </c>
       <c r="X4">
-        <v>0.0004469040284237687</v>
+        <v>0.0003823353497760643</v>
       </c>
       <c r="Y4">
-        <v>0.0004822359129061296</v>
+        <v>0.0004144884648001144</v>
       </c>
       <c r="Z4">
-        <v>0.0004835900468479644</v>
+        <v>0.0004144884648001144</v>
       </c>
       <c r="AA4">
-        <v>0.0005506893689657929</v>
+        <v>0.0004784282614216326</v>
       </c>
       <c r="AB4">
-        <v>0.0006406831091002187</v>
+        <v>0.000565276344956428</v>
       </c>
       <c r="AC4">
-        <v>0.0006429526196027346</v>
+        <v>0.000565276344956428</v>
       </c>
       <c r="AD4">
-        <v>0.0006452106682057428</v>
+        <v>0.000565276344956428</v>
       </c>
       <c r="AE4">
-        <v>0.0006500831039964531</v>
+        <v>0.0005669515596755777</v>
       </c>
       <c r="AF4">
-        <v>0.00065639367632539</v>
+        <v>0.0005700657821220379</v>
       </c>
       <c r="AG4">
-        <v>0.0006566008693464903</v>
+        <v>0.0005700657821220379</v>
       </c>
       <c r="AH4">
-        <v>0.00067037939975465</v>
+        <v>0.0005806524865600096</v>
       </c>
       <c r="AI4">
-        <v>0.0007070366841800799</v>
+        <v>0.000614131804423051</v>
       </c>
       <c r="AJ4">
-        <v>0.0007588370719550558</v>
+        <v>0.0006627633989693134</v>
       </c>
       <c r="AK4">
-        <v>0.0007950345634002356</v>
+        <v>0.0006957826453203974</v>
       </c>
       <c r="AL4">
-        <v>0.0008199145553315451</v>
+        <v>0.0007174775362842138</v>
       </c>
       <c r="AM4">
-        <v>0.0009024107417880194</v>
+        <v>0.0007968235243004555</v>
       </c>
       <c r="AN4">
-        <v>0.001006970861296764</v>
+        <v>0.0008982468111775072</v>
       </c>
       <c r="AO4">
-        <v>0.001113881012704565</v>
+        <v>0.001002021553547331</v>
       </c>
       <c r="AP4">
-        <v>0.001227185602837701</v>
+        <v>0.001112194608242157</v>
       </c>
       <c r="AQ4">
-        <v>0.00134170981791845</v>
+        <v>0.001223588026704528</v>
       </c>
       <c r="AR4">
-        <v>0.001434911513915082</v>
+        <v>0.001313646009405281</v>
       </c>
       <c r="AS4">
-        <v>0.001520550800236548</v>
+        <v>0.001396137001302037</v>
       </c>
       <c r="AT4">
-        <v>0.001560507878520239</v>
+        <v>0.001432918111960375</v>
       </c>
       <c r="AU4">
-        <v>0.001571101961065183</v>
+        <v>0.00144031843947197</v>
       </c>
       <c r="AV4">
-        <v>0.00157790003807318</v>
+        <v>0.001443920461916288</v>
       </c>
       <c r="AW4">
-        <v>0.001578605472042879</v>
+        <v>0.001443920461916288</v>
       </c>
       <c r="AX4">
-        <v>0.001589224366086757</v>
+        <v>0.001451345615957036</v>
       </c>
       <c r="AY4">
-        <v>0.001608933330240181</v>
+        <v>0.001467866346656703</v>
       </c>
       <c r="AZ4">
-        <v>0.001617435497374981</v>
+        <v>0.001473173491525299</v>
       </c>
       <c r="BA4">
-        <v>0.001684847198479392</v>
+        <v>0.001537425856365198</v>
       </c>
       <c r="BB4">
-        <v>0.001758986460294828</v>
+        <v>0.001608409857313205</v>
       </c>
       <c r="BC4">
-        <v>0.001813339719960148</v>
+        <v>0.001659595870219194</v>
       </c>
       <c r="BD4">
-        <v>0.00183075233521221</v>
+        <v>0.001673818860943672</v>
       </c>
       <c r="BE4">
-        <v>0.001878574776158054</v>
+        <v>0.001718470098914744</v>
       </c>
       <c r="BF4">
-        <v>0.00198794071646037</v>
+        <v>0.001824702117837884</v>
       </c>
       <c r="BG4">
-        <v>0.002054417449604941</v>
+        <v>0.001888018948336477</v>
       </c>
       <c r="BH4">
-        <v>0.002147325195614199</v>
+        <v>0.001977782802981909</v>
       </c>
       <c r="BI4">
-        <v>0.002215993672664627</v>
+        <v>0.002043292705092953</v>
       </c>
       <c r="BJ4">
-        <v>0.002237253945751417</v>
+        <v>0.002061365684472228</v>
       </c>
       <c r="BK4">
-        <v>0.002256962909904842</v>
+        <v>0.002077886415171895</v>
       </c>
       <c r="BL4">
-        <v>0.002317669830297248</v>
+        <v>0.00213542993770229</v>
       </c>
       <c r="BM4">
-        <v>0.002337378794450673</v>
+        <v>0.002151950668401957</v>
       </c>
       <c r="BN4">
-        <v>0.002338823029688638</v>
+        <v>0.002151950668401957</v>
       </c>
       <c r="BO4">
-        <v>0.002355919202954292</v>
+        <v>0.002165857025446961</v>
       </c>
       <c r="BP4">
-        <v>0.002364421370089092</v>
+        <v>0.002171164170315557</v>
       </c>
       <c r="BQ4">
-        <v>0.002374525335655088</v>
+        <v>0.002178074083946936</v>
       </c>
       <c r="BR4">
-        <v>0.002401341560503228</v>
+        <v>0.002201706380751667</v>
       </c>
       <c r="BS4">
-        <v>0.002437310244958236</v>
+        <v>0.002234496681506719</v>
       </c>
       <c r="BT4">
-        <v>0.002505915602011375</v>
+        <v>0.002299943425383874</v>
       </c>
       <c r="BU4">
-        <v>0.002550070730114744</v>
+        <v>0.002340925128941131</v>
       </c>
       <c r="BV4">
-        <v>0.002607210887660356</v>
+        <v>0.002394899727964201</v>
       </c>
       <c r="BW4">
-        <v>0.002712942753118769</v>
+        <v>0.002497495470606891</v>
       </c>
       <c r="BX4">
-        <v>0.002817502872627514</v>
+        <v>0.002598918757483943</v>
       </c>
       <c r="BY4">
-        <v>0.002840886109623115</v>
+        <v>0.002619115986813329</v>
       </c>
       <c r="BZ4">
-        <v>0.002862819020681013</v>
+        <v>0.002637862011631878</v>
       </c>
       <c r="CA4">
-        <v>0.002888272263587699</v>
+        <v>0.002660130500832946</v>
       </c>
       <c r="CB4">
-        <v>0.002890307162600292</v>
+        <v>0.002660130500832946</v>
       </c>
       <c r="CC4">
-        <v>0.002892039112425898</v>
+        <v>0.002660130500832946</v>
       </c>
       <c r="CD4">
-        <v>0.002892480916936921</v>
+        <v>0.002660130500832946</v>
       </c>
       <c r="CE4">
-        <v>0.002895761418496011</v>
+        <v>0.002660212816964388</v>
       </c>
       <c r="CF4">
-        <v>0.002926710114166647</v>
+        <v>0.002687980087944651</v>
       </c>
       <c r="CG4">
-        <v>0.002954561852970308</v>
+        <v>0.002712648525994754</v>
       </c>
       <c r="CH4">
-        <v>0.003024180525979921</v>
+        <v>0.002779109199671211</v>
       </c>
       <c r="CI4">
-        <v>0.003072002966925765</v>
+        <v>0.002823760437642283</v>
       </c>
       <c r="CJ4">
-        <v>0.003116462355016064</v>
+        <v>0.002865046585499972</v>
       </c>
       <c r="CK4">
-        <v>0.003233116050005343</v>
+        <v>0.002978570773859413</v>
       </c>
       <c r="CL4">
-        <v>0.003427526691654666</v>
+        <v>0.003169899012197205</v>
       </c>
       <c r="CM4">
-        <v>0.004402045299795377</v>
+        <v>0.004141807787972646</v>
       </c>
       <c r="CN4">
-        <v>0.1516464589750866</v>
+        <v>0.1514722184721184</v>
       </c>
       <c r="CO4">
-        <v>0.153964381875523</v>
+        <v>0.1537883453427205</v>
       </c>
       <c r="CP4">
-        <v>0.4165559105962161</v>
+        <v>0.4165357456250822</v>
       </c>
       <c r="CQ4">
-        <v>0.4980181710971016</v>
+        <v>0.4980441538630445</v>
       </c>
       <c r="CR4">
-        <v>0.5043101666268364</v>
+        <v>0.5043367607621047</v>
       </c>
       <c r="CS4">
-        <v>0.5165413341014611</v>
+        <v>0.5165721374158793</v>
       </c>
       <c r="CT4">
-        <v>0.51888131570095</v>
+        <v>0.5189103363481719</v>
       </c>
       <c r="CU4">
-        <v>0.5205769447281162</v>
+        <v>0.520603792374601</v>
       </c>
       <c r="CV4">
-        <v>0.5207713553697655</v>
+        <v>0.5207951206129388</v>
       </c>
       <c r="CW4">
-        <v>0.520800838507499</v>
+        <v>0.5208214214381817</v>
       </c>
       <c r="CX4">
-        <v>0.5220653254531845</v>
+        <v>0.5220834742074592</v>
       </c>
       <c r="CY4">
-        <v>0.5634380036760703</v>
+        <v>0.5634780148471251</v>
       </c>
       <c r="CZ4">
-        <v>0.5901213315299197</v>
+        <v>0.5901743066568979</v>
       </c>
       <c r="DA4">
-        <v>0.5903535344999458</v>
+        <v>0.5904034501173105</v>
       </c>
       <c r="DB4">
-        <v>0.5968158675223639</v>
+        <v>0.5968664976954764</v>
       </c>
       <c r="DC4">
-        <v>0.6079923730422904</v>
+        <v>0.6080465735052972</v>
       </c>
       <c r="DD4">
-        <v>0.6168409806622089</v>
+        <v>0.6168973412296478</v>
       </c>
       <c r="DE4">
-        <v>0.6181354421066069</v>
+        <v>0.6181893866554798</v>
       </c>
       <c r="DF4">
-        <v>0.623481554876971</v>
+        <v>0.6235355378017763</v>
       </c>
       <c r="DG4">
-        <v>0.6255122533897447</v>
+        <v>0.6255642662909784</v>
       </c>
       <c r="DH4">
-        <v>0.6261232822334987</v>
+        <v>0.6261724651088691</v>
       </c>
       <c r="DI4">
-        <v>0.6263502906637478</v>
+        <v>0.6263964108827758</v>
       </c>
       <c r="DJ4">
-        <v>0.6344624463152998</v>
+        <v>0.6345102805135842</v>
       </c>
       <c r="DK4">
-        <v>0.6366684216205447</v>
+        <v>0.6367143919737908</v>
       </c>
       <c r="DL4">
-        <v>0.6418976490959295</v>
+        <v>0.6419435870187621</v>
       </c>
       <c r="DM4">
-        <v>0.6482684466222794</v>
+        <v>0.6483150436508223</v>
       </c>
       <c r="DN4">
-        <v>0.656216762280869</v>
+        <v>0.6562649740382774</v>
       </c>
       <c r="DO4">
-        <v>0.677245654377598</v>
+        <v>0.6773034047675501</v>
       </c>
       <c r="DP4">
-        <v>0.6814637216964159</v>
+        <v>0.681520827119059</v>
       </c>
       <c r="DQ4">
-        <v>0.6884570886960242</v>
+        <v>0.6885152303622324</v>
       </c>
       <c r="DR4">
-        <v>0.7041995710198246</v>
+        <v>0.7042640489366294</v>
       </c>
       <c r="DS4">
-        <v>0.7042063889755317</v>
+        <v>0.7042676708498149</v>
       </c>
       <c r="DT4">
-        <v>0.7183124373696231</v>
+        <v>0.7183790641815516</v>
       </c>
       <c r="DU4">
-        <v>0.7190388000384231</v>
+        <v>0.7191026666909904</v>
       </c>
       <c r="DV4">
-        <v>0.7247929082912623</v>
+        <v>0.7248570604737707</v>
       </c>
       <c r="DW4">
-        <v>0.7247929117770601</v>
+        <v>0.7248570604737707</v>
       </c>
       <c r="DX4">
-        <v>0.7249915944685259</v>
+        <v>0.7250526633498318</v>
       </c>
       <c r="DY4">
-        <v>0.7275521230585414</v>
+        <v>0.727611542874799</v>
       </c>
       <c r="DZ4">
-        <v>0.731057968207952</v>
+        <v>0.7311163116095638</v>
       </c>
       <c r="EA4">
-        <v>0.7315452958170194</v>
+        <v>0.7316007342574872</v>
       </c>
       <c r="EB4">
-        <v>0.733429074036104</v>
+        <v>0.7334824534521628</v>
       </c>
       <c r="EC4">
-        <v>0.7688715325137153</v>
+        <v>0.7689431819597604</v>
       </c>
       <c r="ED4">
-        <v>0.7691447563819793</v>
+        <v>0.7692133711679006</v>
       </c>
       <c r="EE4">
-        <v>0.7770185370437704</v>
+        <v>0.77708872140702</v>
       </c>
       <c r="EF4">
-        <v>0.7810506853705743</v>
+        <v>0.7811201121411889</v>
       </c>
       <c r="EG4">
-        <v>0.7810506884211069</v>
+        <v>0.7811201121411889</v>
       </c>
       <c r="EH4">
-        <v>0.7814903059522237</v>
+        <v>0.7815567958095254</v>
       </c>
       <c r="EI4">
-        <v>0.783764788554526</v>
+        <v>0.7838294560668888</v>
       </c>
       <c r="EJ4">
-        <v>0.7926169781742908</v>
+        <v>0.7926838079609763</v>
       </c>
       <c r="EK4">
-        <v>0.7944875535939424</v>
+        <v>0.7945523163582755</v>
       </c>
       <c r="EL4">
-        <v>0.7981669009359004</v>
+        <v>0.7982306923891103</v>
       </c>
       <c r="EM4">
-        <v>0.7993632522845125</v>
+        <v>0.7994245682863821</v>
       </c>
       <c r="EN4">
-        <v>0.8127591557091074</v>
+        <v>0.812825386459604</v>
       </c>
       <c r="EO4">
-        <v>0.8212390448448639</v>
+        <v>0.8213072123388598</v>
       </c>
       <c r="EP4">
-        <v>0.8212759793972774</v>
+        <v>0.8213409690926734</v>
       </c>
       <c r="EQ4">
-        <v>0.8213651799274458</v>
+        <v>0.8214270234857345</v>
       </c>
       <c r="ER4">
-        <v>0.8226202032735378</v>
+        <v>0.8226796069225938</v>
       </c>
       <c r="ES4">
-        <v>0.8272020290767309</v>
+        <v>0.82726100811476</v>
       </c>
       <c r="ET4">
-        <v>0.8276056761593927</v>
+        <v>0.827661699544595</v>
       </c>
       <c r="EU4">
-        <v>0.8326736526417038</v>
+        <v>0.8327295459144567</v>
       </c>
       <c r="EV4">
-        <v>0.8385235059904302</v>
+        <v>0.8385797427932378</v>
       </c>
       <c r="EW4">
-        <v>0.8385601632748557</v>
+        <v>0.8386132221111008</v>
       </c>
       <c r="EX4">
-        <v>0.8386076701428151</v>
+        <v>0.8386575575849188</v>
       </c>
       <c r="EY4">
-        <v>0.8409995283400757</v>
+        <v>0.8410476645405984</v>
       </c>
       <c r="EZ4">
-        <v>0.8547049227513768</v>
+        <v>0.8547581611828426</v>
       </c>
       <c r="FA4">
-        <v>0.8637256293639031</v>
+        <v>0.8637811321532982</v>
       </c>
       <c r="FB4">
-        <v>0.8678062971886228</v>
+        <v>0.8678610717773467</v>
       </c>
       <c r="FC4">
-        <v>0.8694847165165283</v>
+        <v>0.8695373076792865</v>
       </c>
       <c r="FD4">
-        <v>0.8758890012414399</v>
+        <v>0.8759422717956608</v>
       </c>
       <c r="FE4">
-        <v>0.8801437603586818</v>
+        <v>0.8801964081726168</v>
       </c>
       <c r="FF4">
-        <v>0.8868321807713887</v>
+        <v>0.8868856800994624</v>
       </c>
       <c r="FG4">
-        <v>0.9004939081845654</v>
+        <v>0.9005524832911482</v>
       </c>
       <c r="FH4">
-        <v>0.9137403376155808</v>
+        <v>0.9138037369229823</v>
       </c>
       <c r="FI4">
-        <v>0.9143365802599699</v>
+        <v>0.9143971405843786</v>
       </c>
       <c r="FJ4">
-        <v>0.9150606862288668</v>
+        <v>0.9151184850268589</v>
       </c>
       <c r="FK4">
-        <v>0.9162230279789398</v>
+        <v>0.9162783307233815</v>
       </c>
       <c r="FL4">
-        <v>0.9229395141904412</v>
+        <v>0.9229956854506184</v>
       </c>
       <c r="FM4">
-        <v>0.9230383892061941</v>
+        <v>0.9230914201898383</v>
       </c>
       <c r="FN4">
-        <v>0.9240257922637813</v>
+        <v>0.9240762212201549</v>
       </c>
       <c r="FO4">
-        <v>0.9240820718883639</v>
+        <v>0.9241293347649244</v>
       </c>
       <c r="FP4">
-        <v>0.9240825187709447</v>
+        <v>0.9241293347649244</v>
       </c>
       <c r="FQ4">
-        <v>0.9270368331440456</v>
+        <v>0.9270822386190862</v>
       </c>
       <c r="FR4">
-        <v>0.9315155953516657</v>
+        <v>0.9315605137821921</v>
       </c>
       <c r="FS4">
-        <v>0.9328193927956626</v>
+        <v>0.9328619008631507</v>
       </c>
       <c r="FT4">
-        <v>0.9348223791096267</v>
+        <v>0.9348629003661488</v>
       </c>
       <c r="FU4">
-        <v>0.9406634962587285</v>
+        <v>0.9407043557531222</v>
       </c>
       <c r="FV4">
-        <v>0.9438779539206552</v>
+        <v>0.9439175604847584</v>
       </c>
       <c r="FW4">
-        <v>0.9441394690894221</v>
+        <v>0.9441760339005484</v>
       </c>
       <c r="FX4">
-        <v>0.9523652337360942</v>
+        <v>0.9524035813481178</v>
       </c>
       <c r="FY4">
-        <v>0.9553782214066748</v>
+        <v>0.9554151940426545</v>
       </c>
       <c r="FZ4">
-        <v>0.9557110492223786</v>
+        <v>0.9557450233048954</v>
       </c>
       <c r="GA4">
-        <v>0.9573212018532165</v>
+        <v>0.9573529511554177</v>
       </c>
       <c r="GB4">
-        <v>0.9575458062935689</v>
+        <v>0.9575744914831473</v>
       </c>
       <c r="GC4">
-        <v>0.9581392618680777</v>
+        <v>0.9581651063863222</v>
       </c>
       <c r="GD4">
-        <v>0.9597788947976492</v>
+        <v>0.9598025323940457</v>
       </c>
       <c r="GE4">
-        <v>0.9643375449018379</v>
+        <v>0.9643607438479174</v>
       </c>
       <c r="GF4">
-        <v>0.966323859816518</v>
+        <v>0.9663450618524925</v>
       </c>
       <c r="GG4">
-        <v>0.971759466583038</v>
+        <v>0.9717807612082899</v>
       </c>
       <c r="GH4">
-        <v>0.9753064797306803</v>
+        <v>0.9753267228798855</v>
       </c>
       <c r="GI4">
-        <v>0.9753471624089328</v>
+        <v>0.975364230030064</v>
       </c>
       <c r="GJ4">
-        <v>0.9755780901890136</v>
+        <v>0.9755920975280516</v>
       </c>
       <c r="GK4">
-        <v>0.9765289720481697</v>
+        <v>0.9765403552362591</v>
       </c>
       <c r="GL4">
-        <v>0.9769350717307261</v>
+        <v>0.9769435007517159</v>
       </c>
       <c r="GM4">
-        <v>0.9771771283903289</v>
+        <v>0.9771825038708373</v>
       </c>
       <c r="GN4">
-        <v>0.9784197679369527</v>
+        <v>0.9784226960064158</v>
       </c>
       <c r="GO4">
-        <v>0.9788919118766723</v>
+        <v>0.9788919257870838</v>
       </c>
       <c r="GP4">
-        <v>0.9793267505879943</v>
+        <v>0.9793238277407297</v>
       </c>
       <c r="GQ4">
-        <v>0.9825606737490851</v>
+        <v>0.9825565097632686</v>
       </c>
       <c r="GR4">
-        <v>0.9894272054541413</v>
+        <v>0.9894240008780699</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>9.801083164243468E-07</v>
+        <v>6.891397234395E-07</v>
       </c>
       <c r="C5">
-        <v>2.253927507803423E-06</v>
+        <v>1.672006809086326E-06</v>
       </c>
       <c r="D5">
-        <v>2.474954428956048E-06</v>
+        <v>1.672006809086326E-06</v>
       </c>
       <c r="E5">
-        <v>8.713085297019064E-06</v>
+        <v>7.619464239548106E-06</v>
       </c>
       <c r="F5">
-        <v>4.124282652314773E-05</v>
+        <v>3.98600078890603E-05</v>
       </c>
       <c r="G5">
-        <v>7.456805968144332E-05</v>
+        <v>7.289608812511738E-05</v>
       </c>
       <c r="H5">
-        <v>8.695870262487022E-05</v>
+        <v>8.499640299786454E-05</v>
       </c>
       <c r="I5">
-        <v>9.862817262979288E-05</v>
+        <v>9.637550444957372E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001375742993087845</v>
+        <v>0.0001350327937312161</v>
       </c>
       <c r="K5">
-        <v>0.0001534777779526654</v>
+        <v>0.0001506461414949691</v>
       </c>
       <c r="L5">
-        <v>0.0001537687852278506</v>
+        <v>0.0001506461414949691</v>
       </c>
       <c r="M5">
-        <v>0.0001627697764603194</v>
+        <v>0.0001593566143810525</v>
       </c>
       <c r="N5">
-        <v>0.0001656614498137411</v>
+        <v>0.000161957426445843</v>
       </c>
       <c r="O5">
-        <v>0.000165698649200569</v>
+        <v>0.000161957426445843</v>
       </c>
       <c r="P5">
-        <v>0.0001656986542753116</v>
+        <v>0.000161957426445843</v>
       </c>
       <c r="Q5">
-        <v>0.00017769477625238</v>
+        <v>0.0001736631982060758</v>
       </c>
       <c r="R5">
-        <v>0.0001878471453866687</v>
+        <v>0.0001835251136257648</v>
       </c>
       <c r="S5">
-        <v>0.0002008227992802106</v>
+        <v>0.0001962104722878036</v>
       </c>
       <c r="T5">
-        <v>0.0002540142177444798</v>
+        <v>0.0002491138530041202</v>
       </c>
       <c r="U5">
-        <v>0.0002851246930916319</v>
+        <v>0.0002799350511051678</v>
       </c>
       <c r="V5">
-        <v>0.0003251027736826268</v>
+        <v>0.0003196243522268177</v>
       </c>
       <c r="W5">
-        <v>0.0004846340600790983</v>
+        <v>0.0004788735701887438</v>
       </c>
       <c r="X5">
-        <v>0.0005877078352898064</v>
+        <v>0.0005816621077623769</v>
       </c>
       <c r="Y5">
-        <v>0.0006391445879036992</v>
+        <v>0.0006328107241313885</v>
       </c>
       <c r="Z5">
-        <v>0.0007376948595001348</v>
+        <v>0.0007310755041670674</v>
       </c>
       <c r="AA5">
-        <v>0.0008062697636526256</v>
+        <v>0.0007993632341127136</v>
       </c>
       <c r="AB5">
-        <v>0.0008309822185453488</v>
+        <v>0.0008237860526109712</v>
       </c>
       <c r="AC5">
-        <v>0.0008515750997893556</v>
+        <v>0.0008440890662111543</v>
       </c>
       <c r="AD5">
-        <v>0.0008575342272812098</v>
+        <v>0.0008497575046037497</v>
       </c>
       <c r="AE5">
-        <v>0.0008575371692196589</v>
+        <v>0.0008497575046037497</v>
       </c>
       <c r="AF5">
-        <v>0.0008575813534278913</v>
+        <v>0.0008497575046037497</v>
       </c>
       <c r="AG5">
-        <v>0.000857588475462284</v>
+        <v>0.0008497575046037497</v>
       </c>
       <c r="AH5">
-        <v>0.000858313310450476</v>
+        <v>0.0008501913566693688</v>
       </c>
       <c r="AI5">
-        <v>0.0008868243900192834</v>
+        <v>0.0008784130130768249</v>
       </c>
       <c r="AJ5">
-        <v>0.0009634461334856052</v>
+        <v>0.0009547480340399457</v>
       </c>
       <c r="AK5">
-        <v>0.0009919572130544126</v>
+        <v>0.0009829696904474017</v>
       </c>
       <c r="AL5">
-        <v>0.0009949679587976806</v>
+        <v>0.0009856895815860832</v>
       </c>
       <c r="AM5">
-        <v>0.001072502522186165</v>
+        <v>0.001062937473711868</v>
       </c>
       <c r="AN5">
-        <v>0.001189478257211427</v>
+        <v>0.001179628751476754</v>
       </c>
       <c r="AO5">
-        <v>0.001249783310069103</v>
+        <v>0.001239646165905322</v>
       </c>
       <c r="AP5">
-        <v>0.001287442513857833</v>
+        <v>0.001277016460056195</v>
       </c>
       <c r="AQ5">
-        <v>0.001296758147063472</v>
+        <v>0.001286041592577654</v>
       </c>
       <c r="AR5">
-        <v>0.00131739194430399</v>
+        <v>0.001306385524471138</v>
       </c>
       <c r="AS5">
-        <v>0.001329180108798791</v>
+        <v>0.001317883327075557</v>
       </c>
       <c r="AT5">
-        <v>0.001334422730951743</v>
+        <v>0.001322835219908729</v>
       </c>
       <c r="AU5">
-        <v>0.001335535364956867</v>
+        <v>0.001323656892760104</v>
       </c>
       <c r="AV5">
-        <v>0.001339429081624843</v>
+        <v>0.001327259804388442</v>
       </c>
       <c r="AW5">
-        <v>0.001355021732295228</v>
+        <v>0.001342562306730591</v>
       </c>
       <c r="AX5">
-        <v>0.001370206519000394</v>
+        <v>0.001357456922212364</v>
       </c>
       <c r="AY5">
-        <v>0.001388065735477505</v>
+        <v>0.00137502611759331</v>
       </c>
       <c r="AZ5">
-        <v>0.00142695564516129</v>
+        <v>0.001413627186724045</v>
       </c>
       <c r="BA5">
-        <v>0.001460029257341042</v>
+        <v>0.001446411631856992</v>
       </c>
       <c r="BB5">
-        <v>0.001503819437606972</v>
+        <v>0.001489913246643101</v>
       </c>
       <c r="BC5">
-        <v>0.001514989999654438</v>
+        <v>0.001500793412131507</v>
       </c>
       <c r="BD5">
-        <v>0.001552806749429733</v>
+        <v>0.001538321261112678</v>
       </c>
       <c r="BE5">
-        <v>0.001602762925169878</v>
+        <v>0.001587989217496804</v>
       </c>
       <c r="BF5">
-        <v>0.001616115814031252</v>
+        <v>0.001601051832302494</v>
       </c>
       <c r="BG5">
-        <v>0.001625193913257146</v>
+        <v>0.001609839417510405</v>
       </c>
       <c r="BH5">
-        <v>0.001634587987456096</v>
+        <v>0.001618942995428404</v>
       </c>
       <c r="BI5">
-        <v>0.001650180638126482</v>
+        <v>0.001634245497770553</v>
       </c>
       <c r="BJ5">
-        <v>0.001650327702813941</v>
+        <v>0.001634245497770553</v>
       </c>
       <c r="BK5">
-        <v>0.001650692834612806</v>
+        <v>0.00163431962645516</v>
       </c>
       <c r="BL5">
-        <v>0.001651842326514786</v>
+        <v>0.001635178159272384</v>
       </c>
       <c r="BM5">
-        <v>0.001656321422432846</v>
+        <v>0.001639366483010657</v>
       </c>
       <c r="BN5">
-        <v>0.001681078697321747</v>
+        <v>0.001663834124021032</v>
       </c>
       <c r="BO5">
-        <v>0.001724699329602135</v>
+        <v>0.001707166181304142</v>
       </c>
       <c r="BP5">
-        <v>0.001752292620249203</v>
+        <v>0.001734469997270427</v>
       </c>
       <c r="BQ5">
-        <v>0.001823258654197798</v>
+        <v>0.00180514899123656</v>
       </c>
       <c r="BR5">
-        <v>0.001898070957818414</v>
+        <v>0.001879674470782346</v>
       </c>
       <c r="BS5">
-        <v>0.001953628773080896</v>
+        <v>0.00193494438113289</v>
       </c>
       <c r="BT5">
-        <v>0.002046503665161282</v>
+        <v>0.002027533463069097</v>
       </c>
       <c r="BU5">
-        <v>0.002102579340379605</v>
+        <v>0.002083321262445184</v>
       </c>
       <c r="BV5">
-        <v>0.002106841090016198</v>
+        <v>0.00208729222770141</v>
       </c>
       <c r="BW5">
-        <v>0.002114255283383976</v>
+        <v>0.002094415813649025</v>
       </c>
       <c r="BX5">
-        <v>0.002120933733814492</v>
+        <v>0.002100803615358968</v>
       </c>
       <c r="BY5">
-        <v>0.002122572367574763</v>
+        <v>0.002102151317492115</v>
       </c>
       <c r="BZ5">
-        <v>0.002131650466800656</v>
+        <v>0.002110938902700026</v>
       </c>
       <c r="CA5">
-        <v>0.002136332795701386</v>
+        <v>0.002115330470829309</v>
       </c>
       <c r="CB5">
-        <v>0.002137270148421456</v>
+        <v>0.002115976852556339</v>
       </c>
       <c r="CC5">
-        <v>0.00214173019404114</v>
+        <v>0.002120146124926862</v>
       </c>
       <c r="CD5">
-        <v>0.002161544205351562</v>
+        <v>0.002139670224872147</v>
       </c>
       <c r="CE5">
-        <v>0.002211745641070793</v>
+        <v>0.002189583455002855</v>
       </c>
       <c r="CF5">
-        <v>0.002288592034517958</v>
+        <v>0.002266143138557387</v>
       </c>
       <c r="CG5">
-        <v>0.002361835848272323</v>
+        <v>0.002339100040190851</v>
       </c>
       <c r="CH5">
-        <v>0.002389564025907889</v>
+        <v>0.002366538750717419</v>
       </c>
       <c r="CI5">
-        <v>0.00249158490720838</v>
+        <v>0.002468274335277378</v>
       </c>
       <c r="CJ5">
-        <v>0.00264633726401236</v>
+        <v>0.002622744355384974</v>
       </c>
       <c r="CK5">
-        <v>0.00274835814531285</v>
+        <v>0.002724479939944933</v>
       </c>
       <c r="CL5">
-        <v>0.002900962292300011</v>
+        <v>0.002876801629647469</v>
       </c>
       <c r="CM5">
-        <v>0.00371244742310317</v>
+        <v>0.003688041288984839</v>
       </c>
       <c r="CN5">
-        <v>0.2269139583902966</v>
+        <v>0.2269017904917985</v>
       </c>
       <c r="CO5">
-        <v>0.2617126784229452</v>
+        <v>0.2617021729024165</v>
       </c>
       <c r="CP5">
-        <v>0.5277389157383948</v>
+        <v>0.5277430523892644</v>
       </c>
       <c r="CQ5">
-        <v>0.5382911158385891</v>
+        <v>0.5382955538061506</v>
       </c>
       <c r="CR5">
-        <v>0.5540410324955646</v>
+        <v>0.5540460635499669</v>
       </c>
       <c r="CS5">
-        <v>0.5642796646224975</v>
+        <v>0.5642849793916748</v>
       </c>
       <c r="CT5">
-        <v>0.5644231029402662</v>
+        <v>0.5644281347376415</v>
       </c>
       <c r="CU5">
-        <v>0.5645039497293722</v>
+        <v>0.5645086950414143</v>
       </c>
       <c r="CV5">
-        <v>0.5664902447599972</v>
+        <v>0.5664948105476978</v>
       </c>
       <c r="CW5">
-        <v>0.5674277092800579</v>
+        <v>0.5674320366680567</v>
       </c>
       <c r="CX5">
-        <v>0.57233657386147</v>
+        <v>0.5723408857815055</v>
       </c>
       <c r="CY5">
-        <v>0.6126822704211177</v>
+        <v>0.6126885560947336</v>
       </c>
       <c r="CZ5">
-        <v>0.6192963708571211</v>
+        <v>0.6193027367849846</v>
       </c>
       <c r="DA5">
-        <v>0.6194550278335921</v>
+        <v>0.6194611116439424</v>
       </c>
       <c r="DB5">
-        <v>0.62701991618852</v>
+        <v>0.6270261336249264</v>
       </c>
       <c r="DC5">
-        <v>0.6326816737057315</v>
+        <v>0.6326879179372881</v>
       </c>
       <c r="DD5">
-        <v>0.6508526681562571</v>
+        <v>0.6508596413801472</v>
       </c>
       <c r="DE5">
-        <v>0.6531482623605075</v>
+        <v>0.6531550734223468</v>
       </c>
       <c r="DF5">
-        <v>0.6549653255055632</v>
+        <v>0.6549719475433485</v>
       </c>
       <c r="DG5">
-        <v>0.6572048085145983</v>
+        <v>0.6572112652405706</v>
       </c>
       <c r="DH5">
-        <v>0.6585930820962176</v>
+        <v>0.6585993257283366</v>
       </c>
       <c r="DI5">
-        <v>0.6627617863407445</v>
+        <v>0.6627679729565223</v>
       </c>
       <c r="DJ5">
-        <v>0.6719246790594076</v>
+        <v>0.6719310890040883</v>
       </c>
       <c r="DK5">
-        <v>0.6721339858915596</v>
+        <v>0.6721401165619209</v>
       </c>
       <c r="DL5">
-        <v>0.6837224719033879</v>
+        <v>0.6837289620616189</v>
       </c>
       <c r="DM5">
-        <v>0.6837258542800995</v>
+        <v>0.6837320536045871</v>
       </c>
       <c r="DN5">
-        <v>0.6967665081680987</v>
+        <v>0.6967731484968746</v>
       </c>
       <c r="DO5">
-        <v>0.7130503897795419</v>
+        <v>0.7130576531689045</v>
       </c>
       <c r="DP5">
-        <v>0.7130504190332024</v>
+        <v>0.7130576531689045</v>
       </c>
       <c r="DQ5">
-        <v>0.7256214719612455</v>
+        <v>0.7256291207405173</v>
       </c>
       <c r="DR5">
-        <v>0.7313328867742226</v>
+        <v>0.7313405651361218</v>
       </c>
       <c r="DS5">
-        <v>0.7350470271575109</v>
+        <v>0.7350546229864476</v>
       </c>
       <c r="DT5">
-        <v>0.7432605124571318</v>
+        <v>0.7432682783206561</v>
       </c>
       <c r="DU5">
-        <v>0.7446526627384206</v>
+        <v>0.7446602157257074</v>
       </c>
       <c r="DV5">
-        <v>0.7473267839103933</v>
+        <v>0.7473341959839734</v>
       </c>
       <c r="DW5">
-        <v>0.7474012189740461</v>
+        <v>0.7474083442023753</v>
       </c>
       <c r="DX5">
-        <v>0.7475348682526496</v>
+        <v>0.7475417099596761</v>
       </c>
       <c r="DY5">
-        <v>0.7525315391265742</v>
+        <v>0.7525383702945817</v>
       </c>
       <c r="DZ5">
-        <v>0.753113515376948</v>
+        <v>0.7531200881901707</v>
       </c>
       <c r="EA5">
-        <v>0.753341785537483</v>
+        <v>0.7533480801408793</v>
       </c>
       <c r="EB5">
-        <v>0.7692049941847978</v>
+        <v>0.7692118882346008</v>
       </c>
       <c r="EC5">
-        <v>0.789555258449493</v>
+        <v>0.7895630038234021</v>
       </c>
       <c r="ED5">
-        <v>0.7908894966357201</v>
+        <v>0.790897025882537</v>
       </c>
       <c r="EE5">
-        <v>0.7979848446306865</v>
+        <v>0.797992481146243</v>
       </c>
       <c r="EF5">
-        <v>0.7983972311955215</v>
+        <v>0.798404599836496</v>
       </c>
       <c r="EG5">
-        <v>0.7983990991633623</v>
+        <v>0.7984061768855831</v>
       </c>
       <c r="EH5">
-        <v>0.7984402382138542</v>
+        <v>0.798447027221776</v>
       </c>
       <c r="EI5">
-        <v>0.8054715051142851</v>
+        <v>0.8054783977937993</v>
       </c>
       <c r="EJ5">
-        <v>0.807835686312687</v>
+        <v>0.8078424206802328</v>
       </c>
       <c r="EK5">
-        <v>0.8132881804477426</v>
+        <v>0.8132949298635865</v>
       </c>
       <c r="EL5">
-        <v>0.813486728490812</v>
+        <v>0.8134931980283995</v>
       </c>
       <c r="EM5">
-        <v>0.820364812404305</v>
+        <v>0.8203713770146662</v>
       </c>
       <c r="EN5">
-        <v>0.8351122901467602</v>
+        <v>0.8351193915727617</v>
       </c>
       <c r="EO5">
-        <v>0.838082253593506</v>
+        <v>0.8380892307126979</v>
       </c>
       <c r="EP5">
-        <v>0.8380924346956378</v>
+        <v>0.838099121362728</v>
       </c>
       <c r="EQ5">
-        <v>0.8381612968997657</v>
+        <v>0.8381676964087765</v>
       </c>
       <c r="ER5">
-        <v>0.8404768607023133</v>
+        <v>0.8404830991702527</v>
       </c>
       <c r="ES5">
-        <v>0.8414292403211021</v>
+        <v>0.8414352412265883</v>
       </c>
       <c r="ET5">
-        <v>0.843467241447318</v>
+        <v>0.8434730657309478</v>
       </c>
       <c r="EU5">
-        <v>0.8500982648818783</v>
+        <v>0.8501041703697163</v>
       </c>
       <c r="EV5">
-        <v>0.8526187352669532</v>
+        <v>0.852624491216006</v>
       </c>
       <c r="EW5">
-        <v>0.8527488028358621</v>
+        <v>0.8527542750625554</v>
       </c>
       <c r="EX5">
-        <v>0.8528868958140866</v>
+        <v>0.8528920847689211</v>
       </c>
       <c r="EY5">
-        <v>0.8585096040346278</v>
+        <v>0.8585148175926078</v>
       </c>
       <c r="EZ5">
-        <v>0.8766444554882354</v>
+        <v>0.8766503960096873</v>
       </c>
       <c r="FA5">
-        <v>0.877441453320274</v>
+        <v>0.8774471475570258</v>
       </c>
       <c r="FB5">
-        <v>0.8831626694324153</v>
+        <v>0.8831683938019835</v>
       </c>
       <c r="FC5">
-        <v>0.8831714636656653</v>
+        <v>0.8831768975052811</v>
       </c>
       <c r="FD5">
-        <v>0.8916262259447121</v>
+        <v>0.8916318433628283</v>
       </c>
       <c r="FE5">
-        <v>0.8916331520587215</v>
+        <v>0.8916384788420195</v>
       </c>
       <c r="FF5">
-        <v>0.9015922557094903</v>
+        <v>0.9015978505164296</v>
       </c>
       <c r="FG5">
-        <v>0.9162053584634039</v>
+        <v>0.9162114825429384</v>
       </c>
       <c r="FH5">
-        <v>0.9222320157494996</v>
+        <v>0.9222381871075752</v>
       </c>
       <c r="FI5">
-        <v>0.922233289568691</v>
+        <v>0.9222391699746608</v>
       </c>
       <c r="FJ5">
-        <v>0.9223742481866712</v>
+        <v>0.9223798454816429</v>
       </c>
       <c r="FK5">
-        <v>0.9268853653019999</v>
+        <v>0.9268909248017352</v>
       </c>
       <c r="FL5">
-        <v>0.9310094354503329</v>
+        <v>0.9310149354282234</v>
       </c>
       <c r="FM5">
-        <v>0.9313237809735281</v>
+        <v>0.931329007573372</v>
       </c>
       <c r="FN5">
-        <v>0.9317908371337014</v>
+        <v>0.9317957989278024</v>
       </c>
       <c r="FO5">
-        <v>0.9321547670226684</v>
+        <v>0.9321594582221061</v>
       </c>
       <c r="FP5">
-        <v>0.9323847474030575</v>
+        <v>0.9323891604886708</v>
       </c>
       <c r="FQ5">
-        <v>0.9364738590543714</v>
+        <v>0.9364782106557695</v>
       </c>
       <c r="FR5">
-        <v>0.938825014853884</v>
+        <v>0.9388292074121423</v>
       </c>
       <c r="FS5">
-        <v>0.9393396639599989</v>
+        <v>0.9393435943841107</v>
       </c>
       <c r="FT5">
-        <v>0.9424245344969463</v>
+        <v>0.942428347064477</v>
       </c>
       <c r="FU5">
-        <v>0.9462777944683717</v>
+        <v>0.9462815323123197</v>
       </c>
       <c r="FV5">
-        <v>0.9477793442403317</v>
+        <v>0.9477828753491054</v>
       </c>
       <c r="FW5">
-        <v>0.9505160906069643</v>
+        <v>0.9505194843174524</v>
       </c>
       <c r="FX5">
-        <v>0.9572512090326483</v>
+        <v>0.9572546897906433</v>
       </c>
       <c r="FY5">
-        <v>0.9579204609255799</v>
+        <v>0.9579236882279468</v>
       </c>
       <c r="FZ5">
-        <v>0.9593126112068687</v>
+        <v>0.9593156256329981</v>
       </c>
       <c r="GA5">
-        <v>0.959969600550846</v>
+        <v>0.9599723608329978</v>
       </c>
       <c r="GB5">
-        <v>0.9600027260110213</v>
+        <v>0.9600051971290368</v>
       </c>
       <c r="GC5">
-        <v>0.9607503584172693</v>
+        <v>0.9607525804794913</v>
       </c>
       <c r="GD5">
-        <v>0.9630459526215197</v>
+        <v>0.9630480125216909</v>
       </c>
       <c r="GE5">
-        <v>0.9658759478802008</v>
+        <v>0.9658778756165471</v>
       </c>
       <c r="GF5">
-        <v>0.9675639041362657</v>
+        <v>0.967565635601234</v>
       </c>
       <c r="GG5">
-        <v>0.9731625730588568</v>
+        <v>0.9731643277775416</v>
       </c>
       <c r="GH5">
-        <v>0.9737285574705943</v>
+        <v>0.9737300529368037</v>
       </c>
       <c r="GI5">
-        <v>0.9747664806820886</v>
+        <v>0.9747677433877741</v>
       </c>
       <c r="GJ5">
-        <v>0.9748297826206908</v>
+        <v>0.9748307578561751</v>
       </c>
       <c r="GK5">
-        <v>0.9760212101190955</v>
+        <v>0.9760219612109107</v>
       </c>
       <c r="GL5">
-        <v>0.9760212700747104</v>
+        <v>0.9760219612109107</v>
       </c>
       <c r="GM5">
-        <v>0.9768458994543927</v>
+        <v>0.9768463458569704</v>
       </c>
       <c r="GN5">
-        <v>0.9781142059462419</v>
+        <v>0.9781144325206983</v>
       </c>
       <c r="GO5">
-        <v>0.9782747280525539</v>
+        <v>0.9782746726141948</v>
       </c>
       <c r="GP5">
-        <v>0.9788837668006201</v>
+        <v>0.9788834545266103</v>
       </c>
       <c r="GQ5">
-        <v>0.9834655974099189</v>
+        <v>0.9834652513101247</v>
       </c>
       <c r="GR5">
-        <v>0.9907764297865107</v>
+        <v>0.9907762030515196</v>
       </c>
       <c r="GS5">
         <v>0.9999999999999998</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001443898139820039</v>
+        <v>0.0001420706641248842</v>
       </c>
       <c r="C6">
-        <v>0.0001830947223688292</v>
+        <v>0.0001784085622287777</v>
       </c>
       <c r="D6">
-        <v>0.0002217996307556546</v>
+        <v>0.0002147464603326712</v>
       </c>
       <c r="E6">
-        <v>0.0002952857176928417</v>
+        <v>0.0002858812879781043</v>
       </c>
       <c r="F6">
-        <v>0.0003226168105537142</v>
+        <v>0.0003108402198143084</v>
       </c>
       <c r="G6">
-        <v>0.0003406883148005153</v>
+        <v>0.0003265353697426928</v>
       </c>
       <c r="H6">
-        <v>0.0003575151080991946</v>
+        <v>0.0003409852450436328</v>
       </c>
       <c r="I6">
-        <v>0.0003600813836922353</v>
+        <v>0.0003411681446263556</v>
       </c>
       <c r="J6">
-        <v>0.0003631757628632652</v>
+        <v>0.0003418793869438516</v>
       </c>
       <c r="K6">
-        <v>0.000363201849076178</v>
+        <v>0.0003418793869438516</v>
       </c>
       <c r="L6">
-        <v>0.0003644603083237269</v>
+        <v>0.0003418793869438516</v>
       </c>
       <c r="M6">
-        <v>0.0003668437671243872</v>
+        <v>0.0003418793869438516</v>
       </c>
       <c r="N6">
-        <v>0.0004066879384637294</v>
+        <v>0.0003793570639264457</v>
       </c>
       <c r="O6">
-        <v>0.0004625068421372637</v>
+        <v>0.0004328167075543896</v>
       </c>
       <c r="P6">
-        <v>0.0004693714613511545</v>
+        <v>0.0004372998973042061</v>
       </c>
       <c r="Q6">
-        <v>0.0005001807100670616</v>
+        <v>0.0004657385601117711</v>
       </c>
       <c r="R6">
-        <v>0.0006483713038906535</v>
+        <v>0.0006116117252979446</v>
       </c>
       <c r="S6">
-        <v>0.0007835579482562346</v>
+        <v>0.0007444750520625434</v>
       </c>
       <c r="T6">
-        <v>0.0008797101642487243</v>
+        <v>0.0008382862733377895</v>
       </c>
       <c r="U6">
-        <v>0.0009162801697245299</v>
+        <v>0.0008724883017193498</v>
       </c>
       <c r="V6">
-        <v>0.0009381179738143561</v>
+        <v>0.0008919514570958617</v>
       </c>
       <c r="W6">
-        <v>0.0009628299827843889</v>
+        <v>0.0009142901189638997</v>
       </c>
       <c r="X6">
-        <v>0.0009785206791304193</v>
+        <v>0.0009276033828197606</v>
       </c>
       <c r="Y6">
-        <v>0.0009804203258512443</v>
+        <v>0.0009276033828197606</v>
       </c>
       <c r="Z6">
-        <v>0.000981019582166268</v>
+        <v>0.0009276033828197606</v>
       </c>
       <c r="AA6">
-        <v>0.0009834291840658386</v>
+        <v>0.0009276295377578247</v>
       </c>
       <c r="AB6">
-        <v>0.0009861570675521437</v>
+        <v>0.0009279741184195006</v>
       </c>
       <c r="AC6">
-        <v>0.0009962368201320315</v>
+        <v>0.0009356738975393772</v>
       </c>
       <c r="AD6">
-        <v>0.001022709185028695</v>
+        <v>0.0009597737125281554</v>
       </c>
       <c r="AE6">
-        <v>0.001045093518095742</v>
+        <v>0.0009797836443827916</v>
       </c>
       <c r="AF6">
-        <v>0.001057618845573702</v>
+        <v>0.0009899301059028498</v>
       </c>
       <c r="AG6">
-        <v>0.001068777327108629</v>
+        <v>0.0009987091024905471</v>
       </c>
       <c r="AH6">
-        <v>0.001069302148956755</v>
+        <v>0.0009987091024905471</v>
       </c>
       <c r="AI6">
-        <v>0.001074967182020643</v>
+        <v>0.001001992162846237</v>
       </c>
       <c r="AJ6">
-        <v>0.001075048705517246</v>
+        <v>0.001001992162846237</v>
       </c>
       <c r="AK6">
-        <v>0.001078380470378382</v>
+        <v>0.001002940898356232</v>
       </c>
       <c r="AL6">
-        <v>0.001081652066242026</v>
+        <v>0.001003829437620625</v>
       </c>
       <c r="AM6">
-        <v>0.001086740658029939</v>
+        <v>0.001006535795653365</v>
       </c>
       <c r="AN6">
-        <v>0.001090012253893583</v>
+        <v>0.001007424334917758</v>
       </c>
       <c r="AO6">
-        <v>0.001097588492577814</v>
+        <v>0.001012619466401636</v>
       </c>
       <c r="AP6">
-        <v>0.001099821050984764</v>
+        <v>0.001012619466401636</v>
       </c>
       <c r="AQ6">
-        <v>0.001112053948474911</v>
+        <v>0.00102247336550415</v>
       </c>
       <c r="AR6">
-        <v>0.001167379146169022</v>
+        <v>0.001075439079573171</v>
       </c>
       <c r="AS6">
-        <v>0.001249775092734857</v>
+        <v>0.001155487801762865</v>
       </c>
       <c r="AT6">
-        <v>0.001315391020000063</v>
+        <v>0.001218748905658827</v>
       </c>
       <c r="AU6">
-        <v>0.00134546944874643</v>
+        <v>0.001246456417538001</v>
       </c>
       <c r="AV6">
-        <v>0.001373583354574676</v>
+        <v>0.001272198516845958</v>
       </c>
       <c r="AW6">
-        <v>0.001396201731631968</v>
+        <v>0.001292442598679912</v>
       </c>
       <c r="AX6">
-        <v>0.001404334711292996</v>
+        <v>0.00129819472326609</v>
       </c>
       <c r="AY6">
-        <v>0.001412467690954023</v>
+        <v>0.001303946847852268</v>
       </c>
       <c r="AZ6">
-        <v>0.001412564116180004</v>
+        <v>0.001303946847852268</v>
       </c>
       <c r="BA6">
-        <v>0.001416111412332157</v>
+        <v>0.001305111212258697</v>
       </c>
       <c r="BB6">
-        <v>0.001416763032974998</v>
+        <v>0.001305111212258697</v>
       </c>
       <c r="BC6">
-        <v>0.001416870014950539</v>
+        <v>0.001305111212258697</v>
       </c>
       <c r="BD6">
-        <v>0.00145215195348003</v>
+        <v>0.00133802459038044</v>
       </c>
       <c r="BE6">
-        <v>0.0014975066555897</v>
+        <v>0.001381015293630212</v>
       </c>
       <c r="BF6">
-        <v>0.001544209268643191</v>
+        <v>0.001425354518238239</v>
       </c>
       <c r="BG6">
-        <v>0.001600650874290771</v>
+        <v>0.001479437145836806</v>
       </c>
       <c r="BH6">
-        <v>0.001673570321251575</v>
+        <v>0.001550005076897494</v>
       </c>
       <c r="BI6">
-        <v>0.001752548787959846</v>
+        <v>0.001626634771591008</v>
       </c>
       <c r="BJ6">
-        <v>0.001870069433061725</v>
+        <v>0.001741824098874254</v>
       </c>
       <c r="BK6">
-        <v>0.002018869356859921</v>
+        <v>0.00188830686997597</v>
       </c>
       <c r="BL6">
-        <v>0.002071160999680468</v>
+        <v>0.001938237655396929</v>
       </c>
       <c r="BM6">
-        <v>0.002101696995407764</v>
+        <v>0.001966402941470639</v>
       </c>
       <c r="BN6">
-        <v>0.002209037870933924</v>
+        <v>0.00207140788917162</v>
       </c>
       <c r="BO6">
-        <v>0.002317410446417083</v>
+        <v>0.002177445004044848</v>
       </c>
       <c r="BP6">
-        <v>0.002419332282169102</v>
+        <v>0.002277028457907415</v>
       </c>
       <c r="BQ6">
-        <v>0.002490007133223458</v>
+        <v>0.002345350776574814</v>
       </c>
       <c r="BR6">
-        <v>0.002507658800487758</v>
+        <v>0.002360625899393481</v>
       </c>
       <c r="BS6">
-        <v>0.002508039070811909</v>
+        <v>0.002360625899393481</v>
       </c>
       <c r="BT6">
-        <v>0.002509017895671112</v>
+        <v>0.002360625899393481</v>
       </c>
       <c r="BU6">
-        <v>0.002514106487459026</v>
+        <v>0.002363332257426222</v>
       </c>
       <c r="BV6">
-        <v>0.002545099810167261</v>
+        <v>0.002391955077585793</v>
       </c>
       <c r="BW6">
-        <v>0.00258515327449788</v>
+        <v>0.002429642142340007</v>
       </c>
       <c r="BX6">
-        <v>0.002695774639887313</v>
+        <v>0.002537929065505643</v>
       </c>
       <c r="BY6">
-        <v>0.00282713857441222</v>
+        <v>0.002666967951278655</v>
       </c>
       <c r="BZ6">
-        <v>0.00291659289068387</v>
+        <v>0.002754078239624763</v>
       </c>
       <c r="CA6">
-        <v>0.002995127617410636</v>
+        <v>0.002830263993384854</v>
       </c>
       <c r="CB6">
-        <v>0.00312460074201435</v>
+        <v>0.002957411212965218</v>
       </c>
       <c r="CC6">
-        <v>0.003245917201958024</v>
+        <v>0.003076398074061512</v>
       </c>
       <c r="CD6">
-        <v>0.003321257108817946</v>
+        <v>0.003149387561149859</v>
       </c>
       <c r="CE6">
-        <v>0.003339823235044132</v>
+        <v>0.003165577557051948</v>
       </c>
       <c r="CF6">
-        <v>0.003347128504439657</v>
+        <v>0.003170501596536071</v>
       </c>
       <c r="CG6">
-        <v>0.003355740513080719</v>
+        <v>0.003176732967035164</v>
       </c>
       <c r="CH6">
-        <v>0.003355761525148843</v>
+        <v>0.003176732967035164</v>
       </c>
       <c r="CI6">
-        <v>0.003360520251350505</v>
+        <v>0.00317910931009885</v>
       </c>
       <c r="CJ6">
-        <v>0.003365951306124145</v>
+        <v>0.003182158286204973</v>
       </c>
       <c r="CK6">
-        <v>0.00339759507480527</v>
+        <v>0.003211431846898147</v>
       </c>
       <c r="CL6">
-        <v>0.003419202923904681</v>
+        <v>0.003230664943146915</v>
       </c>
       <c r="CM6">
-        <v>0.003426825719286972</v>
+        <v>0.0032359066524125</v>
       </c>
       <c r="CN6">
-        <v>0.01016608983840244</v>
+        <v>0.009975838173919192</v>
       </c>
       <c r="CO6">
-        <v>0.1856373125249701</v>
+        <v>0.1855241401529174</v>
       </c>
       <c r="CP6">
-        <v>0.2467484029779324</v>
+        <v>0.24666052081269</v>
       </c>
       <c r="CQ6">
-        <v>0.5413043907011883</v>
+        <v>0.5413475165093958</v>
       </c>
       <c r="CR6">
-        <v>0.5556925041015088</v>
+        <v>0.5557397611670594</v>
       </c>
       <c r="CS6">
-        <v>0.5764998492342834</v>
+        <v>0.5765541445679971</v>
       </c>
       <c r="CT6">
-        <v>0.5926570935608687</v>
+        <v>0.5927163213198781</v>
       </c>
       <c r="CU6">
-        <v>0.5962093340128155</v>
+        <v>0.5962677858999006</v>
       </c>
       <c r="CV6">
-        <v>0.5966131825959836</v>
+        <v>0.5966694328316102</v>
       </c>
       <c r="CW6">
-        <v>0.5977841219471802</v>
+        <v>0.5978385179157795</v>
       </c>
       <c r="CX6">
-        <v>0.5979265291112449</v>
+        <v>0.5979786050321249</v>
       </c>
       <c r="CY6">
-        <v>0.6012678421719829</v>
+        <v>0.6013190467004411</v>
       </c>
       <c r="CZ6">
-        <v>0.6286328590314415</v>
+        <v>0.6286940715327658</v>
       </c>
       <c r="DA6">
-        <v>0.6376592616552318</v>
+        <v>0.6377221773116133</v>
       </c>
       <c r="DB6">
-        <v>0.6377240753425304</v>
+        <v>0.6377846358122407</v>
       </c>
       <c r="DC6">
-        <v>0.644352345766272</v>
+        <v>0.6444135233738111</v>
       </c>
       <c r="DD6">
-        <v>0.6473163912427341</v>
+        <v>0.6473765266085979</v>
       </c>
       <c r="DE6">
-        <v>0.6609713256736126</v>
+        <v>0.6610352602696725</v>
       </c>
       <c r="DF6">
-        <v>0.663123199283925</v>
+        <v>0.6631857238384699</v>
       </c>
       <c r="DG6">
-        <v>0.6637194051590759</v>
+        <v>0.6637798151730118</v>
       </c>
       <c r="DH6">
-        <v>0.6645955431225595</v>
+        <v>0.6646539653658246</v>
       </c>
       <c r="DI6">
-        <v>0.6650791727024025</v>
+        <v>0.6651354294238006</v>
       </c>
       <c r="DJ6">
-        <v>0.6675525220993161</v>
+        <v>0.6676075143626006</v>
       </c>
       <c r="DK6">
-        <v>0.6735559971490984</v>
+        <v>0.6736113236056184</v>
       </c>
       <c r="DL6">
-        <v>0.6736728009292302</v>
+        <v>0.6737257957432923</v>
       </c>
       <c r="DM6">
-        <v>0.6878491593383764</v>
+        <v>0.6879061895144973</v>
       </c>
       <c r="DN6">
-        <v>0.6883445107177307</v>
+        <v>0.6883993806803145</v>
       </c>
       <c r="DO6">
-        <v>0.6997516722422937</v>
+        <v>0.6998093235094974</v>
       </c>
       <c r="DP6">
-        <v>0.7153271185931276</v>
+        <v>0.7153894388128188</v>
       </c>
       <c r="DQ6">
-        <v>0.7156699103788404</v>
+        <v>0.7157300012969153</v>
       </c>
       <c r="DR6">
-        <v>0.7281238818597737</v>
+        <v>0.7281872281404238</v>
       </c>
       <c r="DS6">
-        <v>0.7328684244620268</v>
+        <v>0.7329315348162471</v>
       </c>
       <c r="DT6">
-        <v>0.7368995999940122</v>
+        <v>0.7369621513666648</v>
       </c>
       <c r="DU6">
-        <v>0.7426542670541645</v>
+        <v>0.7427170399449619</v>
       </c>
       <c r="DV6">
-        <v>0.7439064424019753</v>
+        <v>0.7439673978142475</v>
       </c>
       <c r="DW6">
-        <v>0.7466772382864919</v>
+        <v>0.7467370639421526</v>
       </c>
       <c r="DX6">
-        <v>0.7468417835096338</v>
+        <v>0.7468992991430082</v>
       </c>
       <c r="DY6">
-        <v>0.7472380090331197</v>
+        <v>0.7472933195628597</v>
       </c>
       <c r="DZ6">
-        <v>0.7542907337391704</v>
+        <v>0.7543468536249429</v>
       </c>
       <c r="EA6">
-        <v>0.7544819761611997</v>
+        <v>0.7545357981147691</v>
       </c>
       <c r="EB6">
-        <v>0.7549572746713898</v>
+        <v>0.7550089273302873</v>
       </c>
       <c r="EC6">
-        <v>0.7774998237318431</v>
+        <v>0.7775593004626891</v>
       </c>
       <c r="ED6">
-        <v>0.8006127137685253</v>
+        <v>0.8006802728557153</v>
       </c>
       <c r="EE6">
-        <v>0.8026884682820102</v>
+        <v>0.8027545828564202</v>
       </c>
       <c r="EF6">
-        <v>0.8137830348196019</v>
+        <v>0.8138517891369859</v>
       </c>
       <c r="EG6">
-        <v>0.8141639283637268</v>
+        <v>0.814230470634242</v>
       </c>
       <c r="EH6">
-        <v>0.8141785872561158</v>
+        <v>0.8142427516268785</v>
       </c>
       <c r="EI6">
-        <v>0.8144284723457009</v>
+        <v>0.8144903653411566</v>
       </c>
       <c r="EJ6">
-        <v>0.8225312885079852</v>
+        <v>0.8225944664034873</v>
       </c>
       <c r="EK6">
-        <v>0.8238893241513838</v>
+        <v>0.8239507325082137</v>
       </c>
       <c r="EL6">
-        <v>0.8270792628184309</v>
+        <v>0.8271397312314892</v>
       </c>
       <c r="EM6">
-        <v>0.8270831288042698</v>
+        <v>0.8271412144299041</v>
       </c>
       <c r="EN6">
-        <v>0.8338482685223069</v>
+        <v>0.8339070332683461</v>
       </c>
       <c r="EO6">
-        <v>0.8505809248249097</v>
+        <v>0.8506448825770914</v>
       </c>
       <c r="EP6">
-        <v>0.8546142033568074</v>
+        <v>0.8546776030797851</v>
       </c>
       <c r="EQ6">
-        <v>0.8548835542955812</v>
+        <v>0.8549446914585488</v>
       </c>
       <c r="ER6">
-        <v>0.8548992449919272</v>
+        <v>0.8549580047224047</v>
       </c>
       <c r="ES6">
-        <v>0.8573087848915004</v>
+        <v>0.8573662512671197</v>
       </c>
       <c r="ET6">
-        <v>0.8575104742530942</v>
+        <v>0.8575656474275076</v>
       </c>
       <c r="EU6">
-        <v>0.8614486134889573</v>
+        <v>0.8615031855494216</v>
       </c>
       <c r="EV6">
-        <v>0.8667611868675356</v>
+        <v>0.8668157802397696</v>
       </c>
       <c r="EW6">
-        <v>0.868011019715444</v>
+        <v>0.8680637945483293</v>
       </c>
       <c r="EX6">
-        <v>0.868256470065214</v>
+        <v>0.8683069715144776</v>
       </c>
       <c r="EY6">
-        <v>0.8689832383749232</v>
+        <v>0.8690316844100318</v>
       </c>
       <c r="EZ6">
-        <v>0.8743248141522927</v>
+        <v>0.8743732946331861</v>
       </c>
       <c r="FA6">
-        <v>0.8907440784679572</v>
+        <v>0.8907976100324181</v>
       </c>
       <c r="FB6">
-        <v>0.8916002287322738</v>
+        <v>0.8916517634744422</v>
       </c>
       <c r="FC6">
-        <v>0.8963185995356178</v>
+        <v>0.8963698864992055</v>
       </c>
       <c r="FD6">
-        <v>0.8963234665014149</v>
+        <v>0.896372371130882</v>
       </c>
       <c r="FE6">
-        <v>0.902938263925718</v>
+        <v>0.9029877795916366</v>
       </c>
       <c r="FF6">
-        <v>0.9029398996017498</v>
+        <v>0.9029877795916366</v>
       </c>
       <c r="FG6">
-        <v>0.9105467982847033</v>
+        <v>0.9105957385936371</v>
       </c>
       <c r="FH6">
-        <v>0.9237071317361962</v>
+        <v>0.9237596472905163</v>
       </c>
       <c r="FI6">
-        <v>0.930420621956386</v>
+        <v>0.9304737932411392</v>
       </c>
       <c r="FJ6">
-        <v>0.9304329709448713</v>
+        <v>0.9304837632838098</v>
       </c>
       <c r="FK6">
-        <v>0.9306492537658569</v>
+        <v>0.9306977595123778</v>
       </c>
       <c r="FL6">
-        <v>0.9347078075967012</v>
+        <v>0.9347557667601804</v>
       </c>
       <c r="FM6">
-        <v>0.9391881514099658</v>
+        <v>0.9392357550020529</v>
       </c>
       <c r="FN6">
-        <v>0.9394142836805409</v>
+        <v>0.9394596051406284</v>
       </c>
       <c r="FO6">
-        <v>0.9397890560149208</v>
+        <v>0.939832162656091</v>
       </c>
       <c r="FP6">
-        <v>0.9401949034180056</v>
+        <v>0.9402358093129022</v>
       </c>
       <c r="FQ6">
-        <v>0.9403726546205972</v>
+        <v>0.9404112564736623</v>
       </c>
       <c r="FR6">
-        <v>0.944128019764078</v>
+        <v>0.9441659377321887</v>
       </c>
       <c r="FS6">
-        <v>0.9476261743182791</v>
+        <v>0.9476632919211466</v>
       </c>
       <c r="FT6">
-        <v>0.9485086849814971</v>
+        <v>0.9485438176996321</v>
       </c>
       <c r="FU6">
-        <v>0.9514260425599051</v>
+        <v>0.9514601118933013</v>
       </c>
       <c r="FV6">
-        <v>0.9545231542308212</v>
+        <v>0.9545562415828478</v>
       </c>
       <c r="FW6">
-        <v>0.9557358064802793</v>
+        <v>0.9557670584553656</v>
       </c>
       <c r="FX6">
-        <v>0.9580743566828114</v>
+        <v>0.9581042831546724</v>
       </c>
       <c r="FY6">
-        <v>0.9625969124943167</v>
+        <v>0.962626502510895</v>
       </c>
       <c r="FZ6">
-        <v>0.9635298098954346</v>
+        <v>0.9635574378453993</v>
       </c>
       <c r="GA6">
-        <v>0.9639548854377179</v>
+        <v>0.9639803213490568</v>
       </c>
       <c r="GB6">
-        <v>0.9647698794437499</v>
+        <v>0.9647932998947889</v>
       </c>
       <c r="GC6">
-        <v>0.9647737122961901</v>
+        <v>0.9647947499448003</v>
       </c>
       <c r="GD6">
-        <v>0.9660524026428958</v>
+        <v>0.966071634820553</v>
       </c>
       <c r="GE6">
-        <v>0.9694485092013502</v>
+        <v>0.9694668948003479</v>
       </c>
       <c r="GF6">
-        <v>0.9722429033848832</v>
+        <v>0.9722601699139861</v>
       </c>
       <c r="GG6">
-        <v>0.9735802732291432</v>
+        <v>0.973595760860868</v>
       </c>
       <c r="GH6">
-        <v>0.9787312026144586</v>
+        <v>0.9787466383559162</v>
       </c>
       <c r="GI6">
-        <v>0.9796132313776966</v>
+        <v>0.9796266820161889</v>
       </c>
       <c r="GJ6">
-        <v>0.9801537893151668</v>
+        <v>0.9801651002123464</v>
       </c>
       <c r="GK6">
-        <v>0.9801550109011159</v>
+        <v>0.9801651002123464</v>
       </c>
       <c r="GL6">
-        <v>0.9822656098131486</v>
+        <v>0.98227427039122</v>
       </c>
       <c r="GM6">
-        <v>0.9823484602656954</v>
+        <v>0.9823547738252181</v>
       </c>
       <c r="GN6">
-        <v>0.9831086338340123</v>
+        <v>0.9831129071072726</v>
       </c>
       <c r="GO6">
-        <v>0.9846086913714917</v>
+        <v>0.9846112594220602</v>
       </c>
       <c r="GP6">
-        <v>0.9847935764837858</v>
+        <v>0.9847938437231826</v>
       </c>
       <c r="GQ6">
-        <v>0.9855248152033087</v>
+        <v>0.9855230290530186</v>
       </c>
       <c r="GR6">
-        <v>0.9911831523674759</v>
+        <v>0.9911815441114108</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>102</v>
       </c>
       <c r="E2">
-        <v>0.006588967598699177</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="F2">
-        <v>0.517478418665099</v>
+        <v>0.5176119700823034</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002549111923378791</v>
+        <v>0.002342810323658833</v>
       </c>
       <c r="F3">
-        <v>0.5082407898648078</v>
+        <v>0.5083078812248274</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4">
-        <v>0.003116462355016064</v>
+        <v>0.003169899012197205</v>
       </c>
       <c r="F4">
-        <v>0.5043101666268364</v>
+        <v>0.5043367607621047</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>93</v>
       </c>
       <c r="E5">
-        <v>0.00264633726401236</v>
+        <v>0.002876801629647469</v>
       </c>
       <c r="F5">
-        <v>0.5277389157383948</v>
+        <v>0.5277430523892644</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.00339759507480527</v>
+        <v>0.0032359066524125</v>
       </c>
       <c r="F6">
-        <v>0.5413043907011883</v>
+        <v>0.5413475165093958</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>129</v>
       </c>
       <c r="E2">
-        <v>0.006588967598699177</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="F2">
-        <v>0.7031574997441021</v>
+        <v>0.7033826149456769</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>118</v>
       </c>
       <c r="E3">
-        <v>0.002549111923378791</v>
+        <v>0.002342810323658833</v>
       </c>
       <c r="F3">
-        <v>0.7026855421563869</v>
+        <v>0.7027989786831315</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>121</v>
       </c>
       <c r="E4">
-        <v>0.003116462355016064</v>
+        <v>0.003169899012197205</v>
       </c>
       <c r="F4">
-        <v>0.7041995710198246</v>
+        <v>0.7042640489366294</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.00264633726401236</v>
+        <v>0.002876801629647469</v>
       </c>
       <c r="F5">
-        <v>0.7130503897795419</v>
+        <v>0.7130576531689045</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>119</v>
       </c>
       <c r="E6">
-        <v>0.00339759507480527</v>
+        <v>0.0032359066524125</v>
       </c>
       <c r="F6">
-        <v>0.7153271185931276</v>
+        <v>0.7153894388128188</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.006588967598699177</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="F2">
-        <v>0.8081159135557088</v>
+        <v>0.8083229864096674</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>138</v>
       </c>
       <c r="E3">
-        <v>0.002549111923378791</v>
+        <v>0.002342810323658833</v>
       </c>
       <c r="F3">
-        <v>0.8022015471868286</v>
+        <v>0.8023069371556562</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>143</v>
       </c>
       <c r="E4">
-        <v>0.003116462355016064</v>
+        <v>0.003169899012197205</v>
       </c>
       <c r="F4">
-        <v>0.8127591557091074</v>
+        <v>0.812825386459604</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>138</v>
       </c>
       <c r="E5">
-        <v>0.00264633726401236</v>
+        <v>0.002876801629647469</v>
       </c>
       <c r="F5">
-        <v>0.8054715051142851</v>
+        <v>0.8054783977937993</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.00339759507480527</v>
+        <v>0.0032359066524125</v>
       </c>
       <c r="F6">
-        <v>0.8006127137685253</v>
+        <v>0.8006802728557153</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.006588967598699177</v>
+        <v>0.005614637640654401</v>
       </c>
       <c r="F2">
-        <v>0.9004599793964326</v>
+        <v>0.9007171112985234</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.002549111923378791</v>
+        <v>0.002342810323658833</v>
       </c>
       <c r="F3">
-        <v>0.9083197754712289</v>
+        <v>0.9084178983921068</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.003116462355016064</v>
+        <v>0.003169899012197205</v>
       </c>
       <c r="F4">
-        <v>0.9004939081845654</v>
+        <v>0.9005524832911482</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.00264633726401236</v>
+        <v>0.002876801629647469</v>
       </c>
       <c r="F5">
-        <v>0.9015922557094903</v>
+        <v>0.9015978505164296</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>160</v>
       </c>
       <c r="E6">
-        <v>0.00339759507480527</v>
+        <v>0.0032359066524125</v>
       </c>
       <c r="F6">
-        <v>0.902938263925718</v>
+        <v>0.9029877795916366</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>58</v>

--- a/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
@@ -1994,31 +1994,31 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.484818304010732E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001411842083536513</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002334253697626949</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.000207430194886179</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0001691043238414458</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001295813389045842</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.000113302280283701</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001525913585138875</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.09204714446798E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2030,46 +2030,46 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.274411281293007E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.376224995123796E-07</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.822787204481552E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.684974912646703E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001241364988693642</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001730602756549173</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001883954363491469</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001537671780832274</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0001806524837239136</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001716960554670081</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001550640965814572</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0001622862105234589</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.116449487158956E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2.290037389809399E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -2084,46 +2084,46 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.951190576135963E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.369114865657299E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>9.22558498800029E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>9.432722906275507E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>9.432722906275507E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001462042045929746</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001532369253844127</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001800813367018154</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001971449567747395</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.432722906275507E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.020439652895605E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.073228273472913E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>4.695067431116549E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.326060486371418E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -2138,37 +2138,37 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.904655262428641E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>8.260054876657115E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.000104885092654226</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001200552273596329</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001288755784775515</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001486293813294198</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0001011003626353605</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>8.65720602735303E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0001200552273596329</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>5.830351592783054E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>4.418185993944251E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2186,37 +2186,37 @@
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>3.508468362783126E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>4.65605520915934E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.734412912030553E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>4.386455648385797E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0001033530443290857</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0001022724927928425</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>5.132430163390757E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>3.265908180697639E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.951190576135963E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>8.791749153001858E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.432467790655927E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -2261,337 +2261,337 @@
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.572531299052883E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1038146656370928</v>
+        <v>0.2158642552205567</v>
       </c>
       <c r="CO2">
-        <v>0.02573187287209585</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1865930671140384</v>
+        <v>0.4581469895982455</v>
       </c>
       <c r="CQ2">
-        <v>0.08584979142375837</v>
+        <v>0.1632831619704034</v>
       </c>
       <c r="CR2">
-        <v>0.001052556911679342</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.003082287246320745</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.004788245423423934</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0004708003441468852</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0001330876937757539</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.006888501572634351</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.01646235891930318</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.07711437197038894</v>
+        <v>0.1377156072298369</v>
       </c>
       <c r="CZ2">
-        <v>0.03624118260044791</v>
+        <v>0.01808454518227585</v>
       </c>
       <c r="DA2">
-        <v>0.002664553287943839</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.008946269031257552</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.01538990303543837</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.007446839919217271</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.005531738006908409</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.004610645056789897</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001110389946388128</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>1.075143941221696E-05</v>
+        <v>0</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.00759852517522234</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.001806598405916186</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.004770963035263643</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.009624955391110314</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.008049286788653381</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01416482630884411</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.005783620671070788</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.00470214608007283</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.02361455850659782</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001496847717785825</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.009319520212040357</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.00230780971883117</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.004044567567300509</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.001125204839856941</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.0007862872456190589</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001941213935270171</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.004428533481857775</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0006746506555871473</v>
+        <v>0</v>
       </c>
       <c r="EB2">
         <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.03242172599246992</v>
+        <v>0.006905440798681705</v>
       </c>
       <c r="ED2">
-        <v>0.0008939540084407291</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.007703420467897284</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.005730526024205466</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0002201100818560546</v>
+        <v>0</v>
       </c>
       <c r="EH2">
         <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0003209670325364181</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.009670001806570315</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>2.936171306896239E-06</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.008406489529133148</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>3.679037692922443E-05</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.009252120271719093</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.006621540141850714</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.000175927590305343</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
         <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001070568459960351</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.006731792801412889</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0002759689203001444</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.004559252151144027</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01017162898036537</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0009334920317411418</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0002452069450986285</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.004121256504275826</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01162042642872274</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0121982038653107</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.002902141586527791</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.001628006108822312</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.00540171922306183</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006355140945352378</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.006443816159868286</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01700502027316277</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.020717870924484</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002821823892427574</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>9.684974912646703E-05</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.000994663723516351</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.009778382791404907</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.002014593911936848</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0009381083481748729</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0001898194590961113</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>4.24142105853336E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.002436612600856757</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.006604552204848755</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002125855846204821</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001951722624415387</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.006871174971685219</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.003049041334483602</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>2.51191410743386E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.008004521590591788</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.003049539505340174</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.000109840870068398</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.003035241931577522</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0009105788591931083</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>2.480627293344408E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001115418073369345</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.004445787397383076</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.003337870751497314</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.006818172760627858</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.006455857076796447</v>
+        <v>0</v>
       </c>
       <c r="GI2">
         <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.000522696944741539</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0002342117558695134</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0007596744551770716</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0002957026820261868</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001053894423733584</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001926824326722585</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0001531205886039807</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.003348920339500182</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.006212519712082636</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.01212109214980808</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,34 +2767,34 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.2564709092836E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.68918125176672E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.331752690308513E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.023100710816949E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.792003878989177E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>4.74624965413851E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.932183224450006E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.06126137588073E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.130406982396691E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.154540149330038E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.638678719326676E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9.115560037102359E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3.516796482311316E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2830,22 +2830,22 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>3.956667786234949E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.743343515968932E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.43114953642321E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.153487139691547E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.292331135633327E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2863,40 +2863,40 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.847503681751159E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.302126241848751E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.417318546101575E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.485997802851036E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.332899801098253E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.170678008392082E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.593511854323172E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.774698255534779E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.920024041628372E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.838483199356955E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.743006182136305E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.067933218941973E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2911,31 +2911,31 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>3.03719941653233E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>4.354615459980957E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.080614646795337E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>6.089063932052287E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.000107831120868258</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>5.39681517471234E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.658580594053798E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>5.313011049061656E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1.824895142063607E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2947,256 +2947,256 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.426836078697695E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>4.024972341513686E-07</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.067933218941973E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>3.719305313307769E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>5.041025219482636E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>2.932183224450006E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>5.770150246083259E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.000107097586694223</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>7.203673204793362E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>3.214915800457409E-05</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>5.540956945765419E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>7.593511854323172E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>6.122018546096526E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.28177739478398E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>9.4017873248235E-06</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.226370791860088E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>2.625043010974578E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>6.379146421523907E-07</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1.007665729984818E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>2.359727247880434E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>2.437940475304474E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>6.480223144057045E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>7.524263139409069E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>6.328431017815633E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>8.502275011013633E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>4.354615459980957E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>2.437940475304474E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>8.295282472594655E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0005449869300068172</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.2232482919414765</v>
+        <v>0.42864206583016</v>
       </c>
       <c r="CO3">
-        <v>0.004942448962730307</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.277229343066955</v>
+        <v>0.5483891211445329</v>
       </c>
       <c r="CQ3">
-        <v>0.02883755436671561</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01183419810514316</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01012419830355348</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.001043545351380069</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.000581703871078019</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.001096596834610146</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.001600514467803865</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>6.686592781313154E-06</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.04037391108587055</v>
+        <v>0.02296881302530717</v>
       </c>
       <c r="CZ3">
-        <v>0.01127015629829839</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.0008960345096993515</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.005358326862462444</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.005718890458384086</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.02025262225290279</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.002175055321787469</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.003134202415500558</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.002825606330685751</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.001135766749251716</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.002594338361167023</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.008056332576486429</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0003225460424265527</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.009830920343125995</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001732314108842871</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.008530930420079083</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01515814542826701</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>5.915583856501751E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.01350636546817427</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0117107537864826</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.000510289814010979</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.007502828247700584</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0007615140395835012</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.005203606380175785</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>7.429901219353698E-05</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>4.054538529357518E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004715145382810495</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.001773847224827448</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0006241998217231865</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.007675138181799273</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.02703387119100313</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0006334333907058524</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.007957802302730292</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.00204182553010299</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.000310061187581444</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>4.743343515968932E-05</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.007325842851901084</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.007101391666911059</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.003156629459457463</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0004806680614618709</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.006290782681378716</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.01558126385345387</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.005586720619497802</v>
+        <v>0</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -3205,166 +3205,166 @@
         <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.001326662436749258</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001572705894070304</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.002263103862334902</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.006962543554937172</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.004577517652710012</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0002636863661425787</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0002820136515878277</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.005900750876443325</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01847040835056098</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.003695659342648239</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.005339827978955843</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>8.785911214045386E-05</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.007588562226038228</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0006222600010163317</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.00895994358795443</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.013328291196306</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.008551281794029891</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.000131557830487322</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0001028342946095985</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.004122719138914184</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.007150968154290041</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>2.996419206307438E-05</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0002721637066922616</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0004995245526862056</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>2.625043010974578E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.002624147044113305</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.00291589427297168</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0006131079876502505</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002747851872370097</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00528601968682576</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.002291147124890271</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.001102693039387454</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.005878525194494726</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0009383618246665889</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.001665681798989972</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001595946292421595</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0004151576042094227</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.0002559978402435251</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.001110030542867058</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.002441399512315685</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.000934984907726101</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.004545556938320089</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001247550286085354</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0008078937149276364</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0001477999382769767</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.001302674336825376</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>7.203673204793362E-05</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0002205189952979463</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0007017949918815739</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>3.57595477885393E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0001336581603337997</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.002333534528202332</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.005132353552828121</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.00789209343584491</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.103237423159486E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>9.629688492419208E-07</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3555,70 +3555,70 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.220340853672818E-07</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3.922664110094951E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.874602481854891E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.772487831715766E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.326620725298186E-06</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.340577901174816E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.191900847042215E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.441301215710545E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1.297387555179048E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.90525390387025E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1.524954756777217E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.343684982098036E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>6.146537368835644E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0001026741260934182</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.215311502405006E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>6.393979662151829E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>8.684808353479531E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -3627,151 +3627,151 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.675214719149701E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.114222446460218E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1.058670443797166E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>3.347931786304141E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.863159454626246E-05</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.3019246351084E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>2.169489096381634E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>7.934598801624173E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001014232868770518</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001037747423698242</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001101730546948257</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001113934184623712</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>9.005798270075226E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>8.249099189675607E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>3.678111065833838E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>7.400327511594481E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.602022444318695E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>7.425154040747668E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.652073069966684E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>5.307144868596144E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>6.42523648398986E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>7.098400094800743E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>5.118601290598898E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1.422299072447827E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>4.465123797107225E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0001062320189231392</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>6.331683049859329E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>8.976385464543197E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>6.550990211104404E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.807297937927513E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.652073069966684E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>5.754352253039564E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.652073069966684E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.390635704500332E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>5.307144868596144E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>6.909913631378758E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2.363229680473133E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>3.279030075505179E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>6.544674387715455E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>4.098170355725767E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>5.397459902307009E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001025957426426899</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001014232868770518</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>2.019722932938561E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.874602481854891E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>2.226848920106896E-05</v>
+        <v>0</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -3783,361 +3783,361 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>8.231613144206552E-08</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>2.77672709802628E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>2.466843805010275E-05</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>6.646067367645693E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>4.465123797107225E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>4.128614785768886E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0001135241883594402</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0001913282383377925</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0009719087757754418</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1473304106841457</v>
+        <v>0.2804129946875046</v>
       </c>
       <c r="CO4">
-        <v>0.002316126870602153</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.2627474002823617</v>
+        <v>0.556288227839545</v>
       </c>
       <c r="CQ4">
-        <v>0.08150840823796229</v>
+        <v>0.1230820823617882</v>
       </c>
       <c r="CR4">
-        <v>0.006292606899060192</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.0122353766537746</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.002338198932292554</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.001693456026429076</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.0001913282383377925</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>2.63008252428956E-05</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.001262052769277506</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.04139454063966592</v>
+        <v>0.02719998896432583</v>
       </c>
       <c r="CZ4">
-        <v>0.02669629180977278</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0002291434604127116</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.006463047578165886</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01118007580982086</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.008850767724350603</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.001292045425832015</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.005346151146296435</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.002028728489202133</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0006081988178907733</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0002239457739065594</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.008113869630808386</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.002204111460206599</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.005229195044971284</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.006371456632060188</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.007949930387455176</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.02103843072927266</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.004217422351508891</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.006994403243173379</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.01574881857439697</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>3.621913185510379E-06</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01411139333173667</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.000723602509438793</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.005754393782780283</v>
+        <v>0</v>
       </c>
       <c r="DW4">
         <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0001956028760609801</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.002558879524967237</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.003504768734764767</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0004844226479234052</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.001881719194675605</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.03546072850759767</v>
+        <v>0.01301670614683639</v>
       </c>
       <c r="ED4">
-        <v>0.0002701892081401751</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.007875350239119413</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.004031390734168893</v>
+        <v>0</v>
       </c>
       <c r="EG4">
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0004366836683364848</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.002272660257363405</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.008854351894087486</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.00186850839729924</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.003678376030834817</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.001193875897271788</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.01340081817322188</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.008481825879255816</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>3.375675381351783E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>8.605439306103921E-05</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.001252583436859309</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.004581401192166225</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0004006914298350542</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.005067846369861737</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.005850196878781121</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>3.347931786304141E-05</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>4.433547381797959E-05</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.002390106955679621</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01371049664224426</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.009022970970455605</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.004079939624048507</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.001676235901939722</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.006404964116374261</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.004254136376956078</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.00668927192684566</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01366680319168576</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01325125363183408</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0005934036613962104</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.0007213444424803262</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.00115984569652261</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.00671735472723691</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>9.573473921992109E-05</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.000984801030316593</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>5.31135447695272E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.002952903854161804</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.004478275163105816</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001301387080958636</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002000999502998198</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.005841455386973368</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.003213204731636209</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0002584734157900181</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.008227547447569337</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.003011612694536777</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.000329829262240898</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001607927850522361</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.0002215403277296266</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0005906149031749431</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.001637426007723444</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.004558211453871665</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00198431800457511</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.005435699355797485</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.003545961671595608</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>3.750715017846221E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0002278674979875921</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0009482577082075161</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0004031455154566855</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002390031191214339</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001240192135578562</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0004692297806680048</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0004319019536458039</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.003232682022538869</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.006867491114801325</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.01057599912193018</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,43 +4313,43 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.891397234395E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.82867085646826E-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.94745743046178E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.224054364951219E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.303608023605708E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.210031487274716E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.137910145170918E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>3.865728928164233E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.561334776375302E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.710472886083445E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.600812064790534E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4358,46 +4358,46 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.170577176023279E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>9.861915419688927E-06</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.268535866203884E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>5.290338071631665E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3.082119810104754E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.968930112164997E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001592492179619261</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001027885375736331</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>5.114861636901159E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>9.826478003567897E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>6.828772994564618E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2.44228184982576E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.030301360018306E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>5.668438392595376E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -4409,508 +4409,508 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.338520656190805E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.822165640745608E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>7.633502096312084E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.822165640745608E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.719891138681545E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.724789212578487E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001166912777648862</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>6.001741442856807E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.73702941508728E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>9.025132521458358E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>2.034393189348465E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.149780260441927E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>4.951892833171791E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>8.216728513747569E-07</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>3.602911628338432E-06</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1.530250234214906E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1.489461548177265E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1.756919538094608E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.860106913073472E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>3.27844451329473E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>4.350161478610896E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.088016548840604E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>3.752784898117128E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.966795638412565E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1.306261480568989E-05</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>8.787585207911075E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>9.103577917999327E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.530250234214906E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>7.412868460706702E-08</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>8.585328172238329E-07</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.188323738272965E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>2.446764101037456E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>4.333205728311016E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>2.730381596628451E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>7.067899396613302E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>7.452547954578693E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.526991035054312E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>9.258908193620696E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>5.578779937608724E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>3.970965256226429E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>7.123585947614835E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>6.387801709942673E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.347702133146666E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>8.787585207911075E-06</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>4.391568129282905E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>6.463817270301345E-07</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>4.169272370522369E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>1.952409994528493E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>4.991323013070764E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>7.655968355453259E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>7.295690163346373E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.743871052656831E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.000101735584559959</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0001544700201075957</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.000101735584559959</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001523216897025362</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0008112396593373695</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.2232137492028137</v>
+        <v>0.4347741065680082</v>
       </c>
       <c r="CO5">
-        <v>0.03480038241061802</v>
+        <v>0.0107988762842496</v>
       </c>
       <c r="CP5">
-        <v>0.2660408794868479</v>
+        <v>0.5311454136239047</v>
       </c>
       <c r="CQ5">
-        <v>0.01055250141688611</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01575050974381635</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01023891584170784</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.0001431553459667716</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>8.056030377279735E-05</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.001986115506283426</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.000937226120358944</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.004908849113448812</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.04034767031322806</v>
+        <v>0.02328160352383745</v>
       </c>
       <c r="CZ5">
-        <v>0.006614180690250937</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.0001583748589577098</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.007565021980984032</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.005661784312361621</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.01817172344285914</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.002295432042199649</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001816874121001729</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.002239317697222027</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.001388060487766005</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.00416864722818572</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.009163116047565955</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.000209027557832591</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01158884549969809</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>3.091542968233907E-06</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01304109489228749</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01628450467202988</v>
+        <v>0</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0125714675716129</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.005711444395604489</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.00371405785032581</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.008213655334208529</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.00139193740505123</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.002673980258266033</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>7.414821840185562E-05</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0001333657573006989</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.004996660334905642</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0005817178955890546</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0002279919507086029</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01586380809372162</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.02035111558880115</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.001334022059134934</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.007095455263706012</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0004121186902530193</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>1.577049087097612E-06</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>4.085033619287762E-05</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.007031370572023327</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0023640228864336</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.005452509183353686</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0001982681648129837</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.006878178986266705</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01474801455809546</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.002969839139936236</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>9.890650030145343E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>6.857504604852887E-05</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.002315402761476105</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0009521420563356424</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.002037824504359521</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.006631104638768457</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.002520320846289681</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0001297838465493731</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0001378097063657173</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.005622732823686728</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01813557841707951</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0007967515473384406</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.005721246244957723</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>8.503703297500718E-06</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.008454945857547285</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>6.635479191244083E-06</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.009959371674410097</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01461363202650875</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.006026704564636836</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>9.82867085646826E-07</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0001406755069820233</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.004511079320092289</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.004124010626488276</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0003140721451485082</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.0004667913544303774</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.000363659294303722</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0002297022665647533</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.004089050167098702</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.00235099675637273</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0005143869719684571</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.003084752680366275</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003853185247842681</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001501343036785702</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.002736608968346954</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.006735205473190917</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0006689984373034744</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.00139193740505123</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0006567351999995969</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>3.283629603897674E-05</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0007473833504545986</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002295432042199649</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.002829863094856167</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.001687759984686852</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.005598692176307585</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0005657251592621371</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001037690450970361</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>6.301446840108345E-05</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.001191203354735534</v>
+        <v>0</v>
       </c>
       <c r="GL5">
         <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0008243846460596656</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.001268086663727937</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0001602400934964135</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0006087819124155861</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.004581796783514475</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.007310951741394883</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.009223796948480203</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,31 +5086,31 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001420706641248842</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.633789810389349E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.633789810389349E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.113482764543316E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.4958931836204E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.569514992838444E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.444987530093996E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.828995827228904E-07</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.112423174959328E-07</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,37 +5122,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.747767698259408E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5.345964362794391E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4.483189749816528E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.843866280756505E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001458731651861734</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001328633267645988</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>9.381122127524615E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3.420202838156028E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.946315537651187E-05</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.233866186803806E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.331326385586091E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -5161,85 +5161,85 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>2.615493806413157E-08</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3.445806616758241E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>7.699779119876537E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.409981498877826E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.000993185463619E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.014646152005821E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>8.778996587697226E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>3.283060355690069E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>9.487355099945507E-07</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>8.885392643931967E-07</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.706358032740314E-06</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>8.885392643931967E-07</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>5.195131483877466E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>9.853899102514232E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>5.296571406902051E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>8.004872218969481E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>6.326110389596163E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.770751187917366E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>2.574209930795744E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.024408183395317E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>5.752124586178377E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>5.752124586178377E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>1.164364406429245E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>0</v>
@@ -5248,49 +5248,49 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>3.291337812174212E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>4.299070324977277E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>4.433922460802646E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>5.408262759856756E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>7.056793106068769E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>7.66296946935138E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001151893272832459</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0001464827711017159</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>4.993078542095896E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>2.81652860737103E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0001050049477009811</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0001060371148732278</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>9.958345386256659E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>6.832231866739849E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.527512281866788E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -5299,391 +5299,391 @@
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.706358032740314E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.862282015957062E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>3.768706475421475E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001082869231656354</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0001290388857730125</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>8.711028834610807E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>7.618575376009053E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001271472195803636</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0001189868610962942</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>7.298948708834732E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.618999590208905E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>4.924039484122993E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>6.231370499093183E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
         <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.376343063685852E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>3.048976106123228E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>2.927356069317462E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>1.923309624876736E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>5.241709265585466E-06</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.006739931521506692</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1755483019789982</v>
+        <v>0.3297633018988661</v>
       </c>
       <c r="CP6">
-        <v>0.0611363806597726</v>
+        <v>0.07052457334154542</v>
       </c>
       <c r="CQ6">
-        <v>0.2946869956967058</v>
+        <v>0.5997121247595886</v>
       </c>
       <c r="CR6">
-        <v>0.01439224465766348</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.02081438340093777</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01616217675188092</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.003551464580022534</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0004016469317096482</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001169085084169205</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.0001400871163454375</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.003340441668316256</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.02737502483232473</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.009028105778847464</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>6.24585006273145E-05</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.006628887561570463</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.002963003234786808</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01365873366107462</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.002150463568797373</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0005940913345418928</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0008741501928128093</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0004814640579760249</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.002472084938800061</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.006003809243017784</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0001144721376739286</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0141803937712051</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.0004931911658171051</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01140994282918292</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.01558011530332142</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0003405624840965459</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.01245722684350846</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.004744306675823272</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.004030616550417737</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.005754888578297052</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.001250357869285654</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.002769666127905134</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0001622352008556922</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0003940204198514844</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.007053534062083198</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.000188944489826233</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.0004731292155182465</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02255037313240168</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.02312097239302629</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.002074310000704933</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0110972062805656</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0003786814972562103</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>1.228099263652106E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0002476137142780129</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.008104101062330739</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.001356266104726379</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.003188998723275494</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>1.483198414835929E-06</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.006765818838442031</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0167378493087452</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.00403272050269382</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0002670883787636969</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>1.331326385586091E-05</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.002408246544715074</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.0001993961603878612</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003937538121914002</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005312594690347921</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.001248014308559679</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0002431769661482759</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.000724712895554242</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.005341610223154327</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01642431539923199</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0008541534420240944</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.004718123024763266</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>2.484631676516251E-06</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.006615408460754643</v>
+        <v>0</v>
       </c>
       <c r="FF6">
         <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.00760795900200051</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.01316390869687919</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.006714145950622936</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>9.970042670599238E-06</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0002139962285680459</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004058007247802562</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.004479988241872516</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0002238501385754959</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0003725575154626378</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0004036466568111605</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.000175447160760071</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.003754681258526437</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.003497354188957861</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0008805257784855603</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.002916294193669098</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.003096129689546549</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.001210816872517769</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.002337224699306867</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.004522219356222503</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0009309353345043002</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.000422883503657497</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0008129785457320973</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>1.4500500114387E-06</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.00127688487575277</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.003395259979794888</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002793275113638226</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001335590946881834</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.005150877495048259</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0008800436602726052</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0005384181961575186</v>
+        <v>0</v>
       </c>
       <c r="GK6">
         <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002109170178873621</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>8.050343399815581E-05</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.000758133282054551</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.001498352314787556</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0001825843011223498</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0007291853298359943</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.00565851505839222</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.008818455888588497</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.484818304010732E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002360323913937586</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004694577611564535</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0006768879560426325</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0008459922798840783</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0009755736187886625</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001088875899072364</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001241467257586251</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001292387729030931</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001292387729030931</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001292387729030931</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001292387729030931</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001305131841843861</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001305669464343373</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001343897336388189</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.001440747085514656</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.00156488358438402</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001737943860038937</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.001926339296388084</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.002080106474471312</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.002260758958195226</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.002432455013662234</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.002587519110243691</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00274980532076715</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.002820969815638739</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.002843870189536833</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.002843870189536833</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.002843870189536833</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.002843870189536833</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002843870189536833</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.002845821380112969</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.002879512528769542</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.002971768378649545</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.003066095607712301</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.003160422836775056</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.00330662704136803</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.003459863966752443</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.003639945303454258</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.003837090260228998</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.003931417489291752</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.004021621885820709</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.004102354168555438</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.004149304842866603</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.004172565447730318</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.004172565447730318</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.004172565447730318</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.004172565447730318</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.004172565447730318</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.004191612000354604</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.004274212549121175</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.004379097641775401</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.004499152869135034</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.004628028447612585</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.004776657828942005</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.004877758191577365</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.004964330251850895</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.005084385479210528</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.005142688995138359</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.005147107181132303</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.005182191864760134</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.005228752416851727</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.005256096545972033</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.005299961102455892</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.005403314146784978</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.00550558663957782</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.005556910941211727</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.005589570023018704</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.005591521213594839</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.005591521213594839</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.005600312962747841</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.005630362953644929</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1094450285907377</v>
+        <v>0.2158642552205567</v>
       </c>
       <c r="CO2">
-        <v>0.1351769014628336</v>
+        <v>0.2158642552205567</v>
       </c>
       <c r="CP2">
-        <v>0.3217699685768719</v>
+        <v>0.6740112448188021</v>
       </c>
       <c r="CQ2">
-        <v>0.4076197600006303</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CR2">
-        <v>0.4086723169123096</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CS2">
-        <v>0.4117546041586304</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CT2">
-        <v>0.4165428495820543</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CU2">
-        <v>0.4170136499262012</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CV2">
-        <v>0.4171467376199769</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CW2">
-        <v>0.4240352391926113</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CX2">
-        <v>0.4404975981119145</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="CY2">
-        <v>0.5176119700823034</v>
+        <v>0.9750100140190425</v>
       </c>
       <c r="CZ2">
-        <v>0.5538531526827514</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DA2">
-        <v>0.5565177059706952</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DB2">
-        <v>0.5654639750019527</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DC2">
-        <v>0.5808538780373911</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DD2">
-        <v>0.5883007179566083</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DE2">
-        <v>0.5938324559635167</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DF2">
-        <v>0.5984431010203066</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DG2">
-        <v>0.5995534909666947</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DH2">
-        <v>0.599564242406107</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DI2">
-        <v>0.599564242406107</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DJ2">
-        <v>0.6071627675813293</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DK2">
-        <v>0.6089693659872455</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DL2">
-        <v>0.6137403290225092</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DM2">
-        <v>0.6233652844136195</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DN2">
-        <v>0.6314145712022728</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DO2">
-        <v>0.6455793975111169</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DP2">
-        <v>0.6513630181821877</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DQ2">
-        <v>0.6560651642622605</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DR2">
-        <v>0.6796797227688582</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DS2">
-        <v>0.681176570486644</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DT2">
-        <v>0.6904960906986845</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DU2">
-        <v>0.6928039004175156</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DV2">
-        <v>0.6968484679848161</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DW2">
-        <v>0.697973672824673</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DX2">
-        <v>0.6987599600702921</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DY2">
-        <v>0.6989540814638191</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="DZ2">
-        <v>0.7033826149456769</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="EA2">
-        <v>0.704057265601264</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="EB2">
-        <v>0.704057265601264</v>
+        <v>0.9930945592013184</v>
       </c>
       <c r="EC2">
-        <v>0.736478991593734</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.7373729456021747</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.745076366070072</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.7508068920942774</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.7510270021761335</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.7510270021761335</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.7513479692086699</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.7610179710152402</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.761020907186547</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.7694273967156802</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.7694641870926094</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.7787163073643285</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.7853378475061792</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.7855137750964846</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.7855137750964846</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.7865843435564449</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.7933161363578578</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.7935921052781579</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.798151357429302</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8083229864096674</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8092564784414085</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8095016853865071</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.813622941890783</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.8252433683195057</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.8374415721848164</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.8403437137713442</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8419717198801665</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8473734391032284</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8537285800485808</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8601723962084491</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.8771774164816118</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.8978952874060958</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9007171112985234</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9008139610476499</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9018086247711662</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9115870075625711</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9136016014745079</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9145397098226827</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9147295292817789</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9147337707028373</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.917170383303694</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9237749355085428</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9259007913547477</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.927852513979163</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9347236889508482</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9377727302853318</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9377978494264062</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.945802371016998</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9488519105223382</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9489617513924066</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9519969933239841</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9529075721831772</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9529323784561107</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.95404779652948</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9584935839268631</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9618314546783604</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9686496274389883</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9751054845157847</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9751054845157847</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9756281814605262</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9758623932163957</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9766220676715728</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9769177703535989</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9779716647773325</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9781643472100048</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9783174677986087</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9816663881381089</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9878789078501915</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.2564709092836E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.2564709092836E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.94565216105032E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9.277404851358833E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001130050556217578</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001309250944116496</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001783875909530347</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002077094231975347</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000238322036956342</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0002474524439387387</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0002474524439387387</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0002474524439387387</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0002526069840880687</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0002689937712813355</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002689937712813355</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002781093313184379</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002781093313184379</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002781093313184379</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002816261278007492</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002816261278007492</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002816261278007492</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0003211928056630987</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000368626240822788</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000368626240822788</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0004129377361870201</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0004544726075839356</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004617649387195689</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0004676124424013201</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0004806337048198076</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0005148068902808233</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0005496668683093336</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0005629958663203161</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0005947026464042369</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0006706377649474686</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0006883847475028164</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0006913047715444448</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0007296896035380143</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0007671196653593773</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0007681875985783193</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0007681875985783193</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0007681875985783193</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0007681875985783193</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0007681875985783193</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0007985595927436426</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0008421057473434522</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0008729118938114056</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0009338025331319284</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.001041633654000186</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.00109560180574731</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.001122187611687848</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001175317722178465</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001193566673599101</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.001193566673599101</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.001193566673599101</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001193566673599101</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001207835034386078</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001208237531620229</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001209305464839171</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001246498517972249</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.001296908770167075</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001326230602411575</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.001383932104872407</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.00149102969156663</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001563066423614564</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001595215581619138</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001650625151076792</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001726560269620024</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001787780455080989</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001820598229028829</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001830000016353652</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001842263724272253</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001844888767283228</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001844888767283228</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00184552668192538</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001855603339225228</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001879200611704033</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001903580016457077</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001968382247897648</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.002043624879291739</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.002106909189469895</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.002191931939580032</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.002235478094179841</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002259857498932886</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002342810323658833</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.00288779725366565</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.2261360891951421</v>
+        <v>0.42864206583016</v>
       </c>
       <c r="CO3">
-        <v>0.2310785381578724</v>
+        <v>0.42864206583016</v>
       </c>
       <c r="CP3">
-        <v>0.5083078812248274</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CQ3">
-        <v>0.537145435591543</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CR3">
-        <v>0.5489796336966862</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CS3">
-        <v>0.5591038320002397</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CT3">
-        <v>0.5601473773516198</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CU3">
-        <v>0.5607290812226978</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CV3">
-        <v>0.561825678057308</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CW3">
-        <v>0.5634261925251118</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CX3">
-        <v>0.5634328791178932</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="CY3">
-        <v>0.6038067902037637</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
-        <v>0.6150769465020621</v>
+        <v>1</v>
       </c>
       <c r="DA3">
-        <v>0.6159729810117615</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.6213313078742239</v>
+        <v>1</v>
       </c>
       <c r="DC3">
-        <v>0.627050198332608</v>
+        <v>1</v>
       </c>
       <c r="DD3">
-        <v>0.6473028205855108</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.6494778759072983</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.6526120783227989</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.6554376846534846</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6565734514027364</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6591677897639034</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6672241223403899</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6675466683828164</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6773775887259424</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6791099028347853</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6876408332548645</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.7027989786831315</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.7028581345216964</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.7163644999898707</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7280752537763533</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7285855435903643</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7360883718380649</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.7368498858776483</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7420534922578241</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7421277912700177</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7421683366553112</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7468834820381217</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7486573292629491</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7492815290846724</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7569566672664717</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7839905384574748</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7846239718481807</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7925817741509109</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7946235996810139</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7949336608685954</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7949810943037551</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8023069371556562</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8094083288225672</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8125649582820247</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8130456263434865</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8193364090248653</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8349176728783191</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8405043934978169</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8405043934978169</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8405043934978169</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8418310559345662</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8434037618286365</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8456668656909714</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8526294092459086</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8572069268986185</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8574706132647612</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.857752626916349</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8636533777927924</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8821237861433534</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8858194454860017</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8911592734649575</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.891247132577098</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8988356948031362</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8994579548041525</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9084178983921068</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9217461895884128</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9302974713824427</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.93042902921293</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9305318635075396</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9346545826464537</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9418055508007438</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9418355149928068</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9421076786994991</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9426072032521853</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9426098282951962</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9452339753393095</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9481498696122812</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9487629775999314</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9515108294723016</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9567968491591273</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9590879962840176</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9601906893234051</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9660692145178998</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9670075763425664</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9686732581415564</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9702692044339779</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9706843620381873</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9709403598784309</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9720503904212979</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9744917899336136</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9754267748413398</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9799723317796598</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9812198820657452</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9820277757806728</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9821755757189498</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9834782500557752</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9835502867878231</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.983770805783121</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9844726007750026</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9845083603227912</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.984642018483125</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9869755530113273</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9921079065641555</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.103237423159486E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>4.199534308083678E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.199534308083678E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4.199534308083678E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.199534308083678E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.241737716620406E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.164401826715357E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0001003900430857025</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0001003900430857025</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001281149214028601</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001281149214028601</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001314415421281583</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001448473211399064</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001448473211399064</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001567663296103286</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001612076308260391</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001612076308260391</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001741815063778296</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002032340454165321</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002047590001733094</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002181958499942897</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002796612236826461</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0003823353497760643</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.0004144884648001144</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0004144884648001144</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0004784282614216326</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000565276344956428</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.000565276344956428</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.000565276344956428</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0005669515596755777</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0005700657821220379</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0005700657821220379</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0005806524865600096</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.000614131804423051</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0006627633989693134</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0006957826453203974</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0007174775362842138</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0007968235243004555</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0008982468111775072</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.001002021553547331</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001112194608242157</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001223588026704528</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001313646009405281</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001396137001302037</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001432918111960375</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.00144031843947197</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.001443920461916288</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001443920461916288</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.001451345615957036</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001467866346656703</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.001473173491525299</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001537425856365198</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.001608409857313205</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.001659595870219194</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.001673818860943672</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.001718470098914744</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.001824702117837884</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.001888018948336477</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001977782802981909</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.002043292705092953</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.002061365684472228</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.002077886415171895</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00213542993770229</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.002151950668401957</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002151950668401957</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.002165857025446961</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.002171164170315557</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.002178074083946936</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.002201706380751667</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.002234496681506719</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.002299943425383874</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.002340925128941131</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.002394899727964201</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.002497495470606891</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.002598918757483943</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.002619115986813329</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.002637862011631878</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.002660130500832946</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.002660130500832946</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.002660130500832946</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.002660130500832946</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.002660212816964388</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.002687980087944651</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.002712648525994754</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.002779109199671211</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.002823760437642283</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.002865046585499972</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.002978570773859413</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.003169899012197205</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.004141807787972646</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1514722184721184</v>
+        <v>0.2804129946875046</v>
       </c>
       <c r="CO4">
-        <v>0.1537883453427205</v>
+        <v>0.2804129946875046</v>
       </c>
       <c r="CP4">
-        <v>0.4165357456250822</v>
+        <v>0.8367012225270496</v>
       </c>
       <c r="CQ4">
-        <v>0.4980441538630445</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CR4">
-        <v>0.5043367607621047</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CS4">
-        <v>0.5165721374158793</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CT4">
-        <v>0.5189103363481719</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CU4">
-        <v>0.520603792374601</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CV4">
-        <v>0.5207951206129388</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CW4">
-        <v>0.5208214214381817</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CX4">
-        <v>0.5220834742074592</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="CY4">
-        <v>0.5634780148471251</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="CZ4">
-        <v>0.5901743066568979</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DA4">
-        <v>0.5904034501173105</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DB4">
-        <v>0.5968664976954764</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DC4">
-        <v>0.6080465735052972</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DD4">
-        <v>0.6168973412296478</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DE4">
-        <v>0.6181893866554798</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DF4">
-        <v>0.6235355378017763</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DG4">
-        <v>0.6255642662909784</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DH4">
-        <v>0.6261724651088691</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DI4">
-        <v>0.6263964108827758</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DJ4">
-        <v>0.6345102805135842</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DK4">
-        <v>0.6367143919737908</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DL4">
-        <v>0.6419435870187621</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DM4">
-        <v>0.6483150436508223</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DN4">
-        <v>0.6562649740382774</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DO4">
-        <v>0.6773034047675501</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DP4">
-        <v>0.681520827119059</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DQ4">
-        <v>0.6885152303622324</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DR4">
-        <v>0.7042640489366294</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DS4">
-        <v>0.7042676708498149</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DT4">
-        <v>0.7183790641815516</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DU4">
-        <v>0.7191026666909904</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DV4">
-        <v>0.7248570604737707</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DW4">
-        <v>0.7248570604737707</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DX4">
-        <v>0.7250526633498318</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DY4">
-        <v>0.727611542874799</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="DZ4">
-        <v>0.7311163116095638</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="EA4">
-        <v>0.7316007342574872</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="EB4">
-        <v>0.7334824534521628</v>
+        <v>0.9869832938531636</v>
       </c>
       <c r="EC4">
-        <v>0.7689431819597604</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7692133711679006</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.77708872140702</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7811201121411889</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7811201121411889</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7815567958095254</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7838294560668888</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7926838079609763</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7945523163582755</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7982306923891103</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7994245682863821</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.812825386459604</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8213072123388598</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8213409690926734</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8214270234857345</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8226796069225938</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.82726100811476</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.827661699544595</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8327295459144567</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8385797427932378</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8386132221111008</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8386575575849188</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8410476645405984</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8547581611828426</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8637811321532982</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8678610717773467</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8695373076792865</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8759422717956608</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8801964081726168</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8868856800994624</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9005524832911482</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9138037369229823</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9143971405843786</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9151184850268589</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9162783307233815</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9229956854506184</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9230914201898383</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9240762212201549</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9241293347649244</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9241293347649244</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9270822386190862</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9315605137821921</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9328619008631507</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9348629003661488</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9407043557531222</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9439175604847584</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9441760339005484</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9524035813481178</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9554151940426545</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9557450233048954</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9573529511554177</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9575744914831473</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9581651063863222</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9598025323940457</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9643607438479174</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9663450618524925</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9717807612082899</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9753267228798855</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.975364230030064</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9755920975280516</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9765403552362591</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9769435007517159</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9771825038708373</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9784226960064158</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9788919257870838</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9793238277407297</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9825565097632686</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9894240008780699</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>6.891397234395E-07</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.672006809086326E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.672006809086326E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>7.619464239548106E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.98600078890603E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.289608812511738E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.499640299786454E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.637550444957372E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001350327937312161</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0001506461414949691</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001506461414949691</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0001593566143810525</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.000161957426445843</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000161957426445843</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.000161957426445843</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001736631982060758</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001835251136257648</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001962104722878036</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0002491138530041202</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002799350511051678</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003196243522268177</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0004788735701887438</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0005816621077623769</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006328107241313885</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0007310755041670674</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0007993632341127136</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0008237860526109712</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0008440890662111543</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0008497575046037497</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0008497575046037497</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0008497575046037497</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0008497575046037497</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0008501913566693688</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0008784130130768249</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0009547480340399457</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0009829696904474017</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0009856895815860832</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001062937473711868</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001179628751476754</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001239646165905322</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001277016460056195</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.001286041592577654</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001306385524471138</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001317883327075557</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.001322835219908729</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001323656892760104</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001327259804388442</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001342562306730591</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001357456922212364</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.00137502611759331</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001413627186724045</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001446411631856992</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001489913246643101</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001500793412131507</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001538321261112678</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001587989217496804</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001601051832302494</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001609839417510405</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001618942995428404</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001634245497770553</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001634245497770553</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.00163431962645516</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001635178159272384</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001639366483010657</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001663834124021032</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001707166181304142</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001734469997270427</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.00180514899123656</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001879674470782346</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.00193494438113289</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.002027533463069097</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002083321262445184</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00208729222770141</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.002094415813649025</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.002100803615358968</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.002102151317492115</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.002110938902700026</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.002115330470829309</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.002115976852556339</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.002120146124926862</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.002139670224872147</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002189583455002855</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.002266143138557387</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.002339100040190851</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.002366538750717419</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.002468274335277378</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.002622744355384974</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.002724479939944933</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002876801629647469</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.003688041288984839</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.2269017904917985</v>
+        <v>0.4347741065680082</v>
       </c>
       <c r="CO5">
-        <v>0.2617021729024165</v>
+        <v>0.4455729828522578</v>
       </c>
       <c r="CP5">
-        <v>0.5277430523892644</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CQ5">
-        <v>0.5382955538061506</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CR5">
-        <v>0.5540460635499669</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CS5">
-        <v>0.5642849793916748</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CT5">
-        <v>0.5644281347376415</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CU5">
-        <v>0.5645086950414143</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CV5">
-        <v>0.5664948105476978</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CW5">
-        <v>0.5674320366680567</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CX5">
-        <v>0.5723408857815055</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="CY5">
-        <v>0.6126885560947336</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ5">
-        <v>0.6193027367849846</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA5">
-        <v>0.6194611116439424</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB5">
-        <v>0.6270261336249264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC5">
-        <v>0.6326879179372881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD5">
-        <v>0.6508596413801472</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE5">
-        <v>0.6531550734223468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF5">
-        <v>0.6549719475433485</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG5">
-        <v>0.6572112652405706</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH5">
-        <v>0.6585993257283366</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI5">
-        <v>0.6627679729565223</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ5">
-        <v>0.6719310890040883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK5">
-        <v>0.6721401165619209</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL5">
-        <v>0.6837289620616189</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM5">
-        <v>0.6837320536045871</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN5">
-        <v>0.6967731484968746</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO5">
-        <v>0.7130576531689045</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP5">
-        <v>0.7130576531689045</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ5">
-        <v>0.7256291207405173</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR5">
-        <v>0.7313405651361218</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS5">
-        <v>0.7350546229864476</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT5">
-        <v>0.7432682783206561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU5">
-        <v>0.7446602157257074</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV5">
-        <v>0.7473341959839734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW5">
-        <v>0.7474083442023753</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX5">
-        <v>0.7475417099596761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY5">
-        <v>0.7525383702945817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ5">
-        <v>0.7531200881901707</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA5">
-        <v>0.7533480801408793</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB5">
-        <v>0.7692118882346008</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC5">
-        <v>0.7895630038234021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED5">
-        <v>0.790897025882537</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE5">
-        <v>0.797992481146243</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF5">
-        <v>0.798404599836496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG5">
-        <v>0.7984061768855831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH5">
-        <v>0.798447027221776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI5">
-        <v>0.8054783977937993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ5">
-        <v>0.8078424206802328</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK5">
-        <v>0.8132949298635865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL5">
-        <v>0.8134931980283995</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM5">
-        <v>0.8203713770146662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN5">
-        <v>0.8351193915727617</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO5">
-        <v>0.8380892307126979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP5">
-        <v>0.838099121362728</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ5">
-        <v>0.8381676964087765</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER5">
-        <v>0.8404830991702527</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES5">
-        <v>0.8414352412265883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET5">
-        <v>0.8434730657309478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.8501041703697163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.852624491216006</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.8527542750625554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.8528920847689211</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.8585148175926078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.8766503960096873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.8774471475570258</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.8831683938019835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8831768975052811</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8916318433628283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8916384788420195</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.9015978505164296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.9162114825429384</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.9222381871075752</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.9222391699746608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.9223798454816429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.9268909248017352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9310149354282234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.931329007573372</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9317957989278024</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9321594582221061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9323891604886708</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9364782106557695</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9388292074121423</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9393435943841107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.942428347064477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9462815323123197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9477828753491054</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9505194843174524</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9572546897906433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9579236882279468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9593156256329981</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9599723608329978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9600051971290368</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9607525804794913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9630480125216909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9658778756165471</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.967565635601234</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9731643277775416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.9737300529368037</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9747677433877741</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9748307578561751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9760219612109107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9760219612109107</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9768463458569704</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9781144325206983</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9782746726141948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9788834545266103</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9834652513101247</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9907762030515196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001420706641248842</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001784085622287777</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002147464603326712</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002858812879781043</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0003108402198143084</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0003265353697426928</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0003409852450436328</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0003411681446263556</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0003418793869438516</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0003418793869438516</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003418793869438516</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003418793869438516</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0003793570639264457</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004328167075543896</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0004372998973042061</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0004657385601117711</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006116117252979446</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0007444750520625434</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0008382862733377895</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0008724883017193498</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008919514570958617</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0009142901189638997</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0009276033828197606</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0009276033828197606</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0009276033828197606</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0009276295377578247</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0009279741184195006</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0009356738975393772</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0009597737125281554</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0009797836443827916</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009899301059028498</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0009987091024905471</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0009987091024905471</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001001992162846237</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001001992162846237</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001002940898356232</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001003829437620625</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001006535795653365</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001007424334917758</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001012619466401636</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001012619466401636</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00102247336550415</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001075439079573171</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001155487801762865</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.001218748905658827</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001246456417538001</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001272198516845958</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001292442598679912</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.00129819472326609</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.001303946847852268</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.001303946847852268</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001305111212258697</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001305111212258697</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001305111212258697</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.00133802459038044</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.001381015293630212</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001425354518238239</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001479437145836806</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001550005076897494</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001626634771591008</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001741824098874254</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.00188830686997597</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001938237655396929</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001966402941470639</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.00207140788917162</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002177445004044848</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002277028457907415</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002345350776574814</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002360625899393481</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002360625899393481</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002360625899393481</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002363332257426222</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002391955077585793</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002429642142340007</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002537929065505643</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002666967951278655</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002754078239624763</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002830263993384854</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002957411212965218</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.003076398074061512</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.003149387561149859</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.003165577557051948</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.003170501596536071</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.003176732967035164</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.003176732967035164</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.00317910931009885</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.003182158286204973</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.003211431846898147</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.003230664943146915</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0032359066524125</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.009975838173919192</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1855241401529174</v>
+        <v>0.3297633018988661</v>
       </c>
       <c r="CP6">
-        <v>0.24666052081269</v>
+        <v>0.4002878752404115</v>
       </c>
       <c r="CQ6">
-        <v>0.5413475165093958</v>
+        <v>1</v>
       </c>
       <c r="CR6">
-        <v>0.5557397611670594</v>
+        <v>1</v>
       </c>
       <c r="CS6">
-        <v>0.5765541445679971</v>
+        <v>1</v>
       </c>
       <c r="CT6">
-        <v>0.5927163213198781</v>
+        <v>1</v>
       </c>
       <c r="CU6">
-        <v>0.5962677858999006</v>
+        <v>1</v>
       </c>
       <c r="CV6">
-        <v>0.5966694328316102</v>
+        <v>1</v>
       </c>
       <c r="CW6">
-        <v>0.5978385179157795</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.5979786050321249</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6013190467004411</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6286940715327658</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6377221773116133</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6377846358122407</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6444135233738111</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6473765266085979</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.6610352602696725</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.6631857238384699</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6637798151730118</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6646539653658246</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6651354294238006</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6676075143626006</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.6736113236056184</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.6737257957432923</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.6879061895144973</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.6883993806803145</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.6998093235094974</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7153894388128188</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7157300012969153</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7281872281404238</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7329315348162471</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7369621513666648</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7427170399449619</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7439673978142475</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7467370639421526</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7468992991430082</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7472933195628597</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7543468536249429</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7545357981147691</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7550089273302873</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7775593004626891</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8006802728557153</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8027545828564202</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8138517891369859</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.814230470634242</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8142427516268785</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8144903653411566</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8225944664034873</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8239507325082137</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8271397312314892</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8271412144299041</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8339070332683461</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8506448825770914</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8546776030797851</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8549446914585488</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8549580047224047</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8573662512671197</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8575656474275076</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8615031855494216</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8668157802397696</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8680637945483293</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8683069715144776</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8690316844100318</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8743732946331861</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8907976100324181</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8916517634744422</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8963698864992055</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.896372371130882</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9029877795916366</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9029877795916366</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9105957385936371</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9237596472905163</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9304737932411392</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9304837632838098</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9306977595123778</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9347557667601804</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9392357550020529</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9394596051406284</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.939832162656091</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9402358093129022</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9404112564736623</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9441659377321887</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9476632919211466</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9485438176996321</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9514601118933013</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9545562415828478</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9557670584553656</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9581042831546724</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.962626502510895</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9635574378453993</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9639803213490568</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9647932998947889</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9647947499448003</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.966071634820553</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9694668948003479</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9722601699139861</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.973595760860868</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9787466383559162</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9796266820161889</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9801651002123464</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9801651002123464</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.98227427039122</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9823547738252181</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9831129071072726</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9846112594220602</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9847938437231826</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9855230290530186</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9911815441114108</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5176119700823034</v>
+        <v>0.6740112448188021</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10614,10 +10614,10 @@
         <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002342810323658833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5083078812248274</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003169899012197205</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5043367607621047</v>
+        <v>0.8367012225270496</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10696,10 +10696,10 @@
         <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002876801629647469</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5277430523892644</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -10737,10 +10737,10 @@
         <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0032359066524125</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5413475165093958</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7033826149456769</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002342810323658833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7027989786831315</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003169899012197205</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7042640489366294</v>
+        <v>0.8367012225270496</v>
       </c>
       <c r="G4">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002876801629647469</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7130576531689045</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0032359066524125</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7153894388128188</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8083229864096674</v>
+        <v>0.8372944067892056</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002342810323658833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8023069371556562</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003169899012197205</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.812825386459604</v>
+        <v>0.8367012225270496</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002876801629647469</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8054783977937993</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0032359066524125</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8006802728557153</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.005614637640654401</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9007171112985234</v>
+        <v>0.9750100140190425</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002342810323658833</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9084178983921068</v>
+        <v>0.9770311869746928</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.003169899012197205</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9005524832911482</v>
+        <v>0.9597833048888378</v>
       </c>
       <c r="G4">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.002876801629647469</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9015978505164296</v>
+        <v>0.9767183964761624</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0032359066524125</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9029877795916366</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>58</v>

--- a/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
@@ -183,7 +183,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ50</t>
+    <t>710R</t>
   </si>
   <si>
     <t>50%</t>
@@ -674,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2103980245946162</v>
+        <v>0.1846822601012179</v>
       </c>
       <c r="E2">
-        <v>0.01376520558725563</v>
+        <v>0.03612287545471059</v>
       </c>
       <c r="F2">
-        <v>0.4188556099210405</v>
+        <v>0.3421754535433115</v>
       </c>
       <c r="G2">
-        <v>0.165157790035996</v>
+        <v>0.1505025059725814</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0002717033105636279</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01848680942741538</v>
       </c>
       <c r="O2">
-        <v>0.1431597275755846</v>
+        <v>0.1338826017316122</v>
       </c>
       <c r="P2">
-        <v>0.0402303860006502</v>
+        <v>0.05611776204902586</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.004186786987433726</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.01644636773052333</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00133399114960837</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.001622585697704025</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.005478047512542689</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.002480199335002122</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.01411555144945933</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.008433256284857023</v>
+        <v>0.03209449854728772</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -784,22 +784,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4174782411457238</v>
+        <v>0.3670825490845082</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5293314766841046</v>
+        <v>0.4588233992205751</v>
       </c>
       <c r="G3">
-        <v>0.01464299492954925</v>
+        <v>0.03668130700365096</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007784086107060921</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.004877939741631982</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.03854728724062231</v>
+        <v>0.05628735673447342</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.006825496494718258</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0220912063283072</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -850,31 +850,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.001363599879531247</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.004379513555871962</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002170179387268614</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0134331378923263</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.01062593620549025</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.007574292364585204</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2778283313596694</v>
+        <v>0.2502318013264258</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5316629814377316</v>
+        <v>0.4560376009811742</v>
       </c>
       <c r="G4">
-        <v>0.1330671049879969</v>
+        <v>0.1328613007140707</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.009337097654170715</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04484534855042763</v>
+        <v>0.06133225956465835</v>
       </c>
       <c r="P4">
-        <v>0.01251973633783982</v>
+        <v>0.03512307784460952</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.007455338003167065</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.003301832398478458</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.001987832597119406</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.001695504342929497</v>
       </c>
       <c r="AE4">
-        <v>7.649732633441123E-05</v>
+        <v>0.02503426312104645</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01560209145214949</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1004,22 +1004,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4222752828537123</v>
+        <v>0.3678392964760315</v>
       </c>
       <c r="E5">
-        <v>0.02697935055694904</v>
+        <v>0.04683073161579145</v>
       </c>
       <c r="F5">
-        <v>0.512127667965507</v>
+        <v>0.4408058585815912</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.005518495593361934</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0143745827254378</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004984225349362353</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.03861769862383162</v>
+        <v>0.05628190251094038</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000428588743355322</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.01849971645656474</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1070,28 +1070,28 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.003151335497256952</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.007284162925721574</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.009758427364976797</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01528437457549021</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.008958301584117635</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3260571843638905</v>
+        <v>0.2842842859730206</v>
       </c>
       <c r="F6">
-        <v>0.08340648727012302</v>
+        <v>0.09100225781906657</v>
       </c>
       <c r="G6">
-        <v>0.5787326638777963</v>
+        <v>0.4855514973602118</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01203494998421669</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02288420403985639</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01502498861760896</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.01180366448819021</v>
+        <v>0.03396743791293576</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.002973030301002553</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.01079579158656727</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1189,22 +1189,22 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01167705922835181</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.00699679190305257</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01404168184336196</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.008766023430746882</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2103980245946162</v>
+        <v>0.1846822601012179</v>
       </c>
       <c r="E2">
-        <v>0.2241632301818718</v>
+        <v>0.2208051355559285</v>
       </c>
       <c r="F2">
-        <v>0.6430188401029123</v>
+        <v>0.56298058909924</v>
       </c>
       <c r="G2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="H2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="I2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="J2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="K2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="L2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="M2">
-        <v>0.8081766301389084</v>
+        <v>0.713754798382385</v>
       </c>
       <c r="N2">
-        <v>0.8081766301389084</v>
+        <v>0.7322416078098004</v>
       </c>
       <c r="O2">
-        <v>0.951336357714493</v>
+        <v>0.8661242095414127</v>
       </c>
       <c r="P2">
-        <v>0.9915667437151432</v>
+        <v>0.9222419715904385</v>
       </c>
       <c r="Q2">
-        <v>0.9915667437151432</v>
+        <v>0.9222419715904385</v>
       </c>
       <c r="R2">
-        <v>0.9915667437151432</v>
+        <v>0.9264287585778722</v>
       </c>
       <c r="S2">
-        <v>0.9915667437151432</v>
+        <v>0.9428751263083955</v>
       </c>
       <c r="T2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="U2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="V2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="W2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="X2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="Y2">
-        <v>0.9915667437151432</v>
+        <v>0.944209117458004</v>
       </c>
       <c r="Z2">
-        <v>0.9915667437151432</v>
+        <v>0.945831703155708</v>
       </c>
       <c r="AA2">
-        <v>0.9915667437151432</v>
+        <v>0.945831703155708</v>
       </c>
       <c r="AB2">
-        <v>0.9915667437151432</v>
+        <v>0.945831703155708</v>
       </c>
       <c r="AC2">
-        <v>0.9915667437151432</v>
+        <v>0.9513097506682506</v>
       </c>
       <c r="AD2">
-        <v>0.9915667437151432</v>
+        <v>0.9537899500032527</v>
       </c>
       <c r="AE2">
-        <v>0.9915667437151432</v>
+        <v>0.967905501452712</v>
       </c>
       <c r="AF2">
-        <v>0.9915667437151432</v>
+        <v>0.967905501452712</v>
       </c>
       <c r="AG2">
-        <v>0.9915667437151432</v>
+        <v>0.967905501452712</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4174782411457238</v>
+        <v>0.3670825490845082</v>
       </c>
       <c r="E3">
-        <v>0.4174782411457238</v>
+        <v>0.3670825490845082</v>
       </c>
       <c r="F3">
-        <v>0.9468097178298285</v>
+        <v>0.8259059483050833</v>
       </c>
       <c r="G3">
-        <v>0.9614527127593777</v>
+        <v>0.8625872553087343</v>
       </c>
       <c r="H3">
-        <v>0.9614527127593777</v>
+        <v>0.8703713414157952</v>
       </c>
       <c r="I3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="J3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="K3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="L3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="M3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="N3">
-        <v>0.9614527127593777</v>
+        <v>0.8752492811574272</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9315366378919006</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9383621343866189</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.9383621343866189</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.9383621343866189</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.9383621343866189</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.9604533407149261</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.9618169405944573</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9618169405944573</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9661964541503293</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9661964541503293</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9683666335375979</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9817997714299241</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9817997714299241</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9924257076354144</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,94 +1567,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2778283313596694</v>
+        <v>0.2502318013264258</v>
       </c>
       <c r="E4">
-        <v>0.2778283313596694</v>
+        <v>0.2502318013264258</v>
       </c>
       <c r="F4">
-        <v>0.8094913127974011</v>
+        <v>0.7062694023076</v>
       </c>
       <c r="G4">
-        <v>0.942558417785398</v>
+        <v>0.8391307030216708</v>
       </c>
       <c r="H4">
-        <v>0.942558417785398</v>
+        <v>0.8391307030216708</v>
       </c>
       <c r="I4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="J4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="K4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="L4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="M4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="N4">
-        <v>0.942558417785398</v>
+        <v>0.8484678006758415</v>
       </c>
       <c r="O4">
-        <v>0.9874037663358256</v>
+        <v>0.9098000602404999</v>
       </c>
       <c r="P4">
-        <v>0.9999235026736655</v>
+        <v>0.9449231380851094</v>
       </c>
       <c r="Q4">
-        <v>0.9999235026736655</v>
+        <v>0.9449231380851094</v>
       </c>
       <c r="R4">
-        <v>0.9999235026736655</v>
+        <v>0.9449231380851094</v>
       </c>
       <c r="S4">
-        <v>0.9999235026736655</v>
+        <v>0.9523784760882765</v>
       </c>
       <c r="T4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="U4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="V4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="W4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="X4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="Y4">
-        <v>0.9999235026736655</v>
+        <v>0.955680308486755</v>
       </c>
       <c r="Z4">
-        <v>0.9999235026736655</v>
+        <v>0.9576681410838744</v>
       </c>
       <c r="AA4">
-        <v>0.9999235026736655</v>
+        <v>0.9576681410838744</v>
       </c>
       <c r="AB4">
-        <v>0.9999235026736655</v>
+        <v>0.9576681410838744</v>
       </c>
       <c r="AC4">
-        <v>0.9999235026736655</v>
+        <v>0.9576681410838744</v>
       </c>
       <c r="AD4">
-        <v>0.9999235026736655</v>
+        <v>0.959363645426804</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>0.9843979085478504</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9843979085478504</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9843979085478504</v>
       </c>
       <c r="AH4">
         <v>0.9999999999999999</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4222752828537123</v>
+        <v>0.3678392964760315</v>
       </c>
       <c r="E5">
-        <v>0.4492546334106614</v>
+        <v>0.414670028091823</v>
       </c>
       <c r="F5">
-        <v>0.9613823013761684</v>
+        <v>0.8554758866734141</v>
       </c>
       <c r="G5">
-        <v>0.9613823013761684</v>
+        <v>0.860994382266776</v>
       </c>
       <c r="H5">
-        <v>0.9613823013761684</v>
+        <v>0.8753689649922138</v>
       </c>
       <c r="I5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="J5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="K5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="L5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="M5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="N5">
-        <v>0.9613823013761684</v>
+        <v>0.8803531903415762</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9366350928525166</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9366350928525166</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0.9366350928525166</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.9370636815958718</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.9370636815958718</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9555633980524366</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9587147335496936</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9587147335496936</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9659988964754151</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9659988964754151</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9757573238403919</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9910416984158822</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9910416984158822</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,100 +1790,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3260571843638905</v>
+        <v>0.2842842859730206</v>
       </c>
       <c r="F6">
-        <v>0.4094636716340135</v>
+        <v>0.3752865437920872</v>
       </c>
       <c r="G6">
-        <v>0.9881963355118097</v>
+        <v>0.860838041152299</v>
       </c>
       <c r="H6">
-        <v>0.9881963355118097</v>
+        <v>0.8728729911365157</v>
       </c>
       <c r="I6">
-        <v>0.9881963355118097</v>
+        <v>0.8957571951763721</v>
       </c>
       <c r="J6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="K6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="L6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="M6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="N6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="O6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9447496217069168</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.9477226520079194</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>0.9477226520079194</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0.9477226520079194</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0.9477226520079194</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9585184435944867</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9701955028228385</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9701955028228385</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9771922947258911</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9912339765692531</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9912339765692531</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6430188401029123</v>
+        <v>0.56298058909924</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9468097178298285</v>
+        <v>0.8259059483050833</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8094913127974011</v>
+        <v>0.7062694023076</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9613823013761684</v>
+        <v>0.8554758866734141</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9881963355118097</v>
+        <v>0.860838041152299</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8081766301389084</v>
+        <v>0.7134830950718214</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9468097178298285</v>
+        <v>0.8259059483050833</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8094913127974011</v>
+        <v>0.7062694023076</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9613823013761684</v>
+        <v>0.8554758866734141</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9881963355118097</v>
+        <v>0.860838041152299</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8081766301389084</v>
+        <v>0.8661242095414127</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9468097178298285</v>
+        <v>0.8259059483050833</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8391307030216708</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8094913127974011</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9613823013761684</v>
+        <v>0.8554758866734141</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9881963355118097</v>
+        <v>0.860838041152299</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2728,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9222419715904385</v>
+      </c>
+      <c r="G2">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.951336357714493</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9468097178298285</v>
+        <v>0.9315366378919006</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.942558417785398</v>
+        <v>0.9098000602404999</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9613823013761684</v>
+        <v>0.9366350928525166</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9881963355118097</v>
+        <v>0.910782183793981</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>58</v>
